--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="920" documentId="11_E950549CEE3A02FA7F583F559B5B719DA9C7EA54" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3FFDD8D3-A976-47EC-B7E1-599818DB27D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E24E7B-10E3-4FEB-8611-EA64713DFBFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>Sentence</t>
   </si>
@@ -37,15 +37,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Did the couple buy curtains? Yes/No</t>
-  </si>
-  <si>
-    <t>Did Theodore have trouble finding the road? Yes/No</t>
-  </si>
-  <si>
-    <t>Did the teenagers play football? Yes/No</t>
-  </si>
-  <si>
     <t>nchar</t>
   </si>
   <si>
@@ -55,36 +46,9 @@
     <t>hasQuest</t>
   </si>
   <si>
-    <t>Was Cathy relaxed about giving her speech? Yes/No</t>
-  </si>
-  <si>
     <t>answ</t>
   </si>
   <si>
-    <t>Did Susan visit an auction house? Yes/No</t>
-  </si>
-  <si>
-    <t>Was the birth easy? Yes/No</t>
-  </si>
-  <si>
-    <t>Did the chef order food from local producers? Yes/No</t>
-  </si>
-  <si>
-    <t>Did the mayor resign from his position? Yes/No</t>
-  </si>
-  <si>
-    <t>Was Nicole's comment scandalous? Yes/No</t>
-  </si>
-  <si>
-    <t>Did Margaret have trouble seeing the signs? Yes/No</t>
-  </si>
-  <si>
-    <t>Did the workers replace the sink? Yes/No</t>
-  </si>
-  <si>
-    <t>Did the merchant invest in gold? Yes/No</t>
-  </si>
-  <si>
     <t>Did Katy have financial problems? Yes/No</t>
   </si>
   <si>
@@ -17133,6 +17097,213 @@
       </rPr>
       <t xml:space="preserve"> and to reduce their recovery time.</t>
     </r>
+  </si>
+  <si>
+    <t>О1</t>
+  </si>
+  <si>
+    <t>О2</t>
+  </si>
+  <si>
+    <t>О3</t>
+  </si>
+  <si>
+    <t>О4</t>
+  </si>
+  <si>
+    <t>What did the couple buy?</t>
+  </si>
+  <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>What was Theodore doing?</t>
+  </si>
+  <si>
+    <t>driving</t>
+  </si>
+  <si>
+    <t>fishing</t>
+  </si>
+  <si>
+    <t>a turtle</t>
+  </si>
+  <si>
+    <t>a carpet</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>her toaster</t>
+  </si>
+  <si>
+    <t>What did Carmen lose?</t>
+  </si>
+  <si>
+    <t>her pet</t>
+  </si>
+  <si>
+    <t>her shirt</t>
+  </si>
+  <si>
+    <t>What did his mother buy?</t>
+  </si>
+  <si>
+    <t>studying</t>
+  </si>
+  <si>
+    <t>a cottage</t>
+  </si>
+  <si>
+    <t>an island</t>
+  </si>
+  <si>
+    <t>a private plane</t>
+  </si>
+  <si>
+    <t>a smartphone</t>
+  </si>
+  <si>
+    <t>Who took blame for the incident?</t>
+  </si>
+  <si>
+    <t>the employee</t>
+  </si>
+  <si>
+    <t>the President</t>
+  </si>
+  <si>
+    <t>the Prime Minister</t>
+  </si>
+  <si>
+    <t>the diplomant</t>
+  </si>
+  <si>
+    <t>the boy</t>
+  </si>
+  <si>
+    <t>What were the teenagers playing?</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>hide and seek</t>
+  </si>
+  <si>
+    <t>power rangers</t>
+  </si>
+  <si>
+    <t>Who did the officer question?</t>
+  </si>
+  <si>
+    <t>the witnesses</t>
+  </si>
+  <si>
+    <t>the politicians</t>
+  </si>
+  <si>
+    <t>the homeless</t>
+  </si>
+  <si>
+    <t>What did Susan visit?</t>
+  </si>
+  <si>
+    <t>an auction house</t>
+  </si>
+  <si>
+    <t>a dog shelter</t>
+  </si>
+  <si>
+    <t>Disneyland</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>her lunch</t>
+  </si>
+  <si>
+    <t>Pokémon Go</t>
+  </si>
+  <si>
+    <t>What did she write?</t>
+  </si>
+  <si>
+    <t>her name</t>
+  </si>
+  <si>
+    <t>her age</t>
+  </si>
+  <si>
+    <t>What did Cathy give?</t>
+  </si>
+  <si>
+    <t>her car</t>
+  </si>
+  <si>
+    <t>her TV</t>
+  </si>
+  <si>
+    <t>an article</t>
+  </si>
+  <si>
+    <t>a present</t>
+  </si>
+  <si>
+    <t>a cheque</t>
+  </si>
+  <si>
+    <t>a speech</t>
+  </si>
+  <si>
+    <t>What did the technician help with?</t>
+  </si>
+  <si>
+    <t>a robbery</t>
+  </si>
+  <si>
+    <t>a party</t>
+  </si>
+  <si>
+    <t>a printer</t>
+  </si>
+  <si>
+    <t>a CD-ROM</t>
+  </si>
+  <si>
+    <t>What did the lady need?</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>sleep</t>
+  </si>
+  <si>
+    <t>What did the merchant do?</t>
+  </si>
+  <si>
+    <t>invest money</t>
+  </si>
+  <si>
+    <t>call for help</t>
+  </si>
+  <si>
+    <t>call his wife</t>
+  </si>
+  <si>
+    <t>eat fruits</t>
   </si>
 </sst>
 </file>
@@ -17287,7 +17458,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -17563,10 +17745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L184"/>
+  <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C164" workbookViewId="0">
-      <selection activeCell="L183" sqref="L183"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17575,12 +17757,13 @@
     <col min="2" max="2" width="113.33203125" style="5" customWidth="1"/>
     <col min="3" max="7" width="16.5546875" style="5" customWidth="1"/>
     <col min="8" max="8" width="56" customWidth="1"/>
-    <col min="9" max="9" width="7.88671875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9" max="12" width="19.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.88671875" style="2" customWidth="1"/>
+    <col min="14" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -17588,42 +17771,54 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>8</v>
+      <c r="N1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:16" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>TRIM(MID(SUBSTITUTE(B2," ",REPT(" ",LEN(B2))), (3-1)*LEN(B2)+1, LEN(B2)))</f>
@@ -17646,30 +17841,42 @@
         <v>returning</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <f t="shared" ref="J2:J33" si="0">LEN(B2)</f>
+        <v>223</v>
+      </c>
+      <c r="I2" t="s">
+        <v>230</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
+      </c>
+      <c r="K2" t="s">
+        <v>225</v>
+      </c>
+      <c r="L2" t="s">
+        <v>229</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <f t="shared" ref="N2:N33" si="0">LEN(B2)</f>
         <v>91</v>
       </c>
-      <c r="K2" s="1">
-        <f t="shared" ref="K2:K33" si="1">IF(ISBLANK(B2),0,LEN(TRIM(B2))-LEN(SUBSTITUTE(B2," ",""))+1)</f>
+      <c r="O2" s="1">
+        <f t="shared" ref="O2:O33" si="1">IF(ISBLANK(B2),0,LEN(TRIM(B2))-LEN(SUBSTITUTE(B2," ",""))+1)</f>
         <v>14</v>
       </c>
-      <c r="L2" s="1">
+      <c r="P2" s="1">
         <f>IF(ISNUMBER(SEARCH("",H2)),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6">
+    <row r="3" spans="1:16" ht="15.6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C66" si="2">TRIM(MID(SUBSTITUTE(B3," ",REPT(" ",LEN(B3))), (3-1)*LEN(B3)+1, LEN(B3)))</f>
@@ -17692,30 +17899,42 @@
         <v>driving</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+        <v>226</v>
+      </c>
+      <c r="I3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" t="s">
+        <v>237</v>
+      </c>
+      <c r="L3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="K3" s="1">
+      <c r="O3" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L3" s="1">
-        <f t="shared" ref="L3:L66" si="7">IF(ISNUMBER(SEARCH("",H3)),1,0)</f>
+      <c r="P3" s="1">
+        <f t="shared" ref="P3:P66" si="7">IF(ISNUMBER(SEARCH("",H3)),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.6">
+    <row r="4" spans="1:16" ht="15.6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17737,25 +17956,43 @@
         <f t="shared" si="6"/>
         <v>clothes</v>
       </c>
-      <c r="J4" s="1">
+      <c r="H4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" t="s">
+        <v>261</v>
+      </c>
+      <c r="J4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" t="s">
+        <v>235</v>
+      </c>
+      <c r="L4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="1">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="K4" s="1">
+      <c r="O4" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L4" s="1">
+      <c r="P4" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.6">
+    <row r="5" spans="1:16" ht="15.6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17777,25 +18014,43 @@
         <f t="shared" si="6"/>
         <v>online</v>
       </c>
-      <c r="J5" s="1">
+      <c r="H5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" t="s">
+        <v>241</v>
+      </c>
+      <c r="L5" t="s">
+        <v>238</v>
+      </c>
+      <c r="M5" s="2">
+        <v>4</v>
+      </c>
+      <c r="N5" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="K5" s="1">
+      <c r="O5" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L5" s="1">
+      <c r="P5" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.6">
+    <row r="6" spans="1:16" ht="15.6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17818,30 +18073,42 @@
         <v>practise</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
+        <v>248</v>
+      </c>
+      <c r="I6" t="s">
+        <v>249</v>
+      </c>
+      <c r="J6" t="s">
+        <v>262</v>
+      </c>
+      <c r="K6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" t="s">
+        <v>251</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="K6" s="1">
+      <c r="O6" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.6">
+    <row r="7" spans="1:16" ht="15.6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17863,25 +18130,43 @@
         <f t="shared" si="6"/>
         <v>blame</v>
       </c>
-      <c r="J7" s="1">
+      <c r="H7" t="s">
+        <v>242</v>
+      </c>
+      <c r="I7" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L7" t="s">
+        <v>247</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K7" s="1">
+      <c r="O7" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.6">
+    <row r="8" spans="1:16" ht="15.6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17903,25 +18188,43 @@
         <f t="shared" si="6"/>
         <v>might</v>
       </c>
-      <c r="J8" s="1">
+      <c r="H8" t="s">
+        <v>252</v>
+      </c>
+      <c r="I8" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K8" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="K8" s="1">
+      <c r="O8" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.6">
+    <row r="9" spans="1:16" ht="15.6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17944,30 +18247,42 @@
         <v>auction</v>
       </c>
       <c r="H9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
+        <v>256</v>
+      </c>
+      <c r="I9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K9" t="s">
+        <v>260</v>
+      </c>
+      <c r="L9" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="K9" s="1">
+      <c r="O9" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L9" s="1">
+      <c r="P9" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.6">
+    <row r="10" spans="1:16" ht="15.6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="2"/>
@@ -17989,25 +18304,25 @@
         <f t="shared" si="6"/>
         <v>invited</v>
       </c>
-      <c r="J10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="K10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.6">
+    <row r="11" spans="1:16" ht="15.6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18029,25 +18344,43 @@
         <f t="shared" si="6"/>
         <v>cause</v>
       </c>
-      <c r="J11" s="1">
+      <c r="H11" t="s">
+        <v>263</v>
+      </c>
+      <c r="I11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J11" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" t="s">
+        <v>265</v>
+      </c>
+      <c r="L11" t="s">
+        <v>264</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="K11" s="1">
+      <c r="O11" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L11" s="1">
+      <c r="P11" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.6">
+    <row r="12" spans="1:16" ht="15.6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18070,30 +18403,42 @@
         <v>panel</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
+        <v>266</v>
+      </c>
+      <c r="I12" t="s">
+        <v>270</v>
+      </c>
+      <c r="J12" t="s">
+        <v>272</v>
+      </c>
+      <c r="K12" t="s">
+        <v>267</v>
+      </c>
+      <c r="L12" t="s">
+        <v>268</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="K12" s="1">
+      <c r="O12" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L12" s="1">
+      <c r="P12" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.6">
+    <row r="13" spans="1:16" ht="15.6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18115,25 +18460,25 @@
         <f t="shared" si="6"/>
         <v>pieces</v>
       </c>
-      <c r="J13" s="1">
+      <c r="N13" s="1">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="K13" s="1">
+      <c r="O13" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L13" s="1">
+      <c r="P13" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.6">
+    <row r="14" spans="1:16" ht="15.6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18155,25 +18500,25 @@
         <f t="shared" si="6"/>
         <v>spend</v>
       </c>
-      <c r="J14" s="1">
+      <c r="N14" s="1">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="K14" s="1">
+      <c r="O14" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L14" s="1">
+      <c r="P14" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.6">
+    <row r="15" spans="1:16" ht="15.6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18195,31 +18540,25 @@
         <f t="shared" si="6"/>
         <v>earlier</v>
       </c>
-      <c r="H15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
+      <c r="N15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K15" s="1">
+      <c r="O15" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.6">
+    <row r="16" spans="1:16" ht="15.6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18241,25 +18580,25 @@
         <f t="shared" si="6"/>
         <v>useful</v>
       </c>
-      <c r="J16" s="1">
+      <c r="N16" s="1">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="K16" s="1">
+      <c r="O16" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.6">
+    <row r="17" spans="1:16" ht="15.6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18281,25 +18620,25 @@
         <f t="shared" si="6"/>
         <v>throughout</v>
       </c>
-      <c r="J17" s="1">
+      <c r="N17" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="K17" s="1">
+      <c r="O17" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.6">
+    <row r="18" spans="1:16" ht="15.6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18321,25 +18660,25 @@
         <f t="shared" si="6"/>
         <v>thieves</v>
       </c>
-      <c r="J18" s="1">
+      <c r="N18" s="1">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="K18" s="1">
+      <c r="O18" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L18" s="1">
+      <c r="P18" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.6">
+    <row r="19" spans="1:16" ht="15.6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18361,31 +18700,25 @@
         <f t="shared" si="6"/>
         <v>farmers</v>
       </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="N19" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K19" s="1">
+      <c r="O19" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L19" s="1">
+      <c r="P19" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.6">
+    <row r="20" spans="1:16" ht="15.6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18407,25 +18740,25 @@
         <f t="shared" si="6"/>
         <v>pondweed</v>
       </c>
-      <c r="J20" s="1">
+      <c r="N20" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
+      <c r="O20" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L20" s="1">
+      <c r="P20" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.6">
+    <row r="21" spans="1:16" ht="15.6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18447,25 +18780,25 @@
         <f t="shared" si="6"/>
         <v>belonged</v>
       </c>
-      <c r="J21" s="1">
+      <c r="N21" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K21" s="1">
+      <c r="O21" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L21" s="1">
+      <c r="P21" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.6">
+    <row r="22" spans="1:16" ht="15.6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18487,25 +18820,25 @@
         <f t="shared" si="6"/>
         <v>explain</v>
       </c>
-      <c r="J22" s="1">
+      <c r="N22" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="K22" s="1">
+      <c r="O22" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L22" s="1">
+      <c r="P22" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6">
+    <row r="23" spans="1:16" ht="15.6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18527,31 +18860,25 @@
         <f t="shared" si="6"/>
         <v>social</v>
       </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="1">
+      <c r="N23" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="K23" s="1">
+      <c r="O23" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L23" s="1">
+      <c r="P23" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.6">
+    <row r="24" spans="1:16" ht="15.6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C24" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18573,25 +18900,25 @@
         <f t="shared" si="6"/>
         <v>prepared</v>
       </c>
-      <c r="J24" s="1">
+      <c r="N24" s="1">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="K24" s="1">
+      <c r="O24" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L24" s="1">
+      <c r="P24" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6">
+    <row r="25" spans="1:16" ht="15.6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C25" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18613,25 +18940,25 @@
         <f t="shared" si="6"/>
         <v>rounds</v>
       </c>
-      <c r="J25" s="1">
+      <c r="N25" s="1">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="K25" s="1">
+      <c r="O25" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L25" s="1">
+      <c r="P25" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.6">
+    <row r="26" spans="1:16" ht="15.6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C26" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18653,25 +18980,25 @@
         <f t="shared" si="6"/>
         <v>explain</v>
       </c>
-      <c r="J26" s="1">
+      <c r="N26" s="1">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="K26" s="1">
+      <c r="O26" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L26" s="1">
+      <c r="P26" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.6">
+    <row r="27" spans="1:16" ht="15.6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C27" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18693,31 +19020,25 @@
         <f t="shared" si="6"/>
         <v>caused</v>
       </c>
-      <c r="H27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="2">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
+      <c r="N27" s="1">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="K27" s="1">
+      <c r="O27" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L27" s="1">
+      <c r="P27" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.6">
+    <row r="28" spans="1:16" ht="15.6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C28" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18739,25 +19060,25 @@
         <f t="shared" si="6"/>
         <v>about</v>
       </c>
-      <c r="J28" s="1">
+      <c r="N28" s="1">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="K28" s="1">
+      <c r="O28" s="1">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="L28" s="1">
+      <c r="P28" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.6">
+    <row r="29" spans="1:16" ht="15.6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C29" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18779,31 +19100,25 @@
         <f t="shared" si="6"/>
         <v>during</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1</v>
-      </c>
-      <c r="J29" s="1">
+      <c r="N29" s="1">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="K29" s="1">
+      <c r="O29" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L29" s="1">
+      <c r="P29" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.6">
+    <row r="30" spans="1:16" ht="15.6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18825,25 +19140,25 @@
         <f t="shared" si="6"/>
         <v>flocked</v>
       </c>
-      <c r="J30" s="1">
+      <c r="N30" s="1">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="K30" s="1">
+      <c r="O30" s="1">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="L30" s="1">
+      <c r="P30" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6">
+    <row r="31" spans="1:16" ht="15.6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C31" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18865,31 +19180,25 @@
         <f t="shared" si="6"/>
         <v>entire</v>
       </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="2">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1">
+      <c r="N31" s="1">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="K31" s="1">
+      <c r="O31" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L31" s="1">
+      <c r="P31" s="1">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.6">
+    <row r="32" spans="1:16" ht="15.6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18911,25 +19220,43 @@
         <f t="shared" si="6"/>
         <v>connection</v>
       </c>
-      <c r="J32" s="1">
+      <c r="H32" t="s">
+        <v>273</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="2">
+        <v>3</v>
+      </c>
+      <c r="N32" s="1">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="K32" s="1">
+      <c r="O32" s="1">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="L32" s="1">
+      <c r="P32" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.6">
+    <row r="33" spans="1:16" ht="15.6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C33" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18951,25 +19278,25 @@
         <f t="shared" si="6"/>
         <v>improve</v>
       </c>
-      <c r="J33" s="1">
+      <c r="N33" s="1">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="K33" s="1">
+      <c r="O33" s="1">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="L33" s="1">
+      <c r="P33" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.6">
+    <row r="34" spans="1:16" ht="15.6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C34" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18991,25 +19318,43 @@
         <f t="shared" si="6"/>
         <v>spacious</v>
       </c>
-      <c r="J34" s="1">
-        <f t="shared" ref="J34:J65" si="8">LEN(B34)</f>
+      <c r="H34" t="s">
+        <v>278</v>
+      </c>
+      <c r="I34" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" t="s">
+        <v>281</v>
+      </c>
+      <c r="K34" t="s">
+        <v>280</v>
+      </c>
+      <c r="L34" t="s">
+        <v>279</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ref="N34:N65" si="8">LEN(B34)</f>
         <v>79</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" ref="K34:K65" si="9">IF(ISBLANK(B34),0,LEN(TRIM(B34))-LEN(SUBSTITUTE(B34," ",""))+1)</f>
+      <c r="O34" s="1">
+        <f t="shared" ref="O34:O65" si="9">IF(ISBLANK(B34),0,LEN(TRIM(B34))-LEN(SUBSTITUTE(B34," ",""))+1)</f>
         <v>13</v>
       </c>
-      <c r="L34" s="1">
+      <c r="P34" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.6">
+    <row r="35" spans="1:16" ht="15.6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19032,30 +19377,42 @@
         <v>financial</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1">
+        <v>283</v>
+      </c>
+      <c r="I35" t="s">
+        <v>284</v>
+      </c>
+      <c r="J35" t="s">
+        <v>287</v>
+      </c>
+      <c r="K35" t="s">
+        <v>285</v>
+      </c>
+      <c r="L35" t="s">
+        <v>286</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="K35" s="1">
+      <c r="O35" s="1">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="L35" s="1">
+      <c r="P35" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.6">
+    <row r="36" spans="1:16" ht="15.6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19077,25 +19434,25 @@
         <f t="shared" si="6"/>
         <v>good</v>
       </c>
-      <c r="J36" s="1">
+      <c r="N36" s="1">
         <f t="shared" si="8"/>
         <v>85</v>
       </c>
-      <c r="K36" s="1">
+      <c r="O36" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L36" s="1">
+      <c r="P36" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.6">
+    <row r="37" spans="1:16" ht="15.6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19117,25 +19474,25 @@
         <f t="shared" si="6"/>
         <v>election</v>
       </c>
-      <c r="J37" s="1">
+      <c r="N37" s="1">
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
-      <c r="K37" s="1">
+      <c r="O37" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L37" s="1">
+      <c r="P37" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.6">
+    <row r="38" spans="1:16" ht="15.6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19157,25 +19514,25 @@
         <f t="shared" si="6"/>
         <v>secret</v>
       </c>
-      <c r="J38" s="1">
+      <c r="N38" s="1">
         <f t="shared" si="8"/>
         <v>86</v>
       </c>
-      <c r="K38" s="1">
+      <c r="O38" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L38" s="1">
+      <c r="P38" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.6">
+    <row r="39" spans="1:16" ht="15.6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19197,25 +19554,25 @@
         <f t="shared" si="6"/>
         <v>money</v>
       </c>
-      <c r="J39" s="1">
+      <c r="N39" s="1">
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
-      <c r="K39" s="1">
+      <c r="O39" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L39" s="1">
+      <c r="P39" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15.6">
+    <row r="40" spans="1:16" ht="15.6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19238,30 +19595,30 @@
         <v>ruin</v>
       </c>
       <c r="H40" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="2">
+        <v>7</v>
+      </c>
+      <c r="M40" s="2">
         <v>1</v>
       </c>
-      <c r="J40" s="1">
+      <c r="N40" s="1">
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
-      <c r="K40" s="1">
+      <c r="O40" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L40" s="1">
+      <c r="P40" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15.6">
+    <row r="41" spans="1:16" ht="15.6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19283,25 +19640,25 @@
         <f t="shared" si="6"/>
         <v>retire</v>
       </c>
-      <c r="J41" s="1">
+      <c r="N41" s="1">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="K41" s="1">
+      <c r="O41" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L41" s="1">
+      <c r="P41" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15.6">
+    <row r="42" spans="1:16" ht="15.6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19323,25 +19680,25 @@
         <f t="shared" si="6"/>
         <v>holiday</v>
       </c>
-      <c r="J42" s="1">
+      <c r="N42" s="1">
         <f t="shared" si="8"/>
         <v>79</v>
       </c>
-      <c r="K42" s="1">
+      <c r="O42" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L42" s="1">
+      <c r="P42" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15.6">
+    <row r="43" spans="1:16" ht="15.6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19364,30 +19721,30 @@
         <v>couldn’t</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="2">
+        <v>8</v>
+      </c>
+      <c r="M43" s="2">
         <v>1</v>
       </c>
-      <c r="J43" s="1">
+      <c r="N43" s="1">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="K43" s="1">
+      <c r="O43" s="1">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="L43" s="1">
+      <c r="P43" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15.6">
+    <row r="44" spans="1:16" ht="15.6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19410,30 +19767,30 @@
         <v>concern</v>
       </c>
       <c r="H44" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="2">
+        <v>9</v>
+      </c>
+      <c r="M44" s="2">
         <v>1</v>
       </c>
-      <c r="J44" s="1">
+      <c r="N44" s="1">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="K44" s="1">
+      <c r="O44" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L44" s="1">
+      <c r="P44" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15.6">
+    <row r="45" spans="1:16" ht="15.6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19455,25 +19812,25 @@
         <f t="shared" si="6"/>
         <v>tropical</v>
       </c>
-      <c r="J45" s="1">
+      <c r="N45" s="1">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="K45" s="1">
+      <c r="O45" s="1">
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="L45" s="1">
+      <c r="P45" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15.6">
+    <row r="46" spans="1:16" ht="15.6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19495,25 +19852,25 @@
         <f t="shared" si="6"/>
         <v>opened</v>
       </c>
-      <c r="J46" s="1">
+      <c r="N46" s="1">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="K46" s="1">
+      <c r="O46" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L46" s="1">
+      <c r="P46" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15.6">
+    <row r="47" spans="1:16" ht="15.6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19536,30 +19893,30 @@
         <v>wanted</v>
       </c>
       <c r="H47" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="2">
+        <v>10</v>
+      </c>
+      <c r="M47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="N47" s="1">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="K47" s="1">
+      <c r="O47" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="L47" s="1">
+      <c r="P47" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15.6">
+    <row r="48" spans="1:16" ht="15.6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19581,25 +19938,25 @@
         <f t="shared" si="6"/>
         <v>maintained</v>
       </c>
-      <c r="J48" s="1">
+      <c r="N48" s="1">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="K48" s="1">
+      <c r="O48" s="1">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="L48" s="1">
+      <c r="P48" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15.6">
+    <row r="49" spans="1:16" ht="15.6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19621,25 +19978,25 @@
         <f t="shared" si="6"/>
         <v>staff</v>
       </c>
-      <c r="J49" s="1">
+      <c r="N49" s="1">
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
-      <c r="K49" s="1">
+      <c r="O49" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L49" s="1">
+      <c r="P49" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15.6">
+    <row r="50" spans="1:16" ht="15.6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19661,25 +20018,25 @@
         <f t="shared" si="6"/>
         <v>replace</v>
       </c>
-      <c r="J50" s="1">
+      <c r="N50" s="1">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="K50" s="1">
+      <c r="O50" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L50" s="1">
+      <c r="P50" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15.6">
+    <row r="51" spans="1:16" ht="15.6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C51" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19702,30 +20059,30 @@
         <v>makes</v>
       </c>
       <c r="H51" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="2">
+        <v>11</v>
+      </c>
+      <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="N51" s="1">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="K51" s="1">
+      <c r="O51" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="L51" s="1">
+      <c r="P51" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15.6">
+    <row r="52" spans="1:16" ht="15.6">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C52" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19747,25 +20104,25 @@
         <f t="shared" si="6"/>
         <v>unsolved</v>
       </c>
-      <c r="J52" s="1">
+      <c r="N52" s="1">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="K52" s="1">
+      <c r="O52" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L52" s="1">
+      <c r="P52" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15.6">
+    <row r="53" spans="1:16" ht="15.6">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19787,25 +20144,25 @@
         <f t="shared" si="6"/>
         <v>proper</v>
       </c>
-      <c r="J53" s="1">
+      <c r="N53" s="1">
         <f t="shared" si="8"/>
         <v>84</v>
       </c>
-      <c r="K53" s="1">
+      <c r="O53" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L53" s="1">
+      <c r="P53" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15.6">
+    <row r="54" spans="1:16" ht="15.6">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19828,30 +20185,30 @@
         <v>salsa</v>
       </c>
       <c r="H54" t="s">
-        <v>24</v>
-      </c>
-      <c r="I54" s="2">
+        <v>12</v>
+      </c>
+      <c r="M54" s="2">
         <v>0</v>
       </c>
-      <c r="J54" s="1">
+      <c r="N54" s="1">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="K54" s="1">
+      <c r="O54" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="L54" s="1">
+      <c r="P54" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15.6">
+    <row r="55" spans="1:16" ht="15.6">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19873,25 +20230,25 @@
         <f t="shared" si="6"/>
         <v>difficult</v>
       </c>
-      <c r="J55" s="1">
+      <c r="N55" s="1">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="K55" s="1">
+      <c r="O55" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L55" s="1">
+      <c r="P55" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15.6">
+    <row r="56" spans="1:16" ht="15.6">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C56" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19914,30 +20271,30 @@
         <v>blazing</v>
       </c>
       <c r="H56" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="2">
+        <v>13</v>
+      </c>
+      <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="J56" s="1">
+      <c r="N56" s="1">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="K56" s="1">
+      <c r="O56" s="1">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="L56" s="1">
+      <c r="P56" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15.6">
+    <row r="57" spans="1:16" ht="15.6">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19959,25 +20316,25 @@
         <f t="shared" si="6"/>
         <v>detected</v>
       </c>
-      <c r="J57" s="1">
+      <c r="N57" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="K57" s="1">
+      <c r="O57" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L57" s="1">
+      <c r="P57" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15.6">
+    <row r="58" spans="1:16" ht="15.6">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19999,25 +20356,25 @@
         <f t="shared" si="6"/>
         <v>natural</v>
       </c>
-      <c r="J58" s="1">
+      <c r="N58" s="1">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="K58" s="1">
+      <c r="O58" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L58" s="1">
+      <c r="P58" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15.6">
+    <row r="59" spans="1:16" ht="15.6">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20040,30 +20397,30 @@
         <v>call</v>
       </c>
       <c r="H59" t="s">
-        <v>26</v>
-      </c>
-      <c r="I59" s="2">
+        <v>14</v>
+      </c>
+      <c r="M59" s="2">
         <v>1</v>
       </c>
-      <c r="J59" s="1">
+      <c r="N59" s="1">
         <f t="shared" si="8"/>
         <v>75</v>
       </c>
-      <c r="K59" s="1">
+      <c r="O59" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L59" s="1">
+      <c r="P59" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15.6">
+    <row r="60" spans="1:16" ht="15.6">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20085,25 +20442,25 @@
         <f t="shared" si="6"/>
         <v>long</v>
       </c>
-      <c r="J60" s="1">
+      <c r="N60" s="1">
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
-      <c r="K60" s="1">
+      <c r="O60" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L60" s="1">
+      <c r="P60" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15.6">
+    <row r="61" spans="1:16" ht="15.6">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20126,30 +20483,30 @@
         <v>during</v>
       </c>
       <c r="H61" t="s">
-        <v>44</v>
-      </c>
-      <c r="I61" s="2">
+        <v>32</v>
+      </c>
+      <c r="M61" s="2">
         <v>0</v>
       </c>
-      <c r="J61" s="1">
+      <c r="N61" s="1">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="K61" s="1">
+      <c r="O61" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L61" s="1">
+      <c r="P61" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15.6">
+    <row r="62" spans="1:16" ht="15.6">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20171,25 +20528,25 @@
         <f t="shared" si="6"/>
         <v>velvet</v>
       </c>
-      <c r="J62" s="1">
+      <c r="N62" s="1">
         <f t="shared" si="8"/>
         <v>82</v>
       </c>
-      <c r="K62" s="1">
+      <c r="O62" s="1">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="L62" s="1">
+      <c r="P62" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.6">
+    <row r="63" spans="1:16" ht="15.6">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20211,25 +20568,25 @@
         <f t="shared" si="6"/>
         <v>technology</v>
       </c>
-      <c r="J63" s="1">
+      <c r="N63" s="1">
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
-      <c r="K63" s="1">
+      <c r="O63" s="1">
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="L63" s="1">
+      <c r="P63" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15.6">
+    <row r="64" spans="1:16" ht="15.6">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20251,25 +20608,25 @@
         <f t="shared" si="6"/>
         <v>continental</v>
       </c>
-      <c r="J64" s="1">
+      <c r="N64" s="1">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="K64" s="1">
+      <c r="O64" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L64" s="1">
+      <c r="P64" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6">
+    <row r="65" spans="1:16" ht="15.6">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20292,30 +20649,30 @@
         <v>come</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
-      </c>
-      <c r="I65" s="2">
+        <v>15</v>
+      </c>
+      <c r="M65" s="2">
         <v>0</v>
       </c>
-      <c r="J65" s="1">
+      <c r="N65" s="1">
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
-      <c r="K65" s="1">
+      <c r="O65" s="1">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="L65" s="1">
+      <c r="P65" s="1">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.6">
+    <row r="66" spans="1:16" ht="15.6">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20337,25 +20694,25 @@
         <f t="shared" si="6"/>
         <v>allowed</v>
       </c>
-      <c r="J66" s="1">
-        <f t="shared" ref="J66:J97" si="10">LEN(B66)</f>
+      <c r="N66" s="1">
+        <f t="shared" ref="N66:N97" si="10">LEN(B66)</f>
         <v>85</v>
       </c>
-      <c r="K66" s="1">
-        <f t="shared" ref="K66:K97" si="11">IF(ISBLANK(B66),0,LEN(TRIM(B66))-LEN(SUBSTITUTE(B66," ",""))+1)</f>
+      <c r="O66" s="1">
+        <f t="shared" ref="O66:O97" si="11">IF(ISBLANK(B66),0,LEN(TRIM(B66))-LEN(SUBSTITUTE(B66," ",""))+1)</f>
         <v>14</v>
       </c>
-      <c r="L66" s="1">
+      <c r="P66" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6">
+    <row r="67" spans="1:16" ht="15.6">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" ref="C67:C130" si="12">TRIM(MID(SUBSTITUTE(B67," ",REPT(" ",LEN(B67))), (3-1)*LEN(B67)+1, LEN(B67)))</f>
@@ -20378,30 +20735,30 @@
         <v>cyclists</v>
       </c>
       <c r="H67" t="s">
-        <v>28</v>
-      </c>
-      <c r="I67" s="2">
+        <v>16</v>
+      </c>
+      <c r="M67" s="2">
         <v>1</v>
       </c>
-      <c r="J67" s="1">
+      <c r="N67" s="1">
         <f t="shared" si="10"/>
         <v>86</v>
       </c>
-      <c r="K67" s="1">
+      <c r="O67" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L67" s="1">
-        <f t="shared" ref="L67:L132" si="17">IF(ISNUMBER(SEARCH("",H67)),1,0)</f>
+      <c r="P67" s="1">
+        <f t="shared" ref="P67:P132" si="17">IF(ISNUMBER(SEARCH("",H67)),1,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6">
+    <row r="68" spans="1:16" ht="15.6">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20423,25 +20780,25 @@
         <f t="shared" si="16"/>
         <v>during</v>
       </c>
-      <c r="J68" s="1">
+      <c r="N68" s="1">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="K68" s="1">
+      <c r="O68" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L68" s="1">
+      <c r="P68" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.6">
+    <row r="69" spans="1:16" ht="15.6">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20463,25 +20820,25 @@
         <f t="shared" si="16"/>
         <v>place</v>
       </c>
-      <c r="J69" s="1">
+      <c r="N69" s="1">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="K69" s="1">
+      <c r="O69" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L69" s="1">
+      <c r="P69" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6">
+    <row r="70" spans="1:16" ht="15.6">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20503,25 +20860,25 @@
         <f t="shared" si="16"/>
         <v>attract</v>
       </c>
-      <c r="J70" s="1">
+      <c r="N70" s="1">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="K70" s="1">
+      <c r="O70" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L70" s="1">
+      <c r="P70" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.6">
+    <row r="71" spans="1:16" ht="15.6">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20543,25 +20900,25 @@
         <f t="shared" si="16"/>
         <v>facilities</v>
       </c>
-      <c r="J71" s="1">
+      <c r="N71" s="1">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="K71" s="1">
+      <c r="O71" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L71" s="1">
+      <c r="P71" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6">
+    <row r="72" spans="1:16" ht="15.6">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20584,30 +20941,30 @@
         <v>term</v>
       </c>
       <c r="H72" t="s">
-        <v>29</v>
-      </c>
-      <c r="I72" s="2">
+        <v>17</v>
+      </c>
+      <c r="M72" s="2">
         <v>1</v>
       </c>
-      <c r="J72" s="1">
+      <c r="N72" s="1">
         <f t="shared" si="10"/>
         <v>82</v>
       </c>
-      <c r="K72" s="1">
+      <c r="O72" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L72" s="1">
+      <c r="P72" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6">
+    <row r="73" spans="1:16" ht="15.6">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20629,25 +20986,25 @@
         <f t="shared" si="16"/>
         <v>nearby</v>
       </c>
-      <c r="J73" s="1">
+      <c r="N73" s="1">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="K73" s="1">
+      <c r="O73" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L73" s="1">
+      <c r="P73" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.6">
+    <row r="74" spans="1:16" ht="15.6">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20669,25 +21026,25 @@
         <f t="shared" si="16"/>
         <v>people</v>
       </c>
-      <c r="J74" s="1">
+      <c r="N74" s="1">
         <f t="shared" si="10"/>
         <v>93</v>
       </c>
-      <c r="K74" s="1">
+      <c r="O74" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L74" s="1">
+      <c r="P74" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6">
+    <row r="75" spans="1:16" ht="15.6">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20709,25 +21066,25 @@
         <f t="shared" si="16"/>
         <v>expanding</v>
       </c>
-      <c r="J75" s="1">
+      <c r="N75" s="1">
         <f t="shared" si="10"/>
         <v>104</v>
       </c>
-      <c r="K75" s="1">
+      <c r="O75" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L75" s="1">
+      <c r="P75" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6">
+    <row r="76" spans="1:16" ht="15.6">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20749,25 +21106,25 @@
         <f t="shared" si="16"/>
         <v>pranks</v>
       </c>
-      <c r="J76" s="1">
+      <c r="N76" s="1">
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="K76" s="1">
+      <c r="O76" s="1">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="L76" s="1">
+      <c r="P76" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6">
+    <row r="77" spans="1:16" ht="15.6">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20790,30 +21147,30 @@
         <v>prize</v>
       </c>
       <c r="H77" t="s">
-        <v>30</v>
-      </c>
-      <c r="I77" s="2">
+        <v>18</v>
+      </c>
+      <c r="M77" s="2">
         <v>1</v>
       </c>
-      <c r="J77" s="1">
+      <c r="N77" s="1">
         <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="K77" s="1">
+      <c r="O77" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L77" s="1">
+      <c r="P77" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.6">
+    <row r="78" spans="1:16" ht="15.6">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20836,30 +21193,30 @@
         <v>valve</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
-      </c>
-      <c r="I78" s="2">
+        <v>19</v>
+      </c>
+      <c r="M78" s="2">
         <v>0</v>
       </c>
-      <c r="J78" s="1">
+      <c r="N78" s="1">
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="K78" s="1">
+      <c r="O78" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L78" s="1">
+      <c r="P78" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.6">
+    <row r="79" spans="1:16" ht="15.6">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20881,25 +21238,25 @@
         <f t="shared" si="16"/>
         <v>wild</v>
       </c>
-      <c r="J79" s="1">
+      <c r="N79" s="1">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="K79" s="1">
+      <c r="O79" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L79" s="1">
+      <c r="P79" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6">
+    <row r="80" spans="1:16" ht="15.6">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20921,25 +21278,25 @@
         <f t="shared" si="16"/>
         <v>systems</v>
       </c>
-      <c r="J80" s="1">
+      <c r="N80" s="1">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="K80" s="1">
+      <c r="O80" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L80" s="1">
+      <c r="P80" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.6">
+    <row r="81" spans="1:16" ht="15.6">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C81" s="9" t="str">
         <f t="shared" si="12"/>
@@ -20961,25 +21318,25 @@
         <f t="shared" si="16"/>
         <v>remain</v>
       </c>
-      <c r="J81" s="1">
+      <c r="N81" s="1">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="K81" s="1">
+      <c r="O81" s="1">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="L81" s="1">
+      <c r="P81" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.6">
+    <row r="82" spans="1:16" ht="15.6">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21002,30 +21359,30 @@
         <v>another</v>
       </c>
       <c r="H82" t="s">
-        <v>32</v>
-      </c>
-      <c r="I82" s="2">
+        <v>20</v>
+      </c>
+      <c r="M82" s="2">
         <v>0</v>
       </c>
-      <c r="J82" s="1">
+      <c r="N82" s="1">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="K82" s="1">
+      <c r="O82" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L82" s="1">
+      <c r="P82" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.6">
+    <row r="83" spans="1:16" ht="15.6">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C83" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21047,25 +21404,25 @@
         <f t="shared" si="16"/>
         <v>members</v>
       </c>
-      <c r="J83" s="1">
+      <c r="N83" s="1">
         <f t="shared" si="10"/>
         <v>81</v>
       </c>
-      <c r="K83" s="1">
+      <c r="O83" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L83" s="1">
+      <c r="P83" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.6">
+    <row r="84" spans="1:16" ht="15.6">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C84" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21087,25 +21444,25 @@
         <f t="shared" si="16"/>
         <v>enjoy</v>
       </c>
-      <c r="J84" s="1">
+      <c r="N84" s="1">
         <f t="shared" si="10"/>
         <v>89</v>
       </c>
-      <c r="K84" s="1">
+      <c r="O84" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L84" s="1">
+      <c r="P84" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.6">
+    <row r="85" spans="1:16" ht="15.6">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21128,30 +21485,30 @@
         <v>some</v>
       </c>
       <c r="H85" t="s">
-        <v>33</v>
-      </c>
-      <c r="I85" s="2">
+        <v>21</v>
+      </c>
+      <c r="M85" s="2">
         <v>0</v>
       </c>
-      <c r="J85" s="1">
+      <c r="N85" s="1">
         <f t="shared" si="10"/>
         <v>102</v>
       </c>
-      <c r="K85" s="1">
+      <c r="O85" s="1">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="L85" s="1">
+      <c r="P85" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.6">
+    <row r="86" spans="1:16" ht="15.6">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21173,25 +21530,25 @@
         <f t="shared" si="16"/>
         <v>historical</v>
       </c>
-      <c r="J86" s="1">
+      <c r="N86" s="1">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="K86" s="1">
+      <c r="O86" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L86" s="1">
+      <c r="P86" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.6">
+    <row r="87" spans="1:16" ht="15.6">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21214,30 +21571,30 @@
         <v>before</v>
       </c>
       <c r="H87" t="s">
-        <v>45</v>
-      </c>
-      <c r="I87" s="2">
+        <v>33</v>
+      </c>
+      <c r="M87" s="2">
         <v>1</v>
       </c>
-      <c r="J87" s="1">
+      <c r="N87" s="1">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="K87" s="1">
+      <c r="O87" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L87" s="1">
+      <c r="P87" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.6">
+    <row r="88" spans="1:16" ht="15.6">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21259,25 +21616,25 @@
         <f t="shared" si="16"/>
         <v>another</v>
       </c>
-      <c r="J88" s="1">
+      <c r="N88" s="1">
         <f t="shared" si="10"/>
         <v>94</v>
       </c>
-      <c r="K88" s="1">
+      <c r="O88" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L88" s="1">
+      <c r="P88" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.6">
+    <row r="89" spans="1:16" ht="15.6">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21299,25 +21656,25 @@
         <f t="shared" si="16"/>
         <v>wealthy</v>
       </c>
-      <c r="J89" s="1">
+      <c r="N89" s="1">
         <f t="shared" si="10"/>
         <v>98</v>
       </c>
-      <c r="K89" s="1">
+      <c r="O89" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L89" s="1">
+      <c r="P89" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.6">
+    <row r="90" spans="1:16" ht="15.6">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21340,30 +21697,30 @@
         <v>time</v>
       </c>
       <c r="H90" t="s">
-        <v>34</v>
-      </c>
-      <c r="I90" s="2">
+        <v>22</v>
+      </c>
+      <c r="M90" s="2">
         <v>1</v>
       </c>
-      <c r="J90" s="1">
+      <c r="N90" s="1">
         <f t="shared" si="10"/>
         <v>95</v>
       </c>
-      <c r="K90" s="1">
+      <c r="O90" s="1">
         <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="L90" s="1">
+      <c r="P90" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.6">
+    <row r="91" spans="1:16" ht="15.6">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21385,25 +21742,25 @@
         <f t="shared" si="16"/>
         <v>mountain</v>
       </c>
-      <c r="J91" s="1">
+      <c r="N91" s="1">
         <f t="shared" si="10"/>
         <v>79</v>
       </c>
-      <c r="K91" s="1">
+      <c r="O91" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L91" s="1">
+      <c r="P91" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.6">
+    <row r="92" spans="1:16" ht="15.6">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21426,30 +21783,30 @@
         <v>courtroom</v>
       </c>
       <c r="H92" t="s">
-        <v>35</v>
-      </c>
-      <c r="I92" s="2">
+        <v>23</v>
+      </c>
+      <c r="M92" s="2">
         <v>0</v>
       </c>
-      <c r="J92" s="1">
+      <c r="N92" s="1">
         <f t="shared" si="10"/>
         <v>97</v>
       </c>
-      <c r="K92" s="1">
+      <c r="O92" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L92" s="1">
+      <c r="P92" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.6">
+    <row r="93" spans="1:16" ht="15.6">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21471,25 +21828,25 @@
         <f t="shared" si="16"/>
         <v>doctor</v>
       </c>
-      <c r="J93" s="1">
+      <c r="N93" s="1">
         <f t="shared" si="10"/>
         <v>92</v>
       </c>
-      <c r="K93" s="1">
+      <c r="O93" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="L93" s="1">
+      <c r="P93" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.6">
+    <row r="94" spans="1:16" ht="15.6">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21511,25 +21868,25 @@
         <f t="shared" si="16"/>
         <v>which</v>
       </c>
-      <c r="J94" s="1">
+      <c r="N94" s="1">
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
-      <c r="K94" s="1">
+      <c r="O94" s="1">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="L94" s="1">
+      <c r="P94" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.6">
+    <row r="95" spans="1:16" ht="15.6">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21552,30 +21909,30 @@
         <v>digging</v>
       </c>
       <c r="H95" t="s">
-        <v>36</v>
-      </c>
-      <c r="I95" s="2">
+        <v>24</v>
+      </c>
+      <c r="M95" s="2">
         <v>1</v>
       </c>
-      <c r="J95" s="1">
+      <c r="N95" s="1">
         <f t="shared" si="10"/>
         <v>88</v>
       </c>
-      <c r="K95" s="1">
+      <c r="O95" s="1">
         <f t="shared" si="11"/>
         <v>15</v>
       </c>
-      <c r="L95" s="1">
+      <c r="P95" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.6">
+    <row r="96" spans="1:16" ht="15.6">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21597,25 +21954,25 @@
         <f t="shared" si="16"/>
         <v>could</v>
       </c>
-      <c r="J96" s="1">
+      <c r="N96" s="1">
         <f t="shared" si="10"/>
         <v>84</v>
       </c>
-      <c r="K96" s="1">
+      <c r="O96" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="L96" s="1">
+      <c r="P96" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6">
+    <row r="97" spans="1:16" ht="15.6">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21637,25 +21994,25 @@
         <f t="shared" si="16"/>
         <v>years</v>
       </c>
-      <c r="J97" s="1">
+      <c r="N97" s="1">
         <f t="shared" si="10"/>
         <v>91</v>
       </c>
-      <c r="K97" s="1">
+      <c r="O97" s="1">
         <f t="shared" si="11"/>
         <v>17</v>
       </c>
-      <c r="L97" s="1">
+      <c r="P97" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6">
+    <row r="98" spans="1:16" ht="15.6">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21678,30 +22035,30 @@
         <v>most</v>
       </c>
       <c r="H98" t="s">
-        <v>37</v>
-      </c>
-      <c r="I98" s="2">
+        <v>25</v>
+      </c>
+      <c r="M98" s="2">
         <v>1</v>
       </c>
-      <c r="J98" s="1">
-        <f t="shared" ref="J98:J129" si="18">LEN(B98)</f>
+      <c r="N98" s="1">
+        <f t="shared" ref="N98:N129" si="18">LEN(B98)</f>
         <v>90</v>
       </c>
-      <c r="K98" s="1">
-        <f t="shared" ref="K98:K129" si="19">IF(ISBLANK(B98),0,LEN(TRIM(B98))-LEN(SUBSTITUTE(B98," ",""))+1)</f>
+      <c r="O98" s="1">
+        <f t="shared" ref="O98:O129" si="19">IF(ISBLANK(B98),0,LEN(TRIM(B98))-LEN(SUBSTITUTE(B98," ",""))+1)</f>
         <v>14</v>
       </c>
-      <c r="L98" s="1">
+      <c r="P98" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6">
+    <row r="99" spans="1:16" ht="15.6">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C99" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21723,25 +22080,25 @@
         <f t="shared" si="16"/>
         <v>demonstrators</v>
       </c>
-      <c r="J99" s="1">
+      <c r="N99" s="1">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
-      <c r="K99" s="1">
+      <c r="O99" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="L99" s="1">
+      <c r="P99" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6">
+    <row r="100" spans="1:16" ht="15.6">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C100" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21763,25 +22120,25 @@
         <f t="shared" si="16"/>
         <v>camp</v>
       </c>
-      <c r="J100" s="1">
+      <c r="N100" s="1">
         <f t="shared" si="18"/>
         <v>89</v>
       </c>
-      <c r="K100" s="1">
+      <c r="O100" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L100" s="1">
+      <c r="P100" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6">
+    <row r="101" spans="1:16" ht="15.6">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C101" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21804,30 +22161,30 @@
         <v>during</v>
       </c>
       <c r="H101" t="s">
-        <v>38</v>
-      </c>
-      <c r="I101" s="2">
+        <v>26</v>
+      </c>
+      <c r="M101" s="2">
         <v>0</v>
       </c>
-      <c r="J101" s="1">
+      <c r="N101" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="K101" s="1">
+      <c r="O101" s="1">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L101" s="1">
+      <c r="P101" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6">
+    <row r="102" spans="1:16" ht="15.6">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C102" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21849,25 +22206,25 @@
         <f t="shared" si="16"/>
         <v>tickets</v>
       </c>
-      <c r="J102" s="1">
+      <c r="N102" s="1">
         <f t="shared" si="18"/>
         <v>89</v>
       </c>
-      <c r="K102" s="1">
+      <c r="O102" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L102" s="1">
+      <c r="P102" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="15.6">
+    <row r="103" spans="1:16" ht="15.6">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C103" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21889,25 +22246,25 @@
         <f t="shared" si="16"/>
         <v>documents</v>
       </c>
-      <c r="J103" s="1">
+      <c r="N103" s="1">
         <f t="shared" si="18"/>
         <v>107</v>
       </c>
-      <c r="K103" s="1">
+      <c r="O103" s="1">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L103" s="1">
+      <c r="P103" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="15.6">
+    <row r="104" spans="1:16" ht="15.6">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C104" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21929,25 +22286,25 @@
         <f t="shared" si="16"/>
         <v>summer</v>
       </c>
-      <c r="J104" s="1">
+      <c r="N104" s="1">
         <f t="shared" si="18"/>
         <v>79</v>
       </c>
-      <c r="K104" s="1">
+      <c r="O104" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L104" s="1">
+      <c r="P104" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="15.6">
+    <row r="105" spans="1:16" ht="15.6">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C105" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21970,30 +22327,30 @@
         <v>spend</v>
       </c>
       <c r="H105" t="s">
-        <v>39</v>
-      </c>
-      <c r="I105" s="2">
+        <v>27</v>
+      </c>
+      <c r="M105" s="2">
         <v>0</v>
       </c>
-      <c r="J105" s="1">
+      <c r="N105" s="1">
         <f t="shared" si="18"/>
         <v>83</v>
       </c>
-      <c r="K105" s="1">
+      <c r="O105" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L105" s="1">
+      <c r="P105" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="15.6">
+    <row r="106" spans="1:16" ht="15.6">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C106" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22015,25 +22372,25 @@
         <f t="shared" si="16"/>
         <v>deliveries</v>
       </c>
-      <c r="J106" s="1">
+      <c r="N106" s="1">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="K106" s="1">
+      <c r="O106" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L106" s="1">
+      <c r="P106" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="15.6">
+    <row r="107" spans="1:16" ht="15.6">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C107" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22055,25 +22412,25 @@
         <f t="shared" si="16"/>
         <v>readers</v>
       </c>
-      <c r="J107" s="1">
+      <c r="N107" s="1">
         <f t="shared" si="18"/>
         <v>88</v>
       </c>
-      <c r="K107" s="1">
+      <c r="O107" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L107" s="1">
+      <c r="P107" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="15.6">
+    <row r="108" spans="1:16" ht="15.6">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22096,30 +22453,30 @@
         <v>household</v>
       </c>
       <c r="H108" t="s">
-        <v>40</v>
-      </c>
-      <c r="I108" s="2">
+        <v>28</v>
+      </c>
+      <c r="M108" s="2">
         <v>1</v>
       </c>
-      <c r="J108" s="1">
+      <c r="N108" s="1">
         <f t="shared" si="18"/>
         <v>94</v>
       </c>
-      <c r="K108" s="1">
+      <c r="O108" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L108" s="1">
+      <c r="P108" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="15.6">
+    <row r="109" spans="1:16" ht="15.6">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22141,25 +22498,25 @@
         <f t="shared" si="16"/>
         <v>ruined</v>
       </c>
-      <c r="J109" s="1">
+      <c r="N109" s="1">
         <f t="shared" si="18"/>
         <v>89</v>
       </c>
-      <c r="K109" s="1">
+      <c r="O109" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="L109" s="1">
+      <c r="P109" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="15.6">
+    <row r="110" spans="1:16" ht="15.6">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22182,30 +22539,30 @@
         <v>safety</v>
       </c>
       <c r="H110" t="s">
-        <v>42</v>
-      </c>
-      <c r="I110" s="2">
+        <v>30</v>
+      </c>
+      <c r="M110" s="2">
         <v>1</v>
       </c>
-      <c r="J110" s="1">
+      <c r="N110" s="1">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="K110" s="1">
+      <c r="O110" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L110" s="1">
+      <c r="P110" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="15.6">
+    <row r="111" spans="1:16" ht="15.6">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22227,25 +22584,25 @@
         <f t="shared" si="16"/>
         <v>restrictions</v>
       </c>
-      <c r="J111" s="1">
+      <c r="N111" s="1">
         <f t="shared" si="18"/>
         <v>105</v>
       </c>
-      <c r="K111" s="1">
+      <c r="O111" s="1">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="L111" s="1">
+      <c r="P111" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="15.6">
+    <row r="112" spans="1:16" ht="15.6">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22267,25 +22624,25 @@
         <f t="shared" si="16"/>
         <v>thousand</v>
       </c>
-      <c r="J112" s="1">
+      <c r="N112" s="1">
         <f t="shared" si="18"/>
         <v>90</v>
       </c>
-      <c r="K112" s="1">
+      <c r="O112" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L112" s="1">
+      <c r="P112" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="15.6">
+    <row r="113" spans="1:16" ht="15.6">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22307,25 +22664,25 @@
         <f t="shared" si="16"/>
         <v>oldest</v>
       </c>
-      <c r="J113" s="1">
+      <c r="N113" s="1">
         <f t="shared" si="18"/>
         <v>88</v>
       </c>
-      <c r="K113" s="1">
+      <c r="O113" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L113" s="1">
+      <c r="P113" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="15.6">
+    <row r="114" spans="1:16" ht="15.6">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22347,25 +22704,25 @@
         <f t="shared" si="16"/>
         <v>compared</v>
       </c>
-      <c r="J114" s="1">
+      <c r="N114" s="1">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="K114" s="1">
+      <c r="O114" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L114" s="1">
+      <c r="P114" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="15.6">
+    <row r="115" spans="1:16" ht="15.6">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22387,25 +22744,25 @@
         <f t="shared" si="16"/>
         <v>exported</v>
       </c>
-      <c r="J115" s="1">
+      <c r="N115" s="1">
         <f t="shared" si="18"/>
         <v>87</v>
       </c>
-      <c r="K115" s="1">
+      <c r="O115" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="L115" s="1">
+      <c r="P115" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="15.6">
+    <row r="116" spans="1:16" ht="15.6">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22427,25 +22784,25 @@
         <f t="shared" si="16"/>
         <v>rapid</v>
       </c>
-      <c r="J116" s="1">
+      <c r="N116" s="1">
         <f t="shared" si="18"/>
         <v>80</v>
       </c>
-      <c r="K116" s="1">
+      <c r="O116" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="L116" s="1">
+      <c r="P116" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="15.6">
+    <row r="117" spans="1:16" ht="15.6">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22468,30 +22825,30 @@
         <v>build</v>
       </c>
       <c r="H117" t="s">
-        <v>43</v>
-      </c>
-      <c r="I117" s="2">
+        <v>31</v>
+      </c>
+      <c r="M117" s="2">
         <v>0</v>
       </c>
-      <c r="J117" s="1">
+      <c r="N117" s="1">
         <f t="shared" si="18"/>
         <v>87</v>
       </c>
-      <c r="K117" s="1">
+      <c r="O117" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L117" s="1">
+      <c r="P117" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="15.6">
+    <row r="118" spans="1:16" ht="15.6">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C118" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22513,25 +22870,25 @@
         <f t="shared" si="16"/>
         <v>moved</v>
       </c>
-      <c r="J118" s="1">
+      <c r="N118" s="1">
         <f t="shared" si="18"/>
         <v>86</v>
       </c>
-      <c r="K118" s="1">
+      <c r="O118" s="1">
         <f t="shared" si="19"/>
         <v>14</v>
       </c>
-      <c r="L118" s="1">
+      <c r="P118" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="15.6">
+    <row r="119" spans="1:16" ht="15.6">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C119" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22553,25 +22910,25 @@
         <f t="shared" si="16"/>
         <v>months</v>
       </c>
-      <c r="J119" s="1">
+      <c r="N119" s="1">
         <f t="shared" si="18"/>
         <v>95</v>
       </c>
-      <c r="K119" s="1">
+      <c r="O119" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L119" s="1">
+      <c r="P119" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="15.6">
+    <row r="120" spans="1:16" ht="15.6">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22594,30 +22951,30 @@
         <v>possible</v>
       </c>
       <c r="H120" t="s">
-        <v>41</v>
-      </c>
-      <c r="I120" s="2">
+        <v>29</v>
+      </c>
+      <c r="M120" s="2">
         <v>1</v>
       </c>
-      <c r="J120" s="1">
+      <c r="N120" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="K120" s="1">
+      <c r="O120" s="1">
         <f t="shared" si="19"/>
         <v>13</v>
       </c>
-      <c r="L120" s="1">
+      <c r="P120" s="1">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="15.6">
+    <row r="121" spans="1:16" ht="15.6">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22639,25 +22996,25 @@
         <f t="shared" si="16"/>
         <v>plants</v>
       </c>
-      <c r="J121" s="1">
+      <c r="N121" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="K121" s="1">
+      <c r="O121" s="1">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L121" s="1">
+      <c r="P121" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="15.6">
+    <row r="122" spans="1:16" ht="15.6">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22679,25 +23036,25 @@
         <f t="shared" si="16"/>
         <v>collected</v>
       </c>
-      <c r="J122" s="1">
+      <c r="N122" s="1">
         <f t="shared" si="18"/>
         <v>92</v>
       </c>
-      <c r="K122" s="1">
+      <c r="O122" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L122" s="1">
+      <c r="P122" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="15.6">
+    <row r="123" spans="1:16" ht="15.6">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22719,25 +23076,25 @@
         <f t="shared" si="16"/>
         <v>introduce</v>
       </c>
-      <c r="J123" s="1">
+      <c r="N123" s="1">
         <f t="shared" si="18"/>
         <v>108</v>
       </c>
-      <c r="K123" s="1">
+      <c r="O123" s="1">
         <f t="shared" si="19"/>
         <v>18</v>
       </c>
-      <c r="L123" s="1">
+      <c r="P123" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="15.6">
+    <row r="124" spans="1:16" ht="15.6">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22759,25 +23116,25 @@
         <f t="shared" si="16"/>
         <v>potatoes</v>
       </c>
-      <c r="J124" s="1">
+      <c r="N124" s="1">
         <f t="shared" si="18"/>
         <v>110</v>
       </c>
-      <c r="K124" s="1">
+      <c r="O124" s="1">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="L124" s="1">
+      <c r="P124" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="15.6">
+    <row r="125" spans="1:16" ht="15.6">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C125" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22799,25 +23156,25 @@
         <f t="shared" si="16"/>
         <v>large</v>
       </c>
-      <c r="J125" s="1">
+      <c r="N125" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="K125" s="1">
+      <c r="O125" s="1">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="L125" s="1">
+      <c r="P125" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="15.6">
+    <row r="126" spans="1:16" ht="15.6">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C126" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22839,25 +23196,25 @@
         <f t="shared" si="16"/>
         <v>European</v>
       </c>
-      <c r="J126" s="1">
+      <c r="N126" s="1">
         <f t="shared" si="18"/>
         <v>99</v>
       </c>
-      <c r="K126" s="1">
+      <c r="O126" s="1">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L126" s="1">
+      <c r="P126" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="15.6">
+    <row r="127" spans="1:16" ht="15.6">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C127" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22879,25 +23236,25 @@
         <f t="shared" si="16"/>
         <v>assess</v>
       </c>
-      <c r="J127" s="1">
+      <c r="N127" s="1">
         <f t="shared" si="18"/>
         <v>98</v>
       </c>
-      <c r="K127" s="1">
+      <c r="O127" s="1">
         <f t="shared" si="19"/>
         <v>17</v>
       </c>
-      <c r="L127" s="1">
+      <c r="P127" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="15.6">
+    <row r="128" spans="1:16" ht="15.6">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C128" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22919,25 +23276,25 @@
         <f t="shared" si="16"/>
         <v>smartphone</v>
       </c>
-      <c r="J128" s="1">
+      <c r="N128" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
       </c>
-      <c r="K128" s="1">
+      <c r="O128" s="1">
         <f t="shared" si="19"/>
         <v>15</v>
       </c>
-      <c r="L128" s="1">
+      <c r="P128" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="15.6">
+    <row r="129" spans="1:16" ht="15.6">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C129" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22959,25 +23316,25 @@
         <f t="shared" si="16"/>
         <v>venue</v>
       </c>
-      <c r="J129" s="1">
+      <c r="N129" s="1">
         <f t="shared" si="18"/>
         <v>94</v>
       </c>
-      <c r="K129" s="1">
+      <c r="O129" s="1">
         <f t="shared" si="19"/>
         <v>16</v>
       </c>
-      <c r="L129" s="1">
+      <c r="P129" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="15.6">
+    <row r="130" spans="1:16" ht="15.6">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C130" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22999,25 +23356,25 @@
         <f t="shared" si="16"/>
         <v>blazing</v>
       </c>
-      <c r="J130" s="1">
-        <f t="shared" ref="J130:J142" si="20">LEN(B130)</f>
+      <c r="N130" s="1">
+        <f t="shared" ref="N130:N142" si="20">LEN(B130)</f>
         <v>111</v>
       </c>
-      <c r="K130" s="1">
-        <f t="shared" ref="K130:K161" si="21">IF(ISBLANK(B130),0,LEN(TRIM(B130))-LEN(SUBSTITUTE(B130," ",""))+1)</f>
+      <c r="O130" s="1">
+        <f t="shared" ref="O130:O161" si="21">IF(ISBLANK(B130),0,LEN(TRIM(B130))-LEN(SUBSTITUTE(B130," ",""))+1)</f>
         <v>16</v>
       </c>
-      <c r="L130" s="1">
+      <c r="P130" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="15.6">
+    <row r="131" spans="1:16" ht="15.6">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C131" s="9" t="str">
         <f t="shared" ref="C131:C181" si="22">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (3-1)*LEN(B131)+1, LEN(B131)))</f>
@@ -23039,25 +23396,25 @@
         <f t="shared" ref="G131:G181" si="26">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (11-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>watch</v>
       </c>
-      <c r="J131" s="1">
+      <c r="N131" s="1">
         <f t="shared" si="20"/>
         <v>104</v>
       </c>
-      <c r="K131" s="1">
+      <c r="O131" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L131" s="1">
+      <c r="P131" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15.6">
+    <row r="132" spans="1:16" ht="15.6">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C132" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23079,25 +23436,25 @@
         <f t="shared" si="26"/>
         <v>details</v>
       </c>
-      <c r="J132" s="1">
+      <c r="N132" s="1">
         <f t="shared" si="20"/>
         <v>99</v>
       </c>
-      <c r="K132" s="1">
+      <c r="O132" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L132" s="1">
+      <c r="P132" s="1">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="15.6">
+    <row r="133" spans="1:16" ht="15.6">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C133" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23119,25 +23476,25 @@
         <f t="shared" si="26"/>
         <v>outside</v>
       </c>
-      <c r="J133" s="1">
+      <c r="N133" s="1">
         <f t="shared" si="20"/>
         <v>98</v>
       </c>
-      <c r="K133" s="1">
+      <c r="O133" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L133" s="1">
-        <f t="shared" ref="L133:L181" si="27">IF(ISNUMBER(SEARCH("",H133)),1,0)</f>
+      <c r="P133" s="1">
+        <f t="shared" ref="P133:P181" si="27">IF(ISNUMBER(SEARCH("",H133)),1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="15.6">
+    <row r="134" spans="1:16" ht="15.6">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C134" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23159,25 +23516,25 @@
         <f t="shared" si="26"/>
         <v>that</v>
       </c>
-      <c r="J134" s="1">
+      <c r="N134" s="1">
         <f t="shared" si="20"/>
         <v>111</v>
       </c>
-      <c r="K134" s="1">
+      <c r="O134" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L134" s="1">
+      <c r="P134" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="15.6">
+    <row r="135" spans="1:16" ht="15.6">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23199,25 +23556,25 @@
         <f t="shared" si="26"/>
         <v>countries</v>
       </c>
-      <c r="J135" s="1">
+      <c r="N135" s="1">
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
-      <c r="K135" s="1">
+      <c r="O135" s="1">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="L135" s="1">
+      <c r="P135" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="15.6">
+    <row r="136" spans="1:16" ht="15.6">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23239,25 +23596,25 @@
         <f t="shared" si="26"/>
         <v>parents</v>
       </c>
-      <c r="J136" s="1">
+      <c r="N136" s="1">
         <f t="shared" si="20"/>
         <v>109</v>
       </c>
-      <c r="K136" s="1">
+      <c r="O136" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L136" s="1">
+      <c r="P136" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="15.6">
+    <row r="137" spans="1:16" ht="15.6">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C137" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23279,25 +23636,25 @@
         <f t="shared" si="26"/>
         <v>commuting</v>
       </c>
-      <c r="J137" s="1">
+      <c r="N137" s="1">
         <f t="shared" si="20"/>
         <v>101</v>
       </c>
-      <c r="K137" s="1">
+      <c r="O137" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L137" s="1">
+      <c r="P137" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="15.6">
+    <row r="138" spans="1:16" ht="15.6">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C138" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23319,25 +23676,25 @@
         <f t="shared" si="26"/>
         <v>parking</v>
       </c>
-      <c r="J138" s="1">
+      <c r="N138" s="1">
         <f t="shared" si="20"/>
         <v>94</v>
       </c>
-      <c r="K138" s="1">
+      <c r="O138" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L138" s="1">
+      <c r="P138" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="15.6">
+    <row r="139" spans="1:16" ht="15.6">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C139" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23359,25 +23716,25 @@
         <f t="shared" si="26"/>
         <v>weekends</v>
       </c>
-      <c r="J139" s="1">
+      <c r="N139" s="1">
         <f t="shared" si="20"/>
         <v>101</v>
       </c>
-      <c r="K139" s="1">
+      <c r="O139" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L139" s="1">
+      <c r="P139" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="15.6">
+    <row r="140" spans="1:16" ht="15.6">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C140" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23399,25 +23756,25 @@
         <f t="shared" si="26"/>
         <v>gained</v>
       </c>
-      <c r="J140" s="1">
+      <c r="N140" s="1">
         <f t="shared" si="20"/>
         <v>103</v>
       </c>
-      <c r="K140" s="1">
+      <c r="O140" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L140" s="1">
+      <c r="P140" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="15.6">
+    <row r="141" spans="1:16" ht="15.6">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="C141" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23439,25 +23796,25 @@
         <f t="shared" si="26"/>
         <v>benefit</v>
       </c>
-      <c r="J141" s="1">
+      <c r="N141" s="1">
         <f t="shared" si="20"/>
         <v>105</v>
       </c>
-      <c r="K141" s="1">
+      <c r="O141" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L141" s="1">
+      <c r="P141" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="15.6">
+    <row r="142" spans="1:16" ht="15.6">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C142" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23479,25 +23836,25 @@
         <f t="shared" si="26"/>
         <v>overstated</v>
       </c>
-      <c r="J142" s="1">
+      <c r="N142" s="1">
         <f t="shared" si="20"/>
         <v>114</v>
       </c>
-      <c r="K142" s="1">
+      <c r="O142" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L142" s="1">
+      <c r="P142" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="15.6">
+    <row r="143" spans="1:16" ht="15.6">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="C143" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23519,25 +23876,25 @@
         <f t="shared" si="26"/>
         <v>building</v>
       </c>
-      <c r="J143" s="1">
-        <f t="shared" ref="J143:J181" si="28">LEN(B143)</f>
+      <c r="N143" s="1">
+        <f t="shared" ref="N143:N181" si="28">LEN(B143)</f>
         <v>113</v>
       </c>
-      <c r="K143" s="1">
+      <c r="O143" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L143" s="1">
+      <c r="P143" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="15.6">
+    <row r="144" spans="1:16" ht="15.6">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C144" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23559,25 +23916,25 @@
         <f t="shared" si="26"/>
         <v>families</v>
       </c>
-      <c r="J144" s="1">
+      <c r="N144" s="1">
         <f t="shared" si="28"/>
         <v>109</v>
       </c>
-      <c r="K144" s="1">
+      <c r="O144" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L144" s="1">
+      <c r="P144" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="15.6">
+    <row r="145" spans="1:16" ht="15.6">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23599,25 +23956,25 @@
         <f t="shared" si="26"/>
         <v>returning</v>
       </c>
-      <c r="J145" s="1">
+      <c r="N145" s="1">
         <f t="shared" si="28"/>
         <v>94</v>
       </c>
-      <c r="K145" s="1">
+      <c r="O145" s="1">
         <f t="shared" si="21"/>
         <v>15</v>
       </c>
-      <c r="L145" s="1">
+      <c r="P145" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="15.6">
+    <row r="146" spans="1:16" ht="15.6">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C146" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23639,25 +23996,25 @@
         <f t="shared" si="26"/>
         <v>because</v>
       </c>
-      <c r="J146" s="1">
+      <c r="N146" s="1">
         <f t="shared" si="28"/>
         <v>117</v>
       </c>
-      <c r="K146" s="1">
+      <c r="O146" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L146" s="1">
+      <c r="P146" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="15.6">
+    <row r="147" spans="1:16" ht="15.6">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23679,25 +24036,25 @@
         <f t="shared" si="26"/>
         <v>fighting</v>
       </c>
-      <c r="J147" s="1">
+      <c r="N147" s="1">
         <f t="shared" si="28"/>
         <v>104</v>
       </c>
-      <c r="K147" s="1">
+      <c r="O147" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L147" s="1">
+      <c r="P147" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="15.6">
+    <row r="148" spans="1:16" ht="15.6">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C148" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23719,25 +24076,25 @@
         <f t="shared" si="26"/>
         <v>decided</v>
       </c>
-      <c r="J148" s="1">
+      <c r="N148" s="1">
         <f t="shared" si="28"/>
         <v>113</v>
       </c>
-      <c r="K148" s="1">
+      <c r="O148" s="1">
         <f t="shared" si="21"/>
         <v>21</v>
       </c>
-      <c r="L148" s="1">
+      <c r="P148" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="15.6">
+    <row r="149" spans="1:16" ht="15.6">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C149" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23759,25 +24116,25 @@
         <f t="shared" si="26"/>
         <v>school</v>
       </c>
-      <c r="J149" s="1">
+      <c r="N149" s="1">
         <f t="shared" si="28"/>
         <v>119</v>
       </c>
-      <c r="K149" s="1">
+      <c r="O149" s="1">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="L149" s="1">
+      <c r="P149" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="15.6">
+    <row r="150" spans="1:16" ht="15.6">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C150" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23799,25 +24156,25 @@
         <f t="shared" si="26"/>
         <v>performances</v>
       </c>
-      <c r="J150" s="1">
+      <c r="N150" s="1">
         <f t="shared" si="28"/>
         <v>99</v>
       </c>
-      <c r="K150" s="1">
+      <c r="O150" s="1">
         <f t="shared" si="21"/>
         <v>14</v>
       </c>
-      <c r="L150" s="1">
+      <c r="P150" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="15.6">
+    <row r="151" spans="1:16" ht="15.6">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="C151" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23839,25 +24196,25 @@
         <f t="shared" si="26"/>
         <v>appointment</v>
       </c>
-      <c r="J151" s="1">
+      <c r="N151" s="1">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="K151" s="1">
+      <c r="O151" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L151" s="1">
+      <c r="P151" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="15.6">
+    <row r="152" spans="1:16" ht="15.6">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C152" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23879,25 +24236,25 @@
         <f t="shared" si="26"/>
         <v>countless</v>
       </c>
-      <c r="J152" s="1">
+      <c r="N152" s="1">
         <f t="shared" si="28"/>
         <v>107</v>
       </c>
-      <c r="K152" s="1">
+      <c r="O152" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L152" s="1">
+      <c r="P152" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="15.6">
+    <row r="153" spans="1:16" ht="15.6">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C153" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23919,25 +24276,25 @@
         <f t="shared" si="26"/>
         <v>graduation</v>
       </c>
-      <c r="J153" s="1">
+      <c r="N153" s="1">
         <f t="shared" si="28"/>
         <v>118</v>
       </c>
-      <c r="K153" s="1">
+      <c r="O153" s="1">
         <f t="shared" si="21"/>
         <v>21</v>
       </c>
-      <c r="L153" s="1">
+      <c r="P153" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="15.6">
+    <row r="154" spans="1:16" ht="15.6">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="C154" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23959,25 +24316,25 @@
         <f t="shared" si="26"/>
         <v>looking</v>
       </c>
-      <c r="J154" s="1">
+      <c r="N154" s="1">
         <f t="shared" si="28"/>
         <v>113</v>
       </c>
-      <c r="K154" s="1">
+      <c r="O154" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L154" s="1">
+      <c r="P154" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="15.6">
+    <row r="155" spans="1:16" ht="15.6">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C155" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23999,25 +24356,25 @@
         <f t="shared" si="26"/>
         <v>available</v>
       </c>
-      <c r="J155" s="1">
+      <c r="N155" s="1">
         <f t="shared" si="28"/>
         <v>112</v>
       </c>
-      <c r="K155" s="1">
+      <c r="O155" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L155" s="1">
+      <c r="P155" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="15.6">
+    <row r="156" spans="1:16" ht="15.6">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C156" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24039,25 +24396,25 @@
         <f t="shared" si="26"/>
         <v>difficult,</v>
       </c>
-      <c r="J156" s="1">
+      <c r="N156" s="1">
         <f t="shared" si="28"/>
         <v>117</v>
       </c>
-      <c r="K156" s="1">
+      <c r="O156" s="1">
         <f t="shared" si="21"/>
         <v>19</v>
       </c>
-      <c r="L156" s="1">
+      <c r="P156" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="15.6">
+    <row r="157" spans="1:16" ht="15.6">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C157" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24079,25 +24436,25 @@
         <f t="shared" si="26"/>
         <v>jacket</v>
       </c>
-      <c r="J157" s="1">
+      <c r="N157" s="1">
         <f t="shared" si="28"/>
         <v>106</v>
       </c>
-      <c r="K157" s="1">
+      <c r="O157" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L157" s="1">
+      <c r="P157" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="15.6">
+    <row r="158" spans="1:16" ht="15.6">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C158" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24119,25 +24476,25 @@
         <f t="shared" si="26"/>
         <v>threatened</v>
       </c>
-      <c r="J158" s="1">
+      <c r="N158" s="1">
         <f t="shared" si="28"/>
         <v>113</v>
       </c>
-      <c r="K158" s="1">
+      <c r="O158" s="1">
         <f t="shared" si="21"/>
         <v>17</v>
       </c>
-      <c r="L158" s="1">
+      <c r="P158" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="15.6">
+    <row r="159" spans="1:16" ht="15.6">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C159" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24159,25 +24516,25 @@
         <f t="shared" si="26"/>
         <v>forecasts</v>
       </c>
-      <c r="J159" s="1">
+      <c r="N159" s="1">
         <f t="shared" si="28"/>
         <v>121</v>
       </c>
-      <c r="K159" s="1">
+      <c r="O159" s="1">
         <f t="shared" si="21"/>
         <v>18</v>
       </c>
-      <c r="L159" s="1">
+      <c r="P159" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="15.6">
+    <row r="160" spans="1:16" ht="15.6">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C160" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24199,25 +24556,25 @@
         <f t="shared" si="26"/>
         <v>money</v>
       </c>
-      <c r="J160" s="1">
+      <c r="N160" s="1">
         <f t="shared" si="28"/>
         <v>109</v>
       </c>
-      <c r="K160" s="1">
+      <c r="O160" s="1">
         <f t="shared" si="21"/>
         <v>20</v>
       </c>
-      <c r="L160" s="1">
+      <c r="P160" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="15.6">
+    <row r="161" spans="1:16" ht="15.6">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C161" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24239,25 +24596,25 @@
         <f t="shared" si="26"/>
         <v>water</v>
       </c>
-      <c r="J161" s="1">
+      <c r="N161" s="1">
         <f t="shared" si="28"/>
         <v>108</v>
       </c>
-      <c r="K161" s="1">
+      <c r="O161" s="1">
         <f t="shared" si="21"/>
         <v>16</v>
       </c>
-      <c r="L161" s="1">
+      <c r="P161" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="15.6">
+    <row r="162" spans="1:16" ht="15.6">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C162" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24279,25 +24636,25 @@
         <f t="shared" si="26"/>
         <v>business</v>
       </c>
-      <c r="J162" s="1">
+      <c r="N162" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
       </c>
-      <c r="K162" s="1">
-        <f t="shared" ref="K162:K181" si="29">IF(ISBLANK(B162),0,LEN(TRIM(B162))-LEN(SUBSTITUTE(B162," ",""))+1)</f>
+      <c r="O162" s="1">
+        <f t="shared" ref="O162:O181" si="29">IF(ISBLANK(B162),0,LEN(TRIM(B162))-LEN(SUBSTITUTE(B162," ",""))+1)</f>
         <v>18</v>
       </c>
-      <c r="L162" s="1">
+      <c r="P162" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="15.6">
+    <row r="163" spans="1:16" ht="15.6">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C163" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24319,25 +24676,25 @@
         <f t="shared" si="26"/>
         <v>strengthen</v>
       </c>
-      <c r="J163" s="1">
+      <c r="N163" s="1">
         <f t="shared" si="28"/>
         <v>108</v>
       </c>
-      <c r="K163" s="1">
+      <c r="O163" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L163" s="1">
+      <c r="P163" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="15.6">
+    <row r="164" spans="1:16" ht="15.6">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C164" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24359,25 +24716,25 @@
         <f t="shared" si="26"/>
         <v>spending</v>
       </c>
-      <c r="J164" s="1">
+      <c r="N164" s="1">
         <f t="shared" si="28"/>
         <v>102</v>
       </c>
-      <c r="K164" s="1">
+      <c r="O164" s="1">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="L164" s="1">
+      <c r="P164" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="15.6">
+    <row r="165" spans="1:16" ht="15.6">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C165" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24399,25 +24756,25 @@
         <f t="shared" si="26"/>
         <v>behaviour</v>
       </c>
-      <c r="J165" s="1">
+      <c r="N165" s="1">
         <f t="shared" si="28"/>
         <v>98</v>
       </c>
-      <c r="K165" s="1">
+      <c r="O165" s="1">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="L165" s="1">
+      <c r="P165" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="15.6">
+    <row r="166" spans="1:16" ht="15.6">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="C166" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24439,25 +24796,25 @@
         <f t="shared" si="26"/>
         <v>opportunity</v>
       </c>
-      <c r="J166" s="1">
+      <c r="N166" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
       </c>
-      <c r="K166" s="1">
+      <c r="O166" s="1">
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="L166" s="1">
+      <c r="P166" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="15.6">
+    <row r="167" spans="1:16" ht="15.6">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C167" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24479,25 +24836,25 @@
         <f t="shared" si="26"/>
         <v>looking</v>
       </c>
-      <c r="J167" s="1">
+      <c r="N167" s="1">
         <f t="shared" si="28"/>
         <v>102</v>
       </c>
-      <c r="K167" s="1">
+      <c r="O167" s="1">
         <f t="shared" si="29"/>
         <v>19</v>
       </c>
-      <c r="L167" s="1">
+      <c r="P167" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="15.6">
+    <row r="168" spans="1:16" ht="15.6">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C168" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24519,25 +24876,25 @@
         <f t="shared" si="26"/>
         <v>throwing</v>
       </c>
-      <c r="J168" s="1">
+      <c r="N168" s="1">
         <f t="shared" si="28"/>
         <v>100</v>
       </c>
-      <c r="K168" s="1">
+      <c r="O168" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L168" s="1">
+      <c r="P168" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="15.6">
+    <row r="169" spans="1:16" ht="15.6">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="C169" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24559,25 +24916,25 @@
         <f t="shared" si="26"/>
         <v>summer</v>
       </c>
-      <c r="J169" s="1">
+      <c r="N169" s="1">
         <f t="shared" si="28"/>
         <v>121</v>
       </c>
-      <c r="K169" s="1">
+      <c r="O169" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L169" s="1">
+      <c r="P169" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="15.6">
+    <row r="170" spans="1:16" ht="15.6">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="17" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="C170" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24599,25 +24956,25 @@
         <f t="shared" si="26"/>
         <v>decided</v>
       </c>
-      <c r="J170" s="1">
+      <c r="N170" s="1">
         <f t="shared" si="28"/>
         <v>93</v>
       </c>
-      <c r="K170" s="1">
+      <c r="O170" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L170" s="1">
+      <c r="P170" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="15.6">
+    <row r="171" spans="1:16" ht="15.6">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="C171" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24639,25 +24996,25 @@
         <f t="shared" si="26"/>
         <v>statistics</v>
       </c>
-      <c r="J171" s="1">
+      <c r="N171" s="1">
         <f t="shared" si="28"/>
         <v>110</v>
       </c>
-      <c r="K171" s="1">
+      <c r="O171" s="1">
         <f t="shared" si="29"/>
         <v>15</v>
       </c>
-      <c r="L171" s="1">
+      <c r="P171" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="15.6">
+    <row r="172" spans="1:16" ht="15.6">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C172" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24679,25 +25036,25 @@
         <f t="shared" si="26"/>
         <v>accountability</v>
       </c>
-      <c r="J172" s="1">
+      <c r="N172" s="1">
         <f t="shared" si="28"/>
         <v>119</v>
       </c>
-      <c r="K172" s="1">
+      <c r="O172" s="1">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="L172" s="1">
+      <c r="P172" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="15.6">
+    <row r="173" spans="1:16" ht="15.6">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C173" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24719,25 +25076,25 @@
         <f t="shared" si="26"/>
         <v>remaining</v>
       </c>
-      <c r="J173" s="1">
+      <c r="N173" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
       </c>
-      <c r="K173" s="1">
+      <c r="O173" s="1">
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="L173" s="1">
+      <c r="P173" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="15.6">
+    <row r="174" spans="1:16" ht="15.6">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C174" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24759,25 +25116,25 @@
         <f t="shared" si="26"/>
         <v>arrived</v>
       </c>
-      <c r="J174" s="1">
+      <c r="N174" s="1">
         <f t="shared" si="28"/>
         <v>112</v>
       </c>
-      <c r="K174" s="1">
+      <c r="O174" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L174" s="1">
+      <c r="P174" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="15.6">
+    <row r="175" spans="1:16" ht="15.6">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C175" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24799,25 +25156,25 @@
         <f t="shared" si="26"/>
         <v>leave</v>
       </c>
-      <c r="J175" s="1">
+      <c r="N175" s="1">
         <f t="shared" si="28"/>
         <v>105</v>
       </c>
-      <c r="K175" s="1">
+      <c r="O175" s="1">
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="L175" s="1">
+      <c r="P175" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="15.6">
+    <row r="176" spans="1:16" ht="15.6">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C176" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24839,25 +25196,25 @@
         <f t="shared" si="26"/>
         <v>arguing</v>
       </c>
-      <c r="J176" s="1">
+      <c r="N176" s="1">
         <f t="shared" si="28"/>
         <v>113</v>
       </c>
-      <c r="K176" s="1">
+      <c r="O176" s="1">
         <f t="shared" si="29"/>
         <v>16</v>
       </c>
-      <c r="L176" s="1">
+      <c r="P176" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.6">
+    <row r="177" spans="1:16" ht="15.6">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C177" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24879,25 +25236,25 @@
         <f t="shared" si="26"/>
         <v>increased</v>
       </c>
-      <c r="J177" s="1">
+      <c r="N177" s="1">
         <f t="shared" si="28"/>
         <v>110</v>
       </c>
-      <c r="K177" s="1">
+      <c r="O177" s="1">
         <f t="shared" si="29"/>
         <v>18</v>
       </c>
-      <c r="L177" s="1">
+      <c r="P177" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.6">
+    <row r="178" spans="1:16" ht="15.6">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C178" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24919,25 +25276,25 @@
         <f t="shared" si="26"/>
         <v>because</v>
       </c>
-      <c r="J178" s="1">
+      <c r="N178" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
       </c>
-      <c r="K178" s="1">
+      <c r="O178" s="1">
         <f t="shared" si="29"/>
         <v>19</v>
       </c>
-      <c r="L178" s="1">
+      <c r="P178" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="15.6">
+    <row r="179" spans="1:16" ht="15.6">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C179" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24959,25 +25316,25 @@
         <f t="shared" si="26"/>
         <v>missing</v>
       </c>
-      <c r="J179" s="1">
+      <c r="N179" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
       </c>
-      <c r="K179" s="1">
+      <c r="O179" s="1">
         <f t="shared" si="29"/>
         <v>21</v>
       </c>
-      <c r="L179" s="1">
+      <c r="P179" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="15.6">
+    <row r="180" spans="1:16" ht="15.6">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="C180" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24999,25 +25356,25 @@
         <f t="shared" si="26"/>
         <v>beautiful</v>
       </c>
-      <c r="J180" s="1">
+      <c r="N180" s="1">
         <f t="shared" si="28"/>
         <v>97</v>
       </c>
-      <c r="K180" s="1">
+      <c r="O180" s="1">
         <f t="shared" si="29"/>
         <v>15</v>
       </c>
-      <c r="L180" s="1">
+      <c r="P180" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="15.6">
+    <row r="181" spans="1:16" ht="15.6">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C181" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25039,20 +25396,20 @@
         <f t="shared" si="26"/>
         <v>outcome</v>
       </c>
-      <c r="J181" s="1">
+      <c r="N181" s="1">
         <f t="shared" si="28"/>
         <v>106</v>
       </c>
-      <c r="K181" s="1">
+      <c r="O181" s="1">
         <f t="shared" si="29"/>
         <v>17</v>
       </c>
-      <c r="L181" s="1">
+      <c r="P181" s="1">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:12" s="8" customFormat="1">
+    <row r="183" spans="1:16" s="8" customFormat="1">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -25060,30 +25417,33 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
-      <c r="I183" s="3">
-        <f>AVERAGE(I1:I181)</f>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="J183" s="7">
-        <f>MAX(J1:J181)</f>
+      <c r="M183" s="3">
+        <f>AVERAGE(M1:M181)</f>
+        <v>1.125</v>
+      </c>
+      <c r="N183" s="7">
+        <f>MAX(N1:N181)</f>
         <v>121</v>
       </c>
-      <c r="K183" s="7">
-        <f>MIN(K1:K121)</f>
+      <c r="O183" s="7">
+        <f>MIN(O1:O121)</f>
         <v>13</v>
       </c>
-      <c r="L183" s="7">
-        <f>SUM(L2:L121)</f>
-        <v>39</v>
+      <c r="P183" s="7">
+        <f>SUM(P2:P121)</f>
+        <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
-      <c r="K184" s="1">
-        <f>MAX(K2:K121)</f>
+    <row r="184" spans="1:16">
+      <c r="O184" s="1">
+        <f>MAX(O2:O121)</f>
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89D7B86-B5A1-4877-B1A6-A200ACE9528A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD89433-0E0B-4E29-9CA7-C38D004F230B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17938,8 +17938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F76" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD89433-0E0B-4E29-9CA7-C38D004F230B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF318192-E5B8-4C03-A897-054BCFDA3D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
   <si>
     <t>Sentence</t>
   </si>
@@ -17515,6 +17515,129 @@
   </si>
   <si>
     <t>What happened to the art gallery?</t>
+  </si>
+  <si>
+    <t>She is the author of a series of successful high school biology textbooks.</t>
+  </si>
+  <si>
+    <t>Recovering from the recession proved to be very challenging for the small country.</t>
+  </si>
+  <si>
+    <t>In the end, the show had to be cancelled due to its sinking ratings.</t>
+  </si>
+  <si>
+    <t>The dangerous political situation forced many activists to emigrate.</t>
+  </si>
+  <si>
+    <t>The castle attracted many visitors from abroad, even when it was still in ruins.</t>
+  </si>
+  <si>
+    <t>Last week, Anna spent hours on the phone with her friend.</t>
+  </si>
+  <si>
+    <t>While Richard drove the sedan, his cousin Barney drove the moving truck to their new apartment.</t>
+  </si>
+  <si>
+    <t>As the artist drew the child with the big ears, his parents sat watching nearby.</t>
+  </si>
+  <si>
+    <t>As the adventurer paddled the raft down the stream, he was looking for a safe place to come ashore.</t>
+  </si>
+  <si>
+    <t>While Tom grilled the sausages, his wife entertained the guests with stories of their latest vacation.</t>
+  </si>
+  <si>
+    <t>They had taken a trip to the Amazon rainforest and had seen many wonderful creatures.</t>
+  </si>
+  <si>
+    <t>As Henry whittled the stick for roasting marshmallows, his father put another log on the campfire.</t>
+  </si>
+  <si>
+    <t>biology textbooks</t>
+  </si>
+  <si>
+    <t>cooking recipies</t>
+  </si>
+  <si>
+    <t>cheques</t>
+  </si>
+  <si>
+    <t>complaints</t>
+  </si>
+  <si>
+    <t>What happened to the show?</t>
+  </si>
+  <si>
+    <t>it went viral</t>
+  </si>
+  <si>
+    <t>it was cancelled</t>
+  </si>
+  <si>
+    <t>it was renewed</t>
+  </si>
+  <si>
+    <t>it was praised</t>
+  </si>
+  <si>
+    <t>Who did Anna talk to?</t>
+  </si>
+  <si>
+    <t>the president</t>
+  </si>
+  <si>
+    <t>the mayor</t>
+  </si>
+  <si>
+    <t>her friend</t>
+  </si>
+  <si>
+    <t>her boss</t>
+  </si>
+  <si>
+    <t>What did the artist draw?</t>
+  </si>
+  <si>
+    <t>a child</t>
+  </si>
+  <si>
+    <t>a galaxy</t>
+  </si>
+  <si>
+    <t>a sunset</t>
+  </si>
+  <si>
+    <t>a forest</t>
+  </si>
+  <si>
+    <t>What did Tom do?</t>
+  </si>
+  <si>
+    <t>paint a fence</t>
+  </si>
+  <si>
+    <t>grill sausages</t>
+  </si>
+  <si>
+    <t>water the flowers</t>
+  </si>
+  <si>
+    <t>answer the door</t>
+  </si>
+  <si>
+    <t>Where did they travel to?</t>
+  </si>
+  <si>
+    <t>the Netherlands</t>
+  </si>
+  <si>
+    <t>the White House</t>
+  </si>
+  <si>
+    <t>the Amazon rainforest</t>
+  </si>
+  <si>
+    <t>the Sahara desert</t>
   </si>
 </sst>
 </file>
@@ -17567,7 +17690,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17586,6 +17709,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -17599,7 +17728,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -17645,6 +17774,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17936,10 +18066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P184"/>
+  <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23766,23 +23896,23 @@
         <v>20</v>
       </c>
       <c r="C131" s="9" t="str">
-        <f t="shared" ref="C131:C181" si="22">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (3-1)*LEN(B131)+1, LEN(B131)))</f>
+        <f t="shared" ref="C131:C193" si="22">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (3-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>expecting</v>
       </c>
       <c r="D131" s="9" t="str">
-        <f t="shared" ref="D131:D181" si="23">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (5-1)*LEN(B131)+1, LEN(B131)))</f>
+        <f t="shared" ref="D131:D193" si="23">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (5-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>delivery</v>
       </c>
       <c r="E131" s="9" t="str">
-        <f t="shared" ref="E131:E181" si="24">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (7-1)*LEN(B131)+1, LEN(B131)))</f>
+        <f t="shared" ref="E131:E193" si="24">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (7-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>afternoon</v>
       </c>
       <c r="F131" s="9" t="str">
-        <f t="shared" ref="F131:F181" si="25">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (9-1)*LEN(B131)+1, LEN(B131)))</f>
+        <f t="shared" ref="F131:F193" si="25">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (9-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>decided</v>
       </c>
       <c r="G131" s="9" t="str">
-        <f t="shared" ref="G131:G181" si="26">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (11-1)*LEN(B131)+1, LEN(B131)))</f>
+        <f t="shared" ref="G131:G193" si="26">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (11-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>watch</v>
       </c>
       <c r="N131" s="1">
@@ -23874,7 +24004,7 @@
         <v>17</v>
       </c>
       <c r="P133" s="1">
-        <f t="shared" ref="P133:P181" si="27">IF(ISNUMBER(SEARCH("",H133)),1,0)</f>
+        <f t="shared" ref="P133:P193" si="27">IF(ISNUMBER(SEARCH("",H133)),1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -24266,7 +24396,7 @@
         <v>building</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" ref="N143:N181" si="28">LEN(B143)</f>
+        <f t="shared" ref="N143:N194" si="28">LEN(B143)</f>
         <v>113</v>
       </c>
       <c r="O143" s="1">
@@ -25030,7 +25160,7 @@
         <v>116</v>
       </c>
       <c r="O162" s="1">
-        <f t="shared" ref="O162:O181" si="29">IF(ISBLANK(B162),0,LEN(TRIM(B162))-LEN(SUBSTITUTE(B162," ",""))+1)</f>
+        <f t="shared" ref="O162:O193" si="29">IF(ISBLANK(B162),0,LEN(TRIM(B162))-LEN(SUBSTITUTE(B162," ",""))+1)</f>
         <v>18</v>
       </c>
       <c r="P162" s="1">
@@ -25798,33 +25928,626 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="7"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="4"/>
-      <c r="F183" s="4"/>
-      <c r="G183" s="4"/>
-      <c r="M183" s="3">
+    <row r="182" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C182" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>the</v>
+      </c>
+      <c r="D182" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>of</v>
+      </c>
+      <c r="E182" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>series</v>
+      </c>
+      <c r="F182" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>successful</v>
+      </c>
+      <c r="G182" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>school</v>
+      </c>
+      <c r="H182" t="s">
+        <v>241</v>
+      </c>
+      <c r="I182" t="s">
+        <v>367</v>
+      </c>
+      <c r="J182" t="s">
+        <v>368</v>
+      </c>
+      <c r="K182" t="s">
+        <v>369</v>
+      </c>
+      <c r="L182" t="s">
+        <v>370</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" s="1">
+        <f t="shared" si="28"/>
+        <v>74</v>
+      </c>
+      <c r="O182" s="1">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="P182" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C183" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>the</v>
+      </c>
+      <c r="D183" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>proved</v>
+      </c>
+      <c r="E183" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>be</v>
+      </c>
+      <c r="F183" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>challenging</v>
+      </c>
+      <c r="G183" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>the</v>
+      </c>
+      <c r="M183"/>
+      <c r="N183" s="1">
+        <f t="shared" si="28"/>
+        <v>82</v>
+      </c>
+      <c r="O183" s="1">
+        <f t="shared" si="29"/>
+        <v>13</v>
+      </c>
+      <c r="P183" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C184" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>end,</v>
+      </c>
+      <c r="D184" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>show</v>
+      </c>
+      <c r="E184" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>to</v>
+      </c>
+      <c r="F184" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>cancelled</v>
+      </c>
+      <c r="G184" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>to</v>
+      </c>
+      <c r="H184" t="s">
+        <v>371</v>
+      </c>
+      <c r="I184" t="s">
+        <v>372</v>
+      </c>
+      <c r="J184" t="s">
+        <v>373</v>
+      </c>
+      <c r="K184" t="s">
+        <v>374</v>
+      </c>
+      <c r="L184" t="s">
+        <v>375</v>
+      </c>
+      <c r="M184">
+        <v>2</v>
+      </c>
+      <c r="N184" s="1">
+        <f t="shared" si="28"/>
+        <v>68</v>
+      </c>
+      <c r="O184" s="1">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="P184" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185" s="17" t="s">
+        <v>358</v>
+      </c>
+      <c r="C185" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>political</v>
+      </c>
+      <c r="D185" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>forced</v>
+      </c>
+      <c r="E185" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>activists</v>
+      </c>
+      <c r="F185" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>emigrate.</v>
+      </c>
+      <c r="G185" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="M185"/>
+      <c r="N185" s="1">
+        <f t="shared" si="28"/>
+        <v>68</v>
+      </c>
+      <c r="O185" s="1">
+        <f t="shared" si="29"/>
+        <v>9</v>
+      </c>
+      <c r="P185" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="C186" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>attracted</v>
+      </c>
+      <c r="D186" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>visitors</v>
+      </c>
+      <c r="E186" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>abroad,</v>
+      </c>
+      <c r="F186" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>when</v>
+      </c>
+      <c r="G186" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>was</v>
+      </c>
+      <c r="M186"/>
+      <c r="N186" s="1">
+        <f t="shared" si="28"/>
+        <v>80</v>
+      </c>
+      <c r="O186" s="1">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="P186" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="C187" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>Anna</v>
+      </c>
+      <c r="D187" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>hours</v>
+      </c>
+      <c r="E187" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>the</v>
+      </c>
+      <c r="F187" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>with</v>
+      </c>
+      <c r="G187" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>friend.</v>
+      </c>
+      <c r="H187" t="s">
+        <v>376</v>
+      </c>
+      <c r="I187" t="s">
+        <v>377</v>
+      </c>
+      <c r="J187" t="s">
+        <v>378</v>
+      </c>
+      <c r="K187" t="s">
+        <v>379</v>
+      </c>
+      <c r="L187" t="s">
+        <v>380</v>
+      </c>
+      <c r="M187">
+        <v>3</v>
+      </c>
+      <c r="N187" s="1">
+        <f t="shared" si="28"/>
+        <v>57</v>
+      </c>
+      <c r="O187" s="1">
+        <f t="shared" si="29"/>
+        <v>11</v>
+      </c>
+      <c r="P187" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="C188" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>drove</v>
+      </c>
+      <c r="D188" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>sedan,</v>
+      </c>
+      <c r="E188" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>cousin</v>
+      </c>
+      <c r="F188" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>drove</v>
+      </c>
+      <c r="G188" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>moving</v>
+      </c>
+      <c r="M188"/>
+      <c r="N188" s="1">
+        <f t="shared" si="28"/>
+        <v>95</v>
+      </c>
+      <c r="O188" s="1">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="P188" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>artist</v>
+      </c>
+      <c r="D189" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>the</v>
+      </c>
+      <c r="E189" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>with</v>
+      </c>
+      <c r="F189" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>big</v>
+      </c>
+      <c r="G189" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>his</v>
+      </c>
+      <c r="H189" t="s">
+        <v>381</v>
+      </c>
+      <c r="I189" t="s">
+        <v>382</v>
+      </c>
+      <c r="J189" t="s">
+        <v>383</v>
+      </c>
+      <c r="K189" t="s">
+        <v>384</v>
+      </c>
+      <c r="L189" t="s">
+        <v>385</v>
+      </c>
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" s="1">
+        <f t="shared" si="28"/>
+        <v>80</v>
+      </c>
+      <c r="O189" s="1">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="P189" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C190" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>adventurer</v>
+      </c>
+      <c r="D190" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>the</v>
+      </c>
+      <c r="E190" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>down</v>
+      </c>
+      <c r="F190" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>stream,</v>
+      </c>
+      <c r="G190" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>was</v>
+      </c>
+      <c r="M190"/>
+      <c r="N190" s="1">
+        <f t="shared" si="28"/>
+        <v>99</v>
+      </c>
+      <c r="O190" s="1">
+        <f t="shared" si="29"/>
+        <v>19</v>
+      </c>
+      <c r="P190" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C191" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>grilled</v>
+      </c>
+      <c r="D191" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>sausages,</v>
+      </c>
+      <c r="E191" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>wife</v>
+      </c>
+      <c r="F191" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>the</v>
+      </c>
+      <c r="G191" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>with</v>
+      </c>
+      <c r="H191" t="s">
+        <v>386</v>
+      </c>
+      <c r="I191" t="s">
+        <v>387</v>
+      </c>
+      <c r="J191" t="s">
+        <v>388</v>
+      </c>
+      <c r="K191" t="s">
+        <v>389</v>
+      </c>
+      <c r="L191" t="s">
+        <v>390</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191" s="1">
+        <f t="shared" si="28"/>
+        <v>102</v>
+      </c>
+      <c r="O191" s="1">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="P191" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C192" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>taken</v>
+      </c>
+      <c r="D192" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>trip</v>
+      </c>
+      <c r="E192" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>the</v>
+      </c>
+      <c r="F192" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>rainforest</v>
+      </c>
+      <c r="G192" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>had</v>
+      </c>
+      <c r="H192" t="s">
+        <v>391</v>
+      </c>
+      <c r="I192" t="s">
+        <v>392</v>
+      </c>
+      <c r="J192" t="s">
+        <v>393</v>
+      </c>
+      <c r="K192" t="s">
+        <v>394</v>
+      </c>
+      <c r="L192" t="s">
+        <v>395</v>
+      </c>
+      <c r="M192">
+        <v>3</v>
+      </c>
+      <c r="N192" s="1">
+        <f t="shared" si="28"/>
+        <v>85</v>
+      </c>
+      <c r="O192" s="1">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+      <c r="P192" s="1">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C193" s="9" t="str">
+        <f t="shared" si="22"/>
+        <v>whittled</v>
+      </c>
+      <c r="D193" s="9" t="str">
+        <f t="shared" si="23"/>
+        <v>stick</v>
+      </c>
+      <c r="E193" s="9" t="str">
+        <f t="shared" si="24"/>
+        <v>roasting</v>
+      </c>
+      <c r="F193" s="9" t="str">
+        <f t="shared" si="25"/>
+        <v>his</v>
+      </c>
+      <c r="G193" s="9" t="str">
+        <f t="shared" si="26"/>
+        <v>put</v>
+      </c>
+      <c r="N193" s="1">
+        <f t="shared" si="28"/>
+        <v>98</v>
+      </c>
+      <c r="O193" s="1">
+        <f t="shared" si="29"/>
+        <v>16</v>
+      </c>
+      <c r="P193" s="1">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="7"/>
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
+      <c r="M196" s="3">
         <f>AVERAGE(M1:M181)</f>
         <v>2</v>
       </c>
-      <c r="N183" s="7">
+      <c r="N196" s="7">
         <f>MAX(N1:N181)</f>
         <v>121</v>
       </c>
-      <c r="O183" s="7">
+      <c r="O196" s="7">
         <f>MIN(O1:O121)</f>
         <v>13</v>
       </c>
-      <c r="P183" s="7">
+      <c r="P196" s="7">
         <f>SUM(P2:P121)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O184" s="1">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O197" s="1">
         <f>MAX(O2:O121)</f>
         <v>18</v>
       </c>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF318192-E5B8-4C03-A897-054BCFDA3D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2272FF03-BA3E-4294-8D31-C3DA355CB98B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="534">
   <si>
     <t>Sentence</t>
   </si>
@@ -49,33 +49,6 @@
     <t>answ</t>
   </si>
   <si>
-    <t>Were the reporters allowed in the courtroom? Yes/No</t>
-  </si>
-  <si>
-    <t>Was the mine closed? Yes/No</t>
-  </si>
-  <si>
-    <t>Was the proof difficult to understand? Yes/ No</t>
-  </si>
-  <si>
-    <t>Did the children visit the zoo? Yes/ No</t>
-  </si>
-  <si>
-    <t>Did the couple order lasagna? Yes/No</t>
-  </si>
-  <si>
-    <t>Did Mary help her parents on weekends? Yes/ No</t>
-  </si>
-  <si>
-    <t>Was there a danger of vocanic eruption? Yes/No</t>
-  </si>
-  <si>
-    <t>Was the factory closed? Yes/No</t>
-  </si>
-  <si>
-    <t>Were there plans to build a new bridge? Yes/No</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The large </t>
     </r>
@@ -17638,6 +17611,447 @@
   </si>
   <si>
     <t>the Sahara desert</t>
+  </si>
+  <si>
+    <t>What did the nurse do?</t>
+  </si>
+  <si>
+    <t>conduct tests</t>
+  </si>
+  <si>
+    <t>watch a movie</t>
+  </si>
+  <si>
+    <t>feed her cat</t>
+  </si>
+  <si>
+    <t>take a holiday</t>
+  </si>
+  <si>
+    <t>What did the children do?</t>
+  </si>
+  <si>
+    <t>practice for a play</t>
+  </si>
+  <si>
+    <t>eat icecream</t>
+  </si>
+  <si>
+    <t>take a nap</t>
+  </si>
+  <si>
+    <t>go to the doctor</t>
+  </si>
+  <si>
+    <t>What was shut down?</t>
+  </si>
+  <si>
+    <t>a mine</t>
+  </si>
+  <si>
+    <t>a reality show</t>
+  </si>
+  <si>
+    <t>a restaurant</t>
+  </si>
+  <si>
+    <t>an opera</t>
+  </si>
+  <si>
+    <t>What was needed to reach the base?</t>
+  </si>
+  <si>
+    <t>helicopters</t>
+  </si>
+  <si>
+    <t>space rockets</t>
+  </si>
+  <si>
+    <t>cars</t>
+  </si>
+  <si>
+    <t>bicycles</t>
+  </si>
+  <si>
+    <t>What did the children visit?</t>
+  </si>
+  <si>
+    <t>a museum</t>
+  </si>
+  <si>
+    <t>a dophin show</t>
+  </si>
+  <si>
+    <t>a rice field</t>
+  </si>
+  <si>
+    <t>a cave</t>
+  </si>
+  <si>
+    <t>What was overpriced?</t>
+  </si>
+  <si>
+    <t>What was moved?</t>
+  </si>
+  <si>
+    <t>the music festival</t>
+  </si>
+  <si>
+    <t>the plane ticket</t>
+  </si>
+  <si>
+    <t>the tomatoes</t>
+  </si>
+  <si>
+    <t>the spaghetti</t>
+  </si>
+  <si>
+    <t>What did the couple order?</t>
+  </si>
+  <si>
+    <t>a pizza</t>
+  </si>
+  <si>
+    <t>a TV</t>
+  </si>
+  <si>
+    <t>a lawnmower</t>
+  </si>
+  <si>
+    <t>a PC</t>
+  </si>
+  <si>
+    <t>Who did Mary help?</t>
+  </si>
+  <si>
+    <t>her parents</t>
+  </si>
+  <si>
+    <t>the lawyer</t>
+  </si>
+  <si>
+    <t>the doctor</t>
+  </si>
+  <si>
+    <t>the minister</t>
+  </si>
+  <si>
+    <t>What was closed?</t>
+  </si>
+  <si>
+    <t>the steel door</t>
+  </si>
+  <si>
+    <t>the garage door</t>
+  </si>
+  <si>
+    <t>the paper factory</t>
+  </si>
+  <si>
+    <t>the old library</t>
+  </si>
+  <si>
+    <t>the internet browser</t>
+  </si>
+  <si>
+    <t>the lorry</t>
+  </si>
+  <si>
+    <t>the fence</t>
+  </si>
+  <si>
+    <t>the party</t>
+  </si>
+  <si>
+    <t>a new comet</t>
+  </si>
+  <si>
+    <t>a new ice-cream</t>
+  </si>
+  <si>
+    <t>What was discovered?</t>
+  </si>
+  <si>
+    <t>a new mountain</t>
+  </si>
+  <si>
+    <t>a new lake</t>
+  </si>
+  <si>
+    <t>What did the worker examine?</t>
+  </si>
+  <si>
+    <t>the roof</t>
+  </si>
+  <si>
+    <t>the basement</t>
+  </si>
+  <si>
+    <t>the pool</t>
+  </si>
+  <si>
+    <t>the plane</t>
+  </si>
+  <si>
+    <t>What was postponed?</t>
+  </si>
+  <si>
+    <t>a boxing match</t>
+  </si>
+  <si>
+    <t>a dinner ceremony</t>
+  </si>
+  <si>
+    <t>a horse race</t>
+  </si>
+  <si>
+    <t>a wedding</t>
+  </si>
+  <si>
+    <t>What was expected to spread?</t>
+  </si>
+  <si>
+    <t>the fire</t>
+  </si>
+  <si>
+    <t>the disease</t>
+  </si>
+  <si>
+    <t>the blight</t>
+  </si>
+  <si>
+    <t>the rain</t>
+  </si>
+  <si>
+    <t>What was Mark expecting?</t>
+  </si>
+  <si>
+    <t>a delivery</t>
+  </si>
+  <si>
+    <t>a new job</t>
+  </si>
+  <si>
+    <t>a favour</t>
+  </si>
+  <si>
+    <t>What was the company fined for?</t>
+  </si>
+  <si>
+    <t>a data leak</t>
+  </si>
+  <si>
+    <t>tax evasion</t>
+  </si>
+  <si>
+    <t>harassment</t>
+  </si>
+  <si>
+    <t>poor hygiene</t>
+  </si>
+  <si>
+    <t>What did Elizabeth do?</t>
+  </si>
+  <si>
+    <t>jog</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>dance</t>
+  </si>
+  <si>
+    <t>swim</t>
+  </si>
+  <si>
+    <t>What were the children doing?</t>
+  </si>
+  <si>
+    <t>playing rugby</t>
+  </si>
+  <si>
+    <t>riding bikes</t>
+  </si>
+  <si>
+    <t>visiting Disneyland</t>
+  </si>
+  <si>
+    <t>visiting a circus</t>
+  </si>
+  <si>
+    <t>Where did Miriam take her daughter?</t>
+  </si>
+  <si>
+    <t>to the doctor</t>
+  </si>
+  <si>
+    <t>to school</t>
+  </si>
+  <si>
+    <t>to a castle</t>
+  </si>
+  <si>
+    <t>to the forest</t>
+  </si>
+  <si>
+    <t>What was Lisa looking for?</t>
+  </si>
+  <si>
+    <t>a dress</t>
+  </si>
+  <si>
+    <t>a hobby</t>
+  </si>
+  <si>
+    <t>a maid</t>
+  </si>
+  <si>
+    <t>What was Janice invited to do?</t>
+  </si>
+  <si>
+    <t>give a speech</t>
+  </si>
+  <si>
+    <t>shop for free</t>
+  </si>
+  <si>
+    <t>wash her car</t>
+  </si>
+  <si>
+    <t>clean her house</t>
+  </si>
+  <si>
+    <t>What was delayed?</t>
+  </si>
+  <si>
+    <t>the supply mission</t>
+  </si>
+  <si>
+    <t>the milk delivery</t>
+  </si>
+  <si>
+    <t>the internet installation</t>
+  </si>
+  <si>
+    <t>the football match</t>
+  </si>
+  <si>
+    <t>What was the journalist carrying?</t>
+  </si>
+  <si>
+    <t>a hidden camera</t>
+  </si>
+  <si>
+    <t>a carrot</t>
+  </si>
+  <si>
+    <t>a basket</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Sahara</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Where did Katja want to go to?</t>
+  </si>
+  <si>
+    <t>What was disputed?</t>
+  </si>
+  <si>
+    <t>the patent</t>
+  </si>
+  <si>
+    <t>the match result</t>
+  </si>
+  <si>
+    <t>the election result</t>
+  </si>
+  <si>
+    <t>the land</t>
+  </si>
+  <si>
+    <t>Who blocked the capital?</t>
+  </si>
+  <si>
+    <t>protestors</t>
+  </si>
+  <si>
+    <t>tourists</t>
+  </si>
+  <si>
+    <t>football fans</t>
+  </si>
+  <si>
+    <t>wildlife enthusiasts</t>
+  </si>
+  <si>
+    <t>Where was the village?</t>
+  </si>
+  <si>
+    <t>in Patagonia</t>
+  </si>
+  <si>
+    <t>in Barcelona</t>
+  </si>
+  <si>
+    <t>in York</t>
+  </si>
+  <si>
+    <t>in Scotland</t>
+  </si>
+  <si>
+    <t>What disappeared?</t>
+  </si>
+  <si>
+    <t>the cruiser</t>
+  </si>
+  <si>
+    <t>the conversation</t>
+  </si>
+  <si>
+    <t>the rabbit</t>
+  </si>
+  <si>
+    <t>the money</t>
+  </si>
+  <si>
+    <t>the dinner</t>
+  </si>
+  <si>
+    <t>What was recorded in secret?</t>
+  </si>
+  <si>
+    <t>the music concert</t>
+  </si>
+  <si>
+    <t>the dolphin show</t>
+  </si>
+  <si>
+    <t>the date</t>
+  </si>
+  <si>
+    <t>Where was Joanne's manager?</t>
+  </si>
+  <si>
+    <t>on a holiday</t>
+  </si>
+  <si>
+    <t>at a wedding</t>
+  </si>
+  <si>
+    <t>in the sauna</t>
+  </si>
+  <si>
+    <t>in Parliament</t>
   </si>
 </sst>
 </file>
@@ -18068,8 +18482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18092,34 +18506,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>6</v>
@@ -18139,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>TRIM(MID(SUBSTITUTE(B2," ",REPT(" ",LEN(B2))), (3-1)*LEN(B2)+1, LEN(B2)))</f>
@@ -18162,19 +18576,19 @@
         <v>returning</v>
       </c>
       <c r="H2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="L2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="M2" s="2">
         <v>1</v>
@@ -18197,7 +18611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9" t="str">
         <f t="shared" ref="C3:C66" si="2">TRIM(MID(SUBSTITUTE(B3," ",REPT(" ",LEN(B3))), (3-1)*LEN(B3)+1, LEN(B3)))</f>
@@ -18220,19 +18634,19 @@
         <v>driving</v>
       </c>
       <c r="H3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
+        <v>197</v>
+      </c>
+      <c r="J3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K3" t="s">
         <v>206</v>
       </c>
-      <c r="J3" t="s">
-        <v>205</v>
-      </c>
-      <c r="K3" t="s">
-        <v>215</v>
-      </c>
       <c r="L3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="M3" s="2">
         <v>2</v>
@@ -18255,7 +18669,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C4" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18278,19 +18692,19 @@
         <v>clothes</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="J4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="K4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -18313,7 +18727,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C5" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18336,19 +18750,19 @@
         <v>online</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L5" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M5" s="2">
         <v>4</v>
@@ -18371,7 +18785,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18394,19 +18808,19 @@
         <v>practise</v>
       </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="I6" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="J6" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L6" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -18429,7 +18843,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18452,19 +18866,19 @@
         <v>blame</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="K7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="L7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -18487,7 +18901,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C8" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18510,19 +18924,19 @@
         <v>might</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="I8" t="s">
+        <v>213</v>
+      </c>
+      <c r="J8" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" t="s">
         <v>222</v>
       </c>
-      <c r="J8" t="s">
-        <v>233</v>
-      </c>
-      <c r="K8" t="s">
-        <v>231</v>
-      </c>
       <c r="L8" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="M8" s="2">
         <v>3</v>
@@ -18545,7 +18959,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18568,19 +18982,19 @@
         <v>auction</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="K9" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="L9" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="M9" s="2">
         <v>4</v>
@@ -18603,7 +19017,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18643,7 +19057,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18666,19 +19080,19 @@
         <v>cause</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="J11" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="K11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="L11" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M11" s="2">
         <v>1</v>
@@ -18701,7 +19115,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C12" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18724,19 +19138,19 @@
         <v>panel</v>
       </c>
       <c r="H12" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="I12" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="K12" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="L12" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
@@ -18759,7 +19173,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C13" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18799,7 +19213,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C14" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18839,7 +19253,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18879,7 +19293,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C16" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18919,7 +19333,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C17" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18959,7 +19373,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C18" s="9" t="str">
         <f t="shared" si="2"/>
@@ -18999,7 +19413,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19039,7 +19453,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C20" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19079,7 +19493,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C21" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19119,7 +19533,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C22" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19159,7 +19573,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C23" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19199,7 +19613,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C24" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19239,7 +19653,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C25" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19279,7 +19693,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C26" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19319,7 +19733,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19359,7 +19773,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C28" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19399,7 +19813,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C29" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19439,7 +19853,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19479,7 +19893,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C31" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19519,7 +19933,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C32" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19542,19 +19956,19 @@
         <v>connection</v>
       </c>
       <c r="H32" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="M32" s="2">
         <v>3</v>
@@ -19577,7 +19991,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C33" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19617,7 +20031,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C34" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19640,19 +20054,19 @@
         <v>spacious</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="M34" s="2">
         <v>4</v>
@@ -19675,7 +20089,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C35" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19698,19 +20112,19 @@
         <v>financial</v>
       </c>
       <c r="H35" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="J35" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M35" s="2">
         <v>1</v>
@@ -19733,7 +20147,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C36" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19773,7 +20187,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19813,7 +20227,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C38" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19853,7 +20267,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C39" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19893,7 +20307,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C40" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19916,19 +20330,19 @@
         <v>ruin</v>
       </c>
       <c r="H40" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I40" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="J40" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K40" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="L40" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="M40" s="2">
         <v>2</v>
@@ -19951,7 +20365,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C41" s="9" t="str">
         <f t="shared" si="2"/>
@@ -19974,19 +20388,19 @@
         <v>retire</v>
       </c>
       <c r="H41" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="I41" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="J41" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="K41" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L41" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="M41" s="2">
         <v>3</v>
@@ -20009,7 +20423,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C42" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20049,7 +20463,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C43" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20072,19 +20486,19 @@
         <v>couldn’t</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="I43" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K43" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M43" s="2">
         <v>4</v>
@@ -20107,7 +20521,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C44" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20147,7 +20561,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C45" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20187,7 +20601,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C46" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20227,7 +20641,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C47" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20267,7 +20681,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C48" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20307,7 +20721,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C49" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20347,7 +20761,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C50" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20370,19 +20784,19 @@
         <v>replace</v>
       </c>
       <c r="H50" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="I50" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="J50" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K50" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
@@ -20405,7 +20819,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C51" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20445,7 +20859,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C52" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20485,7 +20899,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C53" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20525,7 +20939,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20548,19 +20962,19 @@
         <v>salsa</v>
       </c>
       <c r="H54" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="I54" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K54" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L54" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="M54" s="2">
         <v>2</v>
@@ -20583,7 +20997,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C55" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20623,7 +21037,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C56" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20663,7 +21077,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C57" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20686,19 +21100,19 @@
         <v>detected</v>
       </c>
       <c r="H57" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="I57" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="J57" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="L57" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="M57" s="2">
         <v>3</v>
@@ -20721,7 +21135,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20761,7 +21175,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C59" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20801,7 +21215,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C60" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20841,7 +21255,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C61" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20864,19 +21278,19 @@
         <v>during</v>
       </c>
       <c r="H61" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I61" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="J61" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="K61" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="M61" s="2">
         <v>4</v>
@@ -20899,7 +21313,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C62" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20939,7 +21353,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C63" s="9" t="str">
         <f t="shared" si="2"/>
@@ -20979,7 +21393,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C64" s="9" t="str">
         <f t="shared" si="2"/>
@@ -21019,7 +21433,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C65" s="9" t="str">
         <f t="shared" si="2"/>
@@ -21042,19 +21456,19 @@
         <v>come</v>
       </c>
       <c r="H65" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="I65" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="J65" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K65" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="L65" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M65" s="2">
         <v>1</v>
@@ -21077,7 +21491,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C66" s="9" t="str">
         <f t="shared" si="2"/>
@@ -21117,7 +21531,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C67" s="9" t="str">
         <f t="shared" ref="C67:C130" si="12">TRIM(MID(SUBSTITUTE(B67," ",REPT(" ",LEN(B67))), (3-1)*LEN(B67)+1, LEN(B67)))</f>
@@ -21140,19 +21554,19 @@
         <v>cyclists</v>
       </c>
       <c r="H67" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="I67" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="J67" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="K67" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="L67" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M67" s="2">
         <v>2</v>
@@ -21175,7 +21589,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C68" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21215,7 +21629,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C69" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21255,7 +21669,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C70" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21278,19 +21692,19 @@
         <v>attract</v>
       </c>
       <c r="H70" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="I70" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J70" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K70" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L70" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="M70" s="2">
         <v>3</v>
@@ -21313,7 +21727,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C71" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21353,7 +21767,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C72" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21393,7 +21807,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C73" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21433,7 +21847,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C74" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21473,7 +21887,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C75" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21513,7 +21927,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C76" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21553,7 +21967,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21593,7 +22007,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C78" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21616,19 +22030,19 @@
         <v>valve</v>
       </c>
       <c r="H78" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="I78" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J78" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K78" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L78" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="M78" s="2">
         <v>4</v>
@@ -21651,7 +22065,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C79" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21691,7 +22105,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C80" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21731,7 +22145,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C81" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21754,19 +22168,19 @@
         <v>remain</v>
       </c>
       <c r="H81" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="I81" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="J81" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K81" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L81" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M81" s="2">
         <v>1</v>
@@ -21789,7 +22203,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C82" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21812,19 +22226,19 @@
         <v>another</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I82" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="J82" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="K82" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="L82" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="M82" s="2">
         <v>2</v>
@@ -21847,7 +22261,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C83" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21870,19 +22284,19 @@
         <v>members</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="I83" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="J83" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="K83" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="L83" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="M83" s="2">
         <v>3</v>
@@ -21905,7 +22319,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C84" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21945,7 +22359,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C85" s="9" t="str">
         <f t="shared" si="12"/>
@@ -21968,19 +22382,19 @@
         <v>some</v>
       </c>
       <c r="H85" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="I85" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="J85" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="K85" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="L85" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="M85" s="2">
         <v>4</v>
@@ -22003,7 +22417,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C86" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22043,7 +22457,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C87" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22066,19 +22480,19 @@
         <v>before</v>
       </c>
       <c r="H87" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I87" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="J87" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="K87" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="L87" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M87" s="2">
         <v>1</v>
@@ -22101,7 +22515,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C88" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22141,7 +22555,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C89" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22164,19 +22578,19 @@
         <v>wealthy</v>
       </c>
       <c r="H89" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="I89" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="J89" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K89" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="L89" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="M89" s="2">
         <v>2</v>
@@ -22199,7 +22613,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C90" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22239,7 +22653,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C91" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22279,7 +22693,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C92" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22301,12 +22715,6 @@
         <f t="shared" si="16"/>
         <v>courtroom</v>
       </c>
-      <c r="H92" t="s">
-        <v>7</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0</v>
-      </c>
       <c r="N92" s="1">
         <f t="shared" si="10"/>
         <v>97</v>
@@ -22317,7 +22725,7 @@
       </c>
       <c r="P92" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22325,7 +22733,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C93" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22347,6 +22755,24 @@
         <f t="shared" si="16"/>
         <v>doctor</v>
       </c>
+      <c r="H93" t="s">
+        <v>387</v>
+      </c>
+      <c r="I93" t="s">
+        <v>391</v>
+      </c>
+      <c r="J93" t="s">
+        <v>389</v>
+      </c>
+      <c r="K93" t="s">
+        <v>388</v>
+      </c>
+      <c r="L93" t="s">
+        <v>390</v>
+      </c>
+      <c r="M93" s="2">
+        <v>3</v>
+      </c>
       <c r="N93" s="1">
         <f t="shared" si="10"/>
         <v>92</v>
@@ -22357,7 +22783,7 @@
       </c>
       <c r="P93" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22365,7 +22791,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C94" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22387,6 +22813,24 @@
         <f t="shared" si="16"/>
         <v>which</v>
       </c>
+      <c r="H94" t="s">
+        <v>392</v>
+      </c>
+      <c r="I94" t="s">
+        <v>396</v>
+      </c>
+      <c r="J94" t="s">
+        <v>395</v>
+      </c>
+      <c r="K94" t="s">
+        <v>394</v>
+      </c>
+      <c r="L94" t="s">
+        <v>393</v>
+      </c>
+      <c r="M94" s="2">
+        <v>4</v>
+      </c>
       <c r="N94" s="1">
         <f t="shared" si="10"/>
         <v>111</v>
@@ -22397,7 +22841,7 @@
       </c>
       <c r="P94" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22405,7 +22849,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C95" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22428,7 +22872,19 @@
         <v>digging</v>
       </c>
       <c r="H95" t="s">
-        <v>8</v>
+        <v>397</v>
+      </c>
+      <c r="I95" t="s">
+        <v>398</v>
+      </c>
+      <c r="J95" t="s">
+        <v>399</v>
+      </c>
+      <c r="K95" t="s">
+        <v>400</v>
+      </c>
+      <c r="L95" t="s">
+        <v>401</v>
       </c>
       <c r="M95" s="2">
         <v>1</v>
@@ -22451,7 +22907,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C96" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22473,6 +22929,24 @@
         <f t="shared" si="16"/>
         <v>could</v>
       </c>
+      <c r="H96" t="s">
+        <v>402</v>
+      </c>
+      <c r="I96" t="s">
+        <v>404</v>
+      </c>
+      <c r="J96" t="s">
+        <v>403</v>
+      </c>
+      <c r="K96" t="s">
+        <v>405</v>
+      </c>
+      <c r="L96" t="s">
+        <v>406</v>
+      </c>
+      <c r="M96" s="2">
+        <v>2</v>
+      </c>
       <c r="N96" s="1">
         <f t="shared" si="10"/>
         <v>84</v>
@@ -22483,7 +22957,7 @@
       </c>
       <c r="P96" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22491,7 +22965,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C97" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22531,7 +23005,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C98" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22553,12 +23027,6 @@
         <f t="shared" si="16"/>
         <v>most</v>
       </c>
-      <c r="H98" t="s">
-        <v>9</v>
-      </c>
-      <c r="M98" s="2">
-        <v>1</v>
-      </c>
       <c r="N98" s="1">
         <f t="shared" ref="N98:N129" si="18">LEN(B98)</f>
         <v>90</v>
@@ -22569,7 +23037,7 @@
       </c>
       <c r="P98" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22577,7 +23045,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C99" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22617,7 +23085,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C100" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22657,7 +23125,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C101" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22680,10 +23148,22 @@
         <v>during</v>
       </c>
       <c r="H101" t="s">
-        <v>10</v>
+        <v>407</v>
+      </c>
+      <c r="I101" t="s">
+        <v>409</v>
+      </c>
+      <c r="J101" t="s">
+        <v>410</v>
+      </c>
+      <c r="K101" t="s">
+        <v>408</v>
+      </c>
+      <c r="L101" t="s">
+        <v>411</v>
       </c>
       <c r="M101" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101" s="1">
         <f t="shared" si="18"/>
@@ -22703,7 +23183,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C102" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22725,6 +23205,24 @@
         <f t="shared" si="16"/>
         <v>tickets</v>
       </c>
+      <c r="H102" t="s">
+        <v>412</v>
+      </c>
+      <c r="I102" t="s">
+        <v>415</v>
+      </c>
+      <c r="J102" t="s">
+        <v>416</v>
+      </c>
+      <c r="K102" t="s">
+        <v>417</v>
+      </c>
+      <c r="L102" t="s">
+        <v>414</v>
+      </c>
+      <c r="M102" s="2">
+        <v>4</v>
+      </c>
       <c r="N102" s="1">
         <f t="shared" si="18"/>
         <v>89</v>
@@ -22735,7 +23233,7 @@
       </c>
       <c r="P102" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -22743,7 +23241,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C103" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22783,7 +23281,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C104" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22823,7 +23321,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C105" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22846,10 +23344,22 @@
         <v>spend</v>
       </c>
       <c r="H105" t="s">
-        <v>11</v>
+        <v>418</v>
+      </c>
+      <c r="I105" t="s">
+        <v>419</v>
+      </c>
+      <c r="J105" t="s">
+        <v>420</v>
+      </c>
+      <c r="K105" t="s">
+        <v>421</v>
+      </c>
+      <c r="L105" t="s">
+        <v>422</v>
       </c>
       <c r="M105" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" s="1">
         <f t="shared" si="18"/>
@@ -22869,7 +23379,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C106" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22909,7 +23419,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C107" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22949,7 +23459,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C108" s="9" t="str">
         <f t="shared" si="12"/>
@@ -22972,10 +23482,22 @@
         <v>household</v>
       </c>
       <c r="H108" t="s">
-        <v>12</v>
+        <v>423</v>
+      </c>
+      <c r="I108" t="s">
+        <v>425</v>
+      </c>
+      <c r="J108" t="s">
+        <v>424</v>
+      </c>
+      <c r="K108" t="s">
+        <v>426</v>
+      </c>
+      <c r="L108" t="s">
+        <v>427</v>
       </c>
       <c r="M108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108" s="1">
         <f t="shared" si="18"/>
@@ -22995,7 +23517,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C109" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23035,7 +23557,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C110" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23058,10 +23580,22 @@
         <v>safety</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>428</v>
+      </c>
+      <c r="I110" t="s">
+        <v>429</v>
+      </c>
+      <c r="J110" t="s">
+        <v>430</v>
+      </c>
+      <c r="K110" t="s">
+        <v>431</v>
+      </c>
+      <c r="L110" t="s">
+        <v>433</v>
       </c>
       <c r="M110" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N110" s="1">
         <f t="shared" si="18"/>
@@ -23081,7 +23615,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C111" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23103,6 +23637,24 @@
         <f t="shared" si="16"/>
         <v>restrictions</v>
       </c>
+      <c r="H111" t="s">
+        <v>413</v>
+      </c>
+      <c r="I111" t="s">
+        <v>434</v>
+      </c>
+      <c r="J111" t="s">
+        <v>435</v>
+      </c>
+      <c r="K111" t="s">
+        <v>436</v>
+      </c>
+      <c r="L111" t="s">
+        <v>432</v>
+      </c>
+      <c r="M111" s="2">
+        <v>4</v>
+      </c>
       <c r="N111" s="1">
         <f t="shared" si="18"/>
         <v>105</v>
@@ -23113,7 +23665,7 @@
       </c>
       <c r="P111" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23121,7 +23673,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C112" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23161,7 +23713,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C113" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23201,7 +23753,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C114" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23241,7 +23793,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C115" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23281,7 +23833,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C116" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23321,7 +23873,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C117" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23343,12 +23895,6 @@
         <f t="shared" si="16"/>
         <v>build</v>
       </c>
-      <c r="H117" t="s">
-        <v>15</v>
-      </c>
-      <c r="M117" s="2">
-        <v>0</v>
-      </c>
       <c r="N117" s="1">
         <f t="shared" si="18"/>
         <v>87</v>
@@ -23359,7 +23905,7 @@
       </c>
       <c r="P117" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23367,7 +23913,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C118" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23407,7 +23953,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C119" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23447,7 +23993,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C120" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23469,12 +24015,6 @@
         <f t="shared" si="16"/>
         <v>possible</v>
       </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-      <c r="M120" s="2">
-        <v>1</v>
-      </c>
       <c r="N120" s="1">
         <f t="shared" si="18"/>
         <v>100</v>
@@ -23485,7 +24025,7 @@
       </c>
       <c r="P120" s="1">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23493,7 +24033,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C121" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23533,7 +24073,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23555,6 +24095,24 @@
         <f t="shared" si="16"/>
         <v>collected</v>
       </c>
+      <c r="H122" t="s">
+        <v>439</v>
+      </c>
+      <c r="I122" t="s">
+        <v>437</v>
+      </c>
+      <c r="J122" t="s">
+        <v>438</v>
+      </c>
+      <c r="K122" t="s">
+        <v>440</v>
+      </c>
+      <c r="L122" t="s">
+        <v>441</v>
+      </c>
+      <c r="M122" s="2">
+        <v>1</v>
+      </c>
       <c r="N122" s="1">
         <f t="shared" si="18"/>
         <v>92</v>
@@ -23565,7 +24123,7 @@
       </c>
       <c r="P122" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23573,7 +24131,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C123" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23613,7 +24171,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23653,7 +24211,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C125" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23693,7 +24251,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C126" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23733,7 +24291,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C127" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23755,6 +24313,24 @@
         <f t="shared" si="16"/>
         <v>assess</v>
       </c>
+      <c r="H127" t="s">
+        <v>442</v>
+      </c>
+      <c r="I127" t="s">
+        <v>444</v>
+      </c>
+      <c r="J127" t="s">
+        <v>443</v>
+      </c>
+      <c r="K127" t="s">
+        <v>445</v>
+      </c>
+      <c r="L127" t="s">
+        <v>446</v>
+      </c>
+      <c r="M127" s="2">
+        <v>2</v>
+      </c>
       <c r="N127" s="1">
         <f t="shared" si="18"/>
         <v>98</v>
@@ -23765,7 +24341,7 @@
       </c>
       <c r="P127" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23773,7 +24349,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C128" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23813,7 +24389,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C129" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23835,6 +24411,24 @@
         <f t="shared" si="16"/>
         <v>venue</v>
       </c>
+      <c r="H129" t="s">
+        <v>447</v>
+      </c>
+      <c r="I129" t="s">
+        <v>449</v>
+      </c>
+      <c r="J129" t="s">
+        <v>450</v>
+      </c>
+      <c r="K129" t="s">
+        <v>448</v>
+      </c>
+      <c r="L129" t="s">
+        <v>451</v>
+      </c>
+      <c r="M129" s="2">
+        <v>3</v>
+      </c>
       <c r="N129" s="1">
         <f t="shared" si="18"/>
         <v>94</v>
@@ -23845,7 +24439,7 @@
       </c>
       <c r="P129" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23853,7 +24447,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C130" s="9" t="str">
         <f t="shared" si="12"/>
@@ -23875,6 +24469,24 @@
         <f t="shared" si="16"/>
         <v>blazing</v>
       </c>
+      <c r="H130" t="s">
+        <v>452</v>
+      </c>
+      <c r="I130" t="s">
+        <v>454</v>
+      </c>
+      <c r="J130" t="s">
+        <v>455</v>
+      </c>
+      <c r="K130" t="s">
+        <v>456</v>
+      </c>
+      <c r="L130" t="s">
+        <v>453</v>
+      </c>
+      <c r="M130" s="2">
+        <v>4</v>
+      </c>
       <c r="N130" s="1">
         <f t="shared" ref="N130:N142" si="20">LEN(B130)</f>
         <v>111</v>
@@ -23885,7 +24497,7 @@
       </c>
       <c r="P130" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23893,7 +24505,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C131" s="9" t="str">
         <f t="shared" ref="C131:C193" si="22">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (3-1)*LEN(B131)+1, LEN(B131)))</f>
@@ -23915,6 +24527,24 @@
         <f t="shared" ref="G131:G193" si="26">TRIM(MID(SUBSTITUTE(B131," ",REPT(" ",LEN(B131))), (11-1)*LEN(B131)+1, LEN(B131)))</f>
         <v>watch</v>
       </c>
+      <c r="H131" t="s">
+        <v>457</v>
+      </c>
+      <c r="I131" t="s">
+        <v>458</v>
+      </c>
+      <c r="J131" t="s">
+        <v>262</v>
+      </c>
+      <c r="K131" t="s">
+        <v>459</v>
+      </c>
+      <c r="L131" t="s">
+        <v>460</v>
+      </c>
+      <c r="M131" s="2">
+        <v>1</v>
+      </c>
       <c r="N131" s="1">
         <f t="shared" si="20"/>
         <v>104</v>
@@ -23925,7 +24555,7 @@
       </c>
       <c r="P131" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23933,7 +24563,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C132" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23955,6 +24585,24 @@
         <f t="shared" si="26"/>
         <v>details</v>
       </c>
+      <c r="H132" t="s">
+        <v>461</v>
+      </c>
+      <c r="I132" t="s">
+        <v>463</v>
+      </c>
+      <c r="J132" t="s">
+        <v>462</v>
+      </c>
+      <c r="K132" t="s">
+        <v>464</v>
+      </c>
+      <c r="L132" t="s">
+        <v>465</v>
+      </c>
+      <c r="M132" s="2">
+        <v>2</v>
+      </c>
       <c r="N132" s="1">
         <f t="shared" si="20"/>
         <v>99</v>
@@ -23965,7 +24613,7 @@
       </c>
       <c r="P132" s="1">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -23973,7 +24621,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C133" s="9" t="str">
         <f t="shared" si="22"/>
@@ -23995,6 +24643,24 @@
         <f t="shared" si="26"/>
         <v>outside</v>
       </c>
+      <c r="H133" t="s">
+        <v>466</v>
+      </c>
+      <c r="I133" t="s">
+        <v>469</v>
+      </c>
+      <c r="J133" t="s">
+        <v>470</v>
+      </c>
+      <c r="K133" t="s">
+        <v>467</v>
+      </c>
+      <c r="L133" t="s">
+        <v>468</v>
+      </c>
+      <c r="M133" s="2">
+        <v>3</v>
+      </c>
       <c r="N133" s="1">
         <f t="shared" si="20"/>
         <v>98</v>
@@ -24005,7 +24671,7 @@
       </c>
       <c r="P133" s="1">
         <f t="shared" ref="P133:P193" si="27">IF(ISNUMBER(SEARCH("",H133)),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24013,7 +24679,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C134" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24053,7 +24719,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24093,7 +24759,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24115,6 +24781,24 @@
         <f t="shared" si="26"/>
         <v>parents</v>
       </c>
+      <c r="H136" t="s">
+        <v>471</v>
+      </c>
+      <c r="I136" t="s">
+        <v>473</v>
+      </c>
+      <c r="J136" t="s">
+        <v>474</v>
+      </c>
+      <c r="K136" t="s">
+        <v>475</v>
+      </c>
+      <c r="L136" t="s">
+        <v>472</v>
+      </c>
+      <c r="M136" s="2">
+        <v>4</v>
+      </c>
       <c r="N136" s="1">
         <f t="shared" si="20"/>
         <v>109</v>
@@ -24125,7 +24809,7 @@
       </c>
       <c r="P136" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24133,7 +24817,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C137" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24155,6 +24839,24 @@
         <f t="shared" si="26"/>
         <v>commuting</v>
       </c>
+      <c r="H137" t="s">
+        <v>476</v>
+      </c>
+      <c r="I137" t="s">
+        <v>478</v>
+      </c>
+      <c r="J137" t="s">
+        <v>477</v>
+      </c>
+      <c r="K137" t="s">
+        <v>479</v>
+      </c>
+      <c r="L137" t="s">
+        <v>480</v>
+      </c>
+      <c r="M137" s="2">
+        <v>1</v>
+      </c>
       <c r="N137" s="1">
         <f t="shared" si="20"/>
         <v>101</v>
@@ -24165,7 +24867,7 @@
       </c>
       <c r="P137" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24173,7 +24875,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C138" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24213,7 +24915,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C139" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24253,7 +24955,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C140" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24293,7 +24995,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C141" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24315,6 +25017,24 @@
         <f t="shared" si="26"/>
         <v>benefit</v>
       </c>
+      <c r="H141" t="s">
+        <v>481</v>
+      </c>
+      <c r="I141" t="s">
+        <v>483</v>
+      </c>
+      <c r="J141" t="s">
+        <v>482</v>
+      </c>
+      <c r="K141" t="s">
+        <v>284</v>
+      </c>
+      <c r="L141" t="s">
+        <v>484</v>
+      </c>
+      <c r="M141" s="2">
+        <v>2</v>
+      </c>
       <c r="N141" s="1">
         <f t="shared" si="20"/>
         <v>105</v>
@@ -24325,7 +25045,7 @@
       </c>
       <c r="P141" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24333,7 +25053,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C142" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24373,7 +25093,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C143" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24396,7 +25116,7 @@
         <v>building</v>
       </c>
       <c r="N143" s="1">
-        <f t="shared" ref="N143:N194" si="28">LEN(B143)</f>
+        <f t="shared" ref="N143:N193" si="28">LEN(B143)</f>
         <v>113</v>
       </c>
       <c r="O143" s="1">
@@ -24413,7 +25133,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C144" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24453,7 +25173,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C145" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24493,7 +25213,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C146" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24533,7 +25253,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C147" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24573,7 +25293,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C148" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24613,7 +25333,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C149" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24653,7 +25373,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C150" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24693,7 +25413,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C151" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24733,7 +25453,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C152" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24773,7 +25493,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C153" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24795,6 +25515,24 @@
         <f t="shared" si="26"/>
         <v>graduation</v>
       </c>
+      <c r="H153" t="s">
+        <v>485</v>
+      </c>
+      <c r="I153" t="s">
+        <v>488</v>
+      </c>
+      <c r="J153" t="s">
+        <v>487</v>
+      </c>
+      <c r="K153" t="s">
+        <v>486</v>
+      </c>
+      <c r="L153" t="s">
+        <v>489</v>
+      </c>
+      <c r="M153" s="2">
+        <v>3</v>
+      </c>
       <c r="N153" s="1">
         <f t="shared" si="28"/>
         <v>118</v>
@@ -24805,7 +25543,7 @@
       </c>
       <c r="P153" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24813,7 +25551,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C154" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24853,7 +25591,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C155" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24893,7 +25631,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C156" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24915,6 +25653,24 @@
         <f t="shared" si="26"/>
         <v>difficult,</v>
       </c>
+      <c r="H156" t="s">
+        <v>490</v>
+      </c>
+      <c r="I156" t="s">
+        <v>494</v>
+      </c>
+      <c r="J156" t="s">
+        <v>493</v>
+      </c>
+      <c r="K156" t="s">
+        <v>492</v>
+      </c>
+      <c r="L156" t="s">
+        <v>491</v>
+      </c>
+      <c r="M156" s="2">
+        <v>4</v>
+      </c>
       <c r="N156" s="1">
         <f t="shared" si="28"/>
         <v>117</v>
@@ -24925,7 +25681,7 @@
       </c>
       <c r="P156" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24933,7 +25689,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C157" s="9" t="str">
         <f t="shared" si="22"/>
@@ -24955,6 +25711,24 @@
         <f t="shared" si="26"/>
         <v>jacket</v>
       </c>
+      <c r="H157" t="s">
+        <v>495</v>
+      </c>
+      <c r="I157" t="s">
+        <v>496</v>
+      </c>
+      <c r="J157" t="s">
+        <v>497</v>
+      </c>
+      <c r="K157" t="s">
+        <v>498</v>
+      </c>
+      <c r="L157" t="s">
+        <v>420</v>
+      </c>
+      <c r="M157" s="2">
+        <v>1</v>
+      </c>
       <c r="N157" s="1">
         <f t="shared" si="28"/>
         <v>106</v>
@@ -24965,7 +25739,7 @@
       </c>
       <c r="P157" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -24973,7 +25747,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C158" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25013,7 +25787,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C159" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25053,7 +25827,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C160" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25093,7 +25867,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C161" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25133,7 +25907,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C162" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25173,7 +25947,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C163" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25213,7 +25987,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C164" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25235,6 +26009,24 @@
         <f t="shared" si="26"/>
         <v>spending</v>
       </c>
+      <c r="H164" t="s">
+        <v>503</v>
+      </c>
+      <c r="I164" t="s">
+        <v>500</v>
+      </c>
+      <c r="J164" t="s">
+        <v>499</v>
+      </c>
+      <c r="K164" t="s">
+        <v>501</v>
+      </c>
+      <c r="L164" t="s">
+        <v>502</v>
+      </c>
+      <c r="M164" s="2">
+        <v>2</v>
+      </c>
       <c r="N164" s="1">
         <f t="shared" si="28"/>
         <v>102</v>
@@ -25245,7 +26037,7 @@
       </c>
       <c r="P164" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25253,7 +26045,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C165" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25293,7 +26085,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C166" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25315,6 +26107,24 @@
         <f t="shared" si="26"/>
         <v>opportunity</v>
       </c>
+      <c r="H166" t="s">
+        <v>504</v>
+      </c>
+      <c r="I166" t="s">
+        <v>506</v>
+      </c>
+      <c r="J166" t="s">
+        <v>507</v>
+      </c>
+      <c r="K166" t="s">
+        <v>505</v>
+      </c>
+      <c r="L166" t="s">
+        <v>508</v>
+      </c>
+      <c r="M166" s="2">
+        <v>3</v>
+      </c>
       <c r="N166" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
@@ -25325,7 +26135,7 @@
       </c>
       <c r="P166" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25333,7 +26143,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C167" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25373,7 +26183,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C168" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25413,7 +26223,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C169" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25453,7 +26263,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="16" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C170" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25493,7 +26303,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C171" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25533,7 +26343,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C172" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25555,6 +26365,24 @@
         <f t="shared" si="26"/>
         <v>accountability</v>
       </c>
+      <c r="H172" t="s">
+        <v>509</v>
+      </c>
+      <c r="I172" t="s">
+        <v>511</v>
+      </c>
+      <c r="J172" t="s">
+        <v>512</v>
+      </c>
+      <c r="K172" t="s">
+        <v>513</v>
+      </c>
+      <c r="L172" t="s">
+        <v>510</v>
+      </c>
+      <c r="M172" s="2">
+        <v>4</v>
+      </c>
       <c r="N172" s="1">
         <f t="shared" si="28"/>
         <v>119</v>
@@ -25565,7 +26393,7 @@
       </c>
       <c r="P172" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25573,7 +26401,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C173" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25613,7 +26441,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C174" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25635,6 +26463,24 @@
         <f t="shared" si="26"/>
         <v>arrived</v>
       </c>
+      <c r="H174" t="s">
+        <v>514</v>
+      </c>
+      <c r="I174" t="s">
+        <v>515</v>
+      </c>
+      <c r="J174" t="s">
+        <v>516</v>
+      </c>
+      <c r="K174" t="s">
+        <v>517</v>
+      </c>
+      <c r="L174" t="s">
+        <v>518</v>
+      </c>
+      <c r="M174" s="2">
+        <v>1</v>
+      </c>
       <c r="N174" s="1">
         <f t="shared" si="28"/>
         <v>112</v>
@@ -25645,7 +26491,7 @@
       </c>
       <c r="P174" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25653,7 +26499,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C175" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25675,6 +26521,24 @@
         <f t="shared" si="26"/>
         <v>leave</v>
       </c>
+      <c r="H175" t="s">
+        <v>519</v>
+      </c>
+      <c r="I175" t="s">
+        <v>522</v>
+      </c>
+      <c r="J175" t="s">
+        <v>520</v>
+      </c>
+      <c r="K175" t="s">
+        <v>523</v>
+      </c>
+      <c r="L175" t="s">
+        <v>524</v>
+      </c>
+      <c r="M175" s="2">
+        <v>2</v>
+      </c>
       <c r="N175" s="1">
         <f t="shared" si="28"/>
         <v>105</v>
@@ -25685,7 +26549,7 @@
       </c>
       <c r="P175" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25693,7 +26557,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C176" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25715,6 +26579,24 @@
         <f t="shared" si="26"/>
         <v>arguing</v>
       </c>
+      <c r="H176" t="s">
+        <v>525</v>
+      </c>
+      <c r="I176" t="s">
+        <v>528</v>
+      </c>
+      <c r="J176" t="s">
+        <v>527</v>
+      </c>
+      <c r="K176" t="s">
+        <v>521</v>
+      </c>
+      <c r="L176" t="s">
+        <v>526</v>
+      </c>
+      <c r="M176" s="2">
+        <v>3</v>
+      </c>
       <c r="N176" s="1">
         <f t="shared" si="28"/>
         <v>113</v>
@@ -25725,7 +26607,7 @@
       </c>
       <c r="P176" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25733,7 +26615,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C177" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25773,7 +26655,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C178" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25813,7 +26695,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C179" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25835,6 +26717,24 @@
         <f t="shared" si="26"/>
         <v>missing</v>
       </c>
+      <c r="H179" t="s">
+        <v>529</v>
+      </c>
+      <c r="I179" t="s">
+        <v>531</v>
+      </c>
+      <c r="J179" t="s">
+        <v>532</v>
+      </c>
+      <c r="K179" t="s">
+        <v>533</v>
+      </c>
+      <c r="L179" t="s">
+        <v>530</v>
+      </c>
+      <c r="M179" s="2">
+        <v>4</v>
+      </c>
       <c r="N179" s="1">
         <f t="shared" si="28"/>
         <v>116</v>
@@ -25845,7 +26745,7 @@
       </c>
       <c r="P179" s="1">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -25853,7 +26753,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C180" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25893,7 +26793,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C181" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25933,7 +26833,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C182" s="9" t="str">
         <f t="shared" si="22"/>
@@ -25956,19 +26856,19 @@
         <v>school</v>
       </c>
       <c r="H182" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="I182" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="J182" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="K182" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L182" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="M182">
         <v>1</v>
@@ -25991,7 +26891,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C183" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26032,7 +26932,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C184" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26055,19 +26955,19 @@
         <v>to</v>
       </c>
       <c r="H184" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="I184" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="J184" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K184" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L184" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="M184">
         <v>2</v>
@@ -26090,7 +26990,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C185" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26131,7 +27031,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C186" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26172,7 +27072,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C187" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26195,19 +27095,19 @@
         <v>friend.</v>
       </c>
       <c r="H187" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="I187" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J187" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="K187" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="L187" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M187">
         <v>3</v>
@@ -26230,7 +27130,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C188" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26271,7 +27171,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C189" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26294,19 +27194,19 @@
         <v>his</v>
       </c>
       <c r="H189" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="I189" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="J189" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K189" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L189" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="M189">
         <v>1</v>
@@ -26329,7 +27229,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C190" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26370,7 +27270,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C191" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26393,19 +27293,19 @@
         <v>with</v>
       </c>
       <c r="H191" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I191" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="J191" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="K191" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="L191" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="M191">
         <v>2</v>
@@ -26428,7 +27328,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C192" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26451,19 +27351,19 @@
         <v>had</v>
       </c>
       <c r="H192" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I192" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="J192" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="K192" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="L192" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M192">
         <v>3</v>
@@ -26486,7 +27386,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C193" s="9" t="str">
         <f t="shared" si="22"/>
@@ -26531,7 +27431,7 @@
       <c r="G196" s="4"/>
       <c r="M196" s="3">
         <f>AVERAGE(M1:M181)</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N196" s="7">
         <f>MAX(N1:N181)</f>
@@ -26542,8 +27442,8 @@
         <v>13</v>
       </c>
       <c r="P196" s="7">
-        <f>SUM(P2:P121)</f>
-        <v>39</v>
+        <f>SUM(P2:P181)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3618C0D3-3AC8-4925-BEA6-B9B2A2C2024D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46490204-8EE7-4059-B847-4A69B612AF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4609" uniqueCount="1906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4629" uniqueCount="1926">
   <si>
     <t>Sentence</t>
   </si>
@@ -22772,6 +22772,66 @@
   </si>
   <si>
     <t>a beautiful lake</t>
+  </si>
+  <si>
+    <t>What was observed across the Western hemisphere?</t>
+  </si>
+  <si>
+    <t>a solar eclipse</t>
+  </si>
+  <si>
+    <t>a flock of birds</t>
+  </si>
+  <si>
+    <t>a tsunami</t>
+  </si>
+  <si>
+    <t>sand dunes</t>
+  </si>
+  <si>
+    <t>Who was going to retire soon?</t>
+  </si>
+  <si>
+    <t>the old minister</t>
+  </si>
+  <si>
+    <t>the circus clown</t>
+  </si>
+  <si>
+    <t>the policeman</t>
+  </si>
+  <si>
+    <t>the sailor</t>
+  </si>
+  <si>
+    <t>What wasn't profitable?</t>
+  </si>
+  <si>
+    <t>the golf course</t>
+  </si>
+  <si>
+    <t>being self-employed</t>
+  </si>
+  <si>
+    <t>the company stocks</t>
+  </si>
+  <si>
+    <t>the beach festival</t>
+  </si>
+  <si>
+    <t>What was broadcast on TV?</t>
+  </si>
+  <si>
+    <t>tennis tournament</t>
+  </si>
+  <si>
+    <t>the political event</t>
+  </si>
+  <si>
+    <t>the church ceremony</t>
+  </si>
+  <si>
+    <t>the rocket launch</t>
   </si>
 </sst>
 </file>
@@ -33647,8 +33707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200F65F-1CAF-461C-A425-17FDB6B8BE4F}">
   <dimension ref="A1:S197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E89" workbookViewId="0">
-      <selection activeCell="M106" sqref="M106"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41731,6 +41791,24 @@
         <f t="shared" si="40"/>
         <v>countries</v>
       </c>
+      <c r="H138" t="s">
+        <v>1906</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1908</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1909</v>
+      </c>
+      <c r="K138" t="s">
+        <v>1907</v>
+      </c>
+      <c r="L138" t="s">
+        <v>1910</v>
+      </c>
+      <c r="M138" s="2">
+        <v>3</v>
+      </c>
       <c r="N138" s="1">
         <f t="shared" si="41"/>
         <v>96</v>
@@ -41741,7 +41819,7 @@
       </c>
       <c r="P138" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q138" s="19" t="s">
         <v>1534</v>
@@ -42394,6 +42472,24 @@
         <f t="shared" si="40"/>
         <v>appointment</v>
       </c>
+      <c r="H151" t="s">
+        <v>1911</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1914</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1915</v>
+      </c>
+      <c r="K151" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L151" t="s">
+        <v>1912</v>
+      </c>
+      <c r="M151" s="2">
+        <v>4</v>
+      </c>
       <c r="N151" s="1">
         <f t="shared" si="41"/>
         <v>100</v>
@@ -42404,7 +42500,7 @@
       </c>
       <c r="P151" s="1">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q151" s="19" t="s">
         <v>1616</v>
@@ -43186,6 +43282,24 @@
         <f t="shared" si="50"/>
         <v>looking</v>
       </c>
+      <c r="H163" t="s">
+        <v>1916</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1917</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1918</v>
+      </c>
+      <c r="K163" t="s">
+        <v>1919</v>
+      </c>
+      <c r="L163" t="s">
+        <v>1920</v>
+      </c>
+      <c r="M163" s="2">
+        <v>1</v>
+      </c>
       <c r="N163" s="1">
         <f t="shared" si="51"/>
         <v>113</v>
@@ -43196,7 +43310,7 @@
       </c>
       <c r="P163" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q163" s="19" t="s">
         <v>1700</v>
@@ -43951,6 +44065,24 @@
         <f t="shared" si="50"/>
         <v>previous</v>
       </c>
+      <c r="H178" t="s">
+        <v>1921</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1925</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1922</v>
+      </c>
+      <c r="K178" t="s">
+        <v>1923</v>
+      </c>
+      <c r="L178" t="s">
+        <v>1924</v>
+      </c>
+      <c r="M178" s="2">
+        <v>2</v>
+      </c>
       <c r="N178" s="1">
         <f t="shared" si="51"/>
         <v>92</v>
@@ -43961,7 +44093,7 @@
       </c>
       <c r="P178" s="1">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q178" s="19" t="s">
         <v>1790</v>
@@ -44875,7 +45007,7 @@
       </c>
       <c r="P196" s="7">
         <f>SUM(P2:P181)</f>
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q196" s="20"/>
       <c r="S196" s="7"/>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9536B3F-5BDB-42B0-A4F6-9EBF1B33EFCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F4E97-EF79-4340-85C6-78BB72ECEB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17001,6 +17001,1280 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">The small </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mountain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> stream </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>attracted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> many </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>different</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> animals </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>because</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> its </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>water</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> was very clean and refreshing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The boxing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>match</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>postponed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>severe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> flooding </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>caused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">venue </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>to close for two weeks.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>comet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>discovered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> after </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">analysing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>latest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> data </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>collected</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> by</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>the space probe.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Because Nathaniel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>inherited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>fortune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>decided</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">donate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>large</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> amount of the money to charity.</t>
+    </r>
+  </si>
+  <si>
+    <t>Zstring</t>
+  </si>
+  <si>
+    <t>same_len</t>
+  </si>
+  <si>
+    <t>z_answ</t>
+  </si>
+  <si>
+    <t>What annoyed many residents?</t>
+  </si>
+  <si>
+    <t>the loud noise</t>
+  </si>
+  <si>
+    <t>the seagulls</t>
+  </si>
+  <si>
+    <t>the polluted air</t>
+  </si>
+  <si>
+    <t>the bad weather</t>
+  </si>
+  <si>
+    <t>What did the midwife admire?</t>
+  </si>
+  <si>
+    <t>a flower</t>
+  </si>
+  <si>
+    <t>a cat</t>
+  </si>
+  <si>
+    <t>What did Hannah visit?</t>
+  </si>
+  <si>
+    <t>a beauty salon</t>
+  </si>
+  <si>
+    <t>a windmill</t>
+  </si>
+  <si>
+    <t>What was cancelled?</t>
+  </si>
+  <si>
+    <t>the trip</t>
+  </si>
+  <si>
+    <t>the lecture</t>
+  </si>
+  <si>
+    <t>the dance party</t>
+  </si>
+  <si>
+    <t>What did the couple celebrate?</t>
+  </si>
+  <si>
+    <t>a wedding anniversary</t>
+  </si>
+  <si>
+    <t>a new house</t>
+  </si>
+  <si>
+    <t>a new baby</t>
+  </si>
+  <si>
+    <t>What spread quickly?</t>
+  </si>
+  <si>
+    <t>the forest fire</t>
+  </si>
+  <si>
+    <t>the rumours</t>
+  </si>
+  <si>
+    <t>the nuclear fallout</t>
+  </si>
+  <si>
+    <t>the contaminated water</t>
+  </si>
+  <si>
+    <t>What turned violent?</t>
+  </si>
+  <si>
+    <t>the protest</t>
+  </si>
+  <si>
+    <t>the football game</t>
+  </si>
+  <si>
+    <t>the church gathering</t>
+  </si>
+  <si>
+    <t>What was popular among hikers?</t>
+  </si>
+  <si>
+    <t>canned food</t>
+  </si>
+  <si>
+    <t>a sleeping bag</t>
+  </si>
+  <si>
+    <t>a torch</t>
+  </si>
+  <si>
+    <t>a beautiful lake</t>
+  </si>
+  <si>
+    <t>What was observed across the Western hemisphere?</t>
+  </si>
+  <si>
+    <t>a solar eclipse</t>
+  </si>
+  <si>
+    <t>a flock of birds</t>
+  </si>
+  <si>
+    <t>a tsunami</t>
+  </si>
+  <si>
+    <t>sand dunes</t>
+  </si>
+  <si>
+    <t>Who was going to retire soon?</t>
+  </si>
+  <si>
+    <t>the old minister</t>
+  </si>
+  <si>
+    <t>the circus clown</t>
+  </si>
+  <si>
+    <t>the sailor</t>
+  </si>
+  <si>
+    <t>What wasn't profitable?</t>
+  </si>
+  <si>
+    <t>the golf course</t>
+  </si>
+  <si>
+    <t>being self-employed</t>
+  </si>
+  <si>
+    <t>the company stocks</t>
+  </si>
+  <si>
+    <t>the beach festival</t>
+  </si>
+  <si>
+    <t>What was broadcast on TV?</t>
+  </si>
+  <si>
+    <t>the church ceremony</t>
+  </si>
+  <si>
+    <t>the rocket launch</t>
+  </si>
+  <si>
+    <t>snorkeling</t>
+  </si>
+  <si>
+    <t>driving his car</t>
+  </si>
+  <si>
+    <t>drinking water</t>
+  </si>
+  <si>
+    <t>her memory</t>
+  </si>
+  <si>
+    <t>a tomato</t>
+  </si>
+  <si>
+    <t>a cucumber</t>
+  </si>
+  <si>
+    <t>the Queen</t>
+  </si>
+  <si>
+    <t>cutting onions</t>
+  </si>
+  <si>
+    <t>preparing dinner</t>
+  </si>
+  <si>
+    <t>more windows</t>
+  </si>
+  <si>
+    <t>the sports game</t>
+  </si>
+  <si>
+    <t>a night club</t>
+  </si>
+  <si>
+    <t>the TV show</t>
+  </si>
+  <si>
+    <t>more rain</t>
+  </si>
+  <si>
+    <t>his will</t>
+  </si>
+  <si>
+    <t>a safari</t>
+  </si>
+  <si>
+    <t>a haircut</t>
+  </si>
+  <si>
+    <t>a stranger</t>
+  </si>
+  <si>
+    <t>a homeless man</t>
+  </si>
+  <si>
+    <t>her gardener</t>
+  </si>
+  <si>
+    <t>the fridge</t>
+  </si>
+  <si>
+    <t>the snacks</t>
+  </si>
+  <si>
+    <t>an ice-cream</t>
+  </si>
+  <si>
+    <t>leaking sensitive details</t>
+  </si>
+  <si>
+    <t>smoking</t>
+  </si>
+  <si>
+    <t>to the Queen</t>
+  </si>
+  <si>
+    <t>the thief</t>
+  </si>
+  <si>
+    <t>the cargo supply mission</t>
+  </si>
+  <si>
+    <t>the tennis tournament</t>
+  </si>
+  <si>
+    <t>the wine tasting</t>
+  </si>
+  <si>
+    <t>on Mars</t>
+  </si>
+  <si>
+    <t>underwater</t>
+  </si>
+  <si>
+    <t>the Mayor</t>
+  </si>
+  <si>
+    <t>Pokemon Go</t>
+  </si>
+  <si>
+    <t>Zzzzzzzzzzzzz zzz zzzzz zzzzzz zzzzzzzz zzzzzz zzzzzzz zzzz zzzz zzzzzzz zzzzzzzo zz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzozzz zzz zzzzzzzz zzzz zzzzzzzzzzz zzzzz zzzzzzz zzzzzzz zzzzzz zzzzzz zz zzz zzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>no_cap</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzz zzzzzz zzzzzzz zzz zzzz zzzzzz zzzzzzzzz zo zzzzzzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzzozz zzz zzzzzzzzzz zzz zzzzzzzz zzzzzzz zzzz zzzzzzzzz zzzzzz zzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzzzz zzzzzzz zzzoz zzzzzz zzzzzzzzzzzz zzzzzzzzz zzzzz zzzzz zzzzzzzzz zzzzzzz zzz zzzzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzz zzzzzzzzz z zzzzzzzz zzzz zzzzzzzzz zzz zzzzzzz zo zzzzz zzzz ZZ zzzzz zzzzzzz zzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzz zozzzzz zzzzzz zzz zzzzz zzzzzz zzzz zzzzzz zzzzzzzzz zzzz zzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzzz zzzzzzzzzz zzzzz zzz zzzzz zzzz zzzzz zzzzozz zzzz zzzzz zzzzzzz zzz zzz zz zzo zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zzzzzzzz zzzz zoz zzzzzz zzzzz zzoz zzz zzzzzzzz zzz zzzzzzz zzzz zoz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzzz zzo zzzzzzz zozzzzz zzzzz zzzzz zzzzzzz zzzz zzozzz zzz zzo z zzzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz ozzz zzz zzzzzzz zzzz zzzzzz zzz zzzzzzzzzz zz zzzzzzzz zzzzzzz zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz ozz zzzzz zzz zzzzzzozzzz zzz zzzzzzzz zzzzzzzz zzzz zzz zzzzz zzz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozzz zzzzzzz zzo zzzzzzzzzzzzz zz zzzzzzzzzzz zzz zzzzzzzzz ozz zzzzz zzzz zzzz zzz zzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzo zzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzzz zzzzz zzzzz zz zzzz zzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz zzz zzzzzzz zzzzz zzzzzz zzo zzzzz zzzzzz ozzzzz zzz zzzzz zz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzzzzzzzzz zozzz zzzzozz zzzz zzzzzzzzzz zzz zzzzzzzzo zz zzzzz z zzzzz zzzzzzzzz zz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzo zzzzzzz ozz zzzzzz zzzz zzzzzzzzz zzo zzzzzzzzz zzzzz zzzzzzz zo zzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzzzz zzzz zzzzzzzzz zzo zzzzzzzzzzz zzzzzzzzzz zzzzz zz zzzzzzz zzz zz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozz zzzzz zzz zzzzzzzzzz zzzzzz zzzzz zzzz zzzzzzzz zzzzzzzzz zzzzoz zz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzozzzzzz zoz zzzzzz zzzzzz zzzozzz zz zzzzzzzz zz zzzzzz zzzzzzzz zzz zzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz zzzozz zzzzz ozzzzz zzzzzz zzzzzzzzzzz zz zzzozzzzzz zzzzz zzzzzzzzzz zzoz zz zzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzz zzzzzzz zzo zzzzz zzzzzzz zzzzzz zz zzzzzzz zzz zzzzzzz zzz zzzzzzz zzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzzo zoz zzzzzz zzzz zzzz zzo zzzzzz zzzzzz zzzzzzzz zzzzzz zz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzozzzz zzzz zzzzzzz ozz zzzzz ozzzzzz zzzzzz zzzz zzzzzzzz zz zzz zzzzzzzo</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz zzzzz zzz zzzzzzz zzzzzzzoz zzzz Zzz zzzz zz zzzzzzz zzz zzzzzzzzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzz zzzz zzzzz zzz zzzzzzzzzzz zzozzzzz zzzzzzz z zzzzzz zozzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzozz zzzzzzz zzz zzzzzzzz ozzz zzzzz zzzz zzzz zzo zzzzzzzz zzzz zzzzz zzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzzzzz Zzzzzz ozzz z zzzoz zzzzzzz zzzzzzzzzz zzz zzzzzzz zzzz zzzzzz z zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz ozzzzz zz zzzzz zzzzz zzzzzzzz zzz zzzzzzoz zzzzzzzzzzz zzzzz zzzzzzo zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zozzzzzz Zzzzzzzz zzzzzzzzz oz zzzz zzz ozzz zzzzz zzzzzz zzz zzozzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzozzzz zzzzz zzz zzzzzzzzz zz zzzzzzzzz zz zzzzzzzz zzz zzzzzzz zz zzz zzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzo zzzzzzzz zzz zzzzzz zzzzzzz zzzzz zzz zzzzzz zzz zzzzoz zzzzz zzzzz zz zz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzzzzz zzzzoz zzzzzzzzz zzzz zzzozz zzzzzz zzzzzzzz zo zzzzzzzzzz zzzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz ozzz zzozzz zzzzzzzz zz zzzz zoz zzzzz zzz zzzzzzzz zzzozzzzzzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzz zzzzzzzz zzzzz oz zzzz zzzzzz zzzzzz zzz zzzzzzzzz zzzzzz zzzz zzzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzozzz zzzzzzzzz zzzzzzz zzzzzz zzzzzozzz zzzzzzzz zzzz zzzzzzzzzz zz zzzz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz zozz zzz ozzzzzzz zz zzzz zzz zzzzzzzz zzz zzzzzz zz zzz ozzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzoz zzzzzz zzz zzzzz zz zzozzz zzz zzz ozzzz zzzzzzzz zzz zzz zz zoz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzzz zzzzzz zzz zzzzzzzzzzz zzzzz zzzzz zzzz zzzzzzzz zz zzzzzzz zz zzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzzzzzz zzzzzzz zzzzz zzzz zzozz zzzz ozzz zzzzzzzz zzzz zzzzz zzzzzzz zzzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzzz zzz zzzzzz zo zzzzzzzzzzz zzz zzozzzz zzzzoz zzzzzzzz zzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zozzzzzz zoz zzzzzzz zzz zzzzzzzzoz zz zzzzzzzz zzzzzzzzz zzzzzz zoz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zzzozzz zzzzzzzz zzz Zzzzzz zz Zzzzzz Zzz zzzzzz zzz zzzzzzz zz zzz ZZZz</t>
+  </si>
+  <si>
+    <t>Zzzzzzzzzzzzz zzz zzoz zzz zzzzzzzzz zzzzz zzzzzzz zz zzzzzz zzzzzz zzzzzzz zzzoz zzz zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz ozzzzz zzz zzzzzzzz zz zzzzzz zzzozzz zzzzzzzzzz zzz zzzzzzz zzzzzz zzz zzz zozz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz zzzozz zz zzzzzz zz zzzzz zzzzz zzzzzzzzz zzz zzzzzzzz zzzzzzzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzzzo zzz zzzzzzzz zz zzzzzzzz zzzzzz zzzzzzzzz zz zzzzzz zz ozz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zozz zzzzzzzzz zzzzzzz zzzzzzzozzz zzzzzzzzz zzzzzzo zzzzzzzz zzz zzzzz zzzzzzzzz zzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzozz zzzzzz zzz zzzzzzz zz zzzz zzzzzo zzzzzzzz zzz zzzzzzzz zozzzzz zzz zz zoz zzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz ozzzzzz zzzzzz zzzzzz zzzz zzzzz zzzz zzzzz zz zzzzzz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzoz zzzzzzz zzzzzzzz zzzzz zzzz zzzzzzzzzz zozzzzzzzz zzzzzzz zzzz zzzzzz zz zzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzozzz zzzzzzzzz zzz zzzzzz zzz zzzzzzz zzzz zzzzzzzzz zzz zzzozzzzzz z zzzzzz ozz zz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz zzzzzoz zzz zzozzzzz zzzzzzzz zzzzo zzzz zzzzzz zzzzzzz zzzzz zzzz zozzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozzzz zzzz zz zzzzzzz zzzzzzzzzz zzzzzzz zzzz zzzzzz zzzzzzzz zzzzz zz zzzzzzzzz zz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzzz ozzzzz z zzzzzz zz zzzzz zzzzz zzzzz zzzzoz zzzzzzzz zzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzzzzzz zzzzz zzz zzzzz zoz zzzzzzzzz zz zzzzzzzz zzzzzzz zzzzzo zzzzzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zz Zzzzzz zzzzzozzz zzz zzzzzz zzzzzzz zzzzzzz zz zzzzzzz zzz zzzzzzz zzzz zzzz zzzz zzzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzzzzzzz zzzzzzz zzzz ozzzzzz zzzz zzozzz zzzzzzzzzz zzzz zzz zzzzzzz zzzzzzz zz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zozz zzzzzz zzz zzzzozz zzzzzzz zzzzzozzz zzz zzzzzzz zz zzzz zz z zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zozzzzzzz zzz zzzzzzz zoz zzzzzzzz zzzoz zzzzzzzzzz z zzzz zzzzzzzz zzzzozzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzzzzzzzzz zzz zzzzzz zzzzzz zzzzzo zzzz zzzzzzzz zz zzzz zzzz zzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zzzz zzzzzz zzzzz zoz zzzzzzzoz zz zzzzzz zzz zzzzzzzz zzzzzz zzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzzz zzzzzoz zzzzzzzz zz zzzzzz zzzz ozzz zzz zzzzzzz zzzzzzzzzzz zzzz ozzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzz zzzzz zzzzzz zzzz zzzzzzzzzz zz zzzz zz zzzzzz zzzzzz zzzoz zzz zzzzzzz zzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzz zzz zzzzz zzzzzz zzzzzzo zzzzz zzzzzzz zzz zzzzzzo zzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozz zzzzzz zzz zzzzz zzzz zzzzzzzzz zzzz zozzzzzzz zzo zzzzzzz zz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz ozzzzzz ozz zzzzzzzz zzzzzzzzz zzzzzz zz zzzzzzz zzzz zzzzzzz zzzzzzzzzzz zzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzzzz zzzzzzzzzz zzzzz zzzzz zzozzzz zzzzzzzzzzz zz zzozzzzz zzz zzzzz zzzzz zzzz zzzzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzo zzzzzz zzzzzzz zoz zzzz zzz zzzzzzzzzzzz zzzzzz zzzz zo zzzzz zz zozzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozz zzzzz zzz zzzzzzz zzzzzzz zzzzz zzzz zzzzzzz zzz zzzzzz zzzzzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzz zz zzzzzzz zzz zzzozzzz zz zzzzz zzzzz zzzzzzzzzz zz zzz zzzzzzo zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzozz zzzz zzzzzzzzz zzzz zzzzzzzz ozzzz zzzzzzzz zzzz zzzzzzzzzzz zzz Zzzzzzz zzzzzo</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zozzzzz zoz zzzz zzz zzzzzz ozz zzzzzzzz zzzzzzz zzzzzzz zz zzoz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz zzzzz zzz zzzzzzo zz zzzz zzz zzzzz zzzzz zzzzzz zzzzz zzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzz zz zozzz zzzz zzzzz zzz zzzzzzzzz zzzzzozzzz zzzzzzzzzz zz zzzzzzzzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz zzzoz oz zzzz zz zzzzzzzz zzozz zzzzzzzzzz zzz zzzz zzzzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzozzz zzzzz zoz zzzzzzzzz zz zzozzz zzzzz zzzzzzzzz zz zzzzzz zzzzzzzzz zz ozz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzz zz zzzzzz zzzzzzzz zzzzzzzzz ozz zzzzzzzzzz zzzzz zzzzzz zz zzzzzzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz ozzzzzzz zzzzzzzzz zzzzzzzzzzz zzzz zzzzzzz zzozzzzzz zzzzzzzzzz zz zzzzzzzzz zzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzz zzz zzzzz zz zzzzzz ozz zzzzzzzz zzzz zzzozz zz zzzz zzzzz zzz zoz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzozzz zzzz zzzzzzzz zzzzz zzzzz zzzzzz zzzzzzzzzz zzzz zzzz zzzzzzz zzz zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz zzzzzzzz zzzz zzzzzzz zzzzzzz ozz zzzzz zzzzzzzzzz zzzzzzz zzoz zzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz ozzz zzzzzzzzz zzzz zzzz zzzzozzzz zzz zzzzzz zz zzzzz zzz zzzzzz zozz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz zo zzzzz ozz zzzzz zzzzzzzzzzz zzzzzzz zzoz zzzzzzzz zzzzz zzzzzzzzzz zzzzz zzzz zzzzozzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzzzzzzzzz zzz zzzzzzzzz zzz zzzzzzz zzz zzoz zz zzzzzzz zzzzzz zz zzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzz zzoz zzzzzzz zz zzzz zzz zzzzzzz zzz zzzzzzzz zzzz zzzzzozzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzozz zzzzzzzzz zzz zzzzzzoz zzzzz zzzzzzzzzz zzz zzzozzzz zzz zzzzzz zzzzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzz zzz zzzzzzz zzzz zzzz zzzzz zzozzzz zz zzzzzzz zzz zzzzzzzzzz zzzzzzzzz zzz</t>
+  </si>
+  <si>
+    <t>Zzz Zzzzzz ozzzzzz zzz zzzzzzzzzz zo zzzzz zzzzzzz zzzzzzzzzzz zzzz zzzzz zzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzz zzzzzzz zzzzzzzz ozz Zzzzzz zz Zzzzzzz Zzzzzzz zzzzzz zzozz zzzz zz ozz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz z zzzzzz zzzzzz zzzzz zzzzz zzzzzzzz zz zzzzz zzz zzzzz zo zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzzz zzzzozz zozz zzzz zz zzzzzzz zzz zzzzzzz zzzz zzzzzzzzz zzzzzz zzzzzz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzz zzz zzzzzzzzzzo zzzzzz zzzzzzzzz zzzozzz zzzzzz zzz zzzzzz zzzzzzzzzz ozzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzozzz zzz zzzzo zz zzzzzzz zzzzzzzz zzzzzzz zzzzz zzzzzzozzzzz zzzz zz zzzz zz zzzzz zoz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzz zzzzzoz zzzzzzz zzzzzz zzzzzzz zzzzz zzz zzzzzz zz zzzzzzzzzzzzz zzzzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz ozzz zzo zzzzzzz zzzzz zzzzzzz zzz zzzzz zzzzzzz zzzz zzzzz zz zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzozz zzzzzzzz zzz zzzz zzzz zzzzzz zzzz zzzzozzz zzz zzozzzzzz zzzzzz zzz zzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzozzz zzz zzzzzo zzzz zzzzzzzz zz zzzzzzzzz zz zzzzz zoz zz zzzzzzz zz zzz zzozzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzzzz zzzzz zzz zzzzzzz zzz zzzzzzzzz zz zzzzzzzzzz zzz zzzz zz zzz zzozzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzozzzzzz zzzzzzz zzz zzzzzzzzz zz zzzzzzzzz zozzz zzzzz zzzzzz zzzzzzzzz zzzz zzzzzz zz zzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zozzz zzzzzz zzzzzzz zozz zz zzzzzz zz zzzz zzz zzzzzz zzzz zozzzz zzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzz zzz zzzzzzzzz zo zzzzzzzzzz zzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz ozzzzzz zzz zzzzzzz zzzzz zzozz zzzzzz zzzzzz zzzzzzzzzz zzzzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzzzz zzzzzzzz zzzzzzzzzzz zzzzzz z zzzzz zzzzozz zzzz zoz zzzzzzzz zzzzzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozzz zzzzzz zzz zzozzzz zzzzzzzzz zzozzzz zz zzzzzzzzz zzz zzzzzz zzozz zz Zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzzzzzz zzz zzzz zzzzzzzo zzzzzzz zzzzzz zzzzzz zzz zzzzzzzz zzzz ozzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzo zzzzz zzz zzozz zz zzzzzzzz zzzzzzz zzzz zzz zzzzz zzzzzzzo zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz zzz ozzz zzzzzzzzz zzzzzzz zzz zzzzzzzzz zzz zzzzz zz zzzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zozzzzz zzzz zzz zzzzzz zzzzzzzo zzzzzz zzz zzzz zzzzzz zzzzzz zzzz zzzzzzzzzz zzzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzozz zzzzzzzz zzzzzzz zzzzzzozzz zzzzzzzzz zzzzzzz zz zzzzzzzzz o zzzzzzzz zzzzzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzozzz zzzzzzz zzz zzzzz zz zzzzzz zo zzzzzzz zzzzz zzzozz zzz zz zzzzz zzzzzzzzzzzzz zzzzzzo</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzz zzz zzzzzzzzzz zzzzz zzzzzzzzz zoz zzzzzz zzzz zzzzzzzzz zz zzz zzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzz zzz zzzzzzz zzzz zozzzz zz zzzzzzzz zz zzzzzz zoz zzzz zzz zzzzzzz zzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzz zzz zzzzzzzzz zzzzo zzzzzz zzzzzzzz zzzozz zzz zzzzz zz zzozz zzz zzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzzzzzzz zzzozzz zzzzzzzzz zzz zzzzzzzzzozz zzzzzz zzzzzzo zzz zzzzzzz zzzz zzz zzzzzzzz zz zzzozzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzozz zzzzzzz zzz zzzzz zzz zzzzzzzzzzoz zzzzzzz zzzzzzzzz zzzzzzzz zzzzzzz zz zzz Zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzzzz zzz zzzzzzz zzz ozzzzzz zzz Zzzzzzzzz zzzz zzzzzzz oz zz zzz ozzzz zzzzzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzzz zzzo zzzzzz zzz zzozzzz zzzzz zzzzo zzzzz zzzzzzz zzzz zzzzzzz zzzzz zzzoz zzzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zzzzzzz zzzz zzz zozzzzzz zz zzzzzz zzzzz zzzzzzz zzzzzz zzzzzzzzz zz zzzz zz zzz zzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzz zzzzzzz zz zzzzzzz zzz zzzzzzz zzzzz zzzzzz zz zzzzzoz zzzz zzz zzz zzzzzzzz zzzz zzz zozzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzz zzzz zzzzzz zoz zzzzzzzz zo zzzzzz zz zzzzzzzzz zzzzzz zzz Zzzzozz zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zoz zzzzzzzz zzz ozzzzzzz zz zzzzzz zzzz zzzzz ozz zzzzzzzzzzz zz zzz zzzzzzzzzz zzzz zz zz zzzo</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz z zzzzzo zzz zzzz zzz zzzzzzzz zz zzzzzzzzz zzz zzzzzz zz zzzzzzzzz zzzzz zz zzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzzzz zz zzzzzzzzzzz ozz zzzzzz zzzzzzz zzzzzzzz zzz zzzzzzzzzz zz zzzzzzzz zz zzzz zzzzz zz zzz zzzozzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz Zzzzzzzzz zzzzzzzzz z zzozzzzz zz zzzzzzz zz zzzzzo z zzzzz zzzzzz zz zzz zzzoz zz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzzzzzzzz zzz zzzzzzzz zz zzzzzzz zzz ozzzzzzzz zzzzzz zzzzzzzzzz zz zzz ZZ zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz zzz zzzzzzzz zo zzzzzzz zzzz zzzzzzzzz zzzzzz zzzz zzzzzzzz zo zzzzzzzzz zz zzzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzozz zzz zzzzzzzz zz zzzzzzzz zzz zzzzzz oz zzzzzzz zzzzzz zzzzzzzzz zz zzz zzozz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozz zzzzzzzzzz zzz zzzzzzzzzz zzz zzzzzzzzzz zzzzzzzzzz zzzzzzzzzzz zzzz zzzzzzzzzz zzz zzzzzzzzo zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzozz zzzzzz zzzzzzzzzz zzzzzzz zzz zzzzoz zzz zzzzzzzzzzz zzzzz zzozzzzz zzz zzzzz zzz zzzzzzzzz zzzzz zzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzoz zzzzzzz zzzzzoz zzz zzzzzzzzzzz zz zzzzzoz zzzzzzzzzz zzzzzzzz zzzz zzzzz zzzzz zzzzz zzzozz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzzzz zzzzzzzzz zz zzzzz zzzzo zzzzzzz zz zzzzzzz zzzz zzzzzzzzz zzzz zzzz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzzzzzzzz zzz zzzzzzzz zozz zzzzzzz zz ozzzzz zzzzz zzzzzzz zz zzz zzzzzzzzz zzzzzzzzzzzzz zzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzozzz zzz zzzzzzzzzz zz zzozzzzz zzz zzzzzzzz zzz zzzzzzzz zzzz zzz zzzzzzz z zzzzzz zozzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzzzz zzzz zzzzzozzz zzzzz zzzzzzz zzz zzzzzzz zoz zzzozzz zz zzzz zzz zzzz zzz zz zzzzz zzzz zz ozzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzzzzzz zzzz zzzzzz zz zzzzz zzzz zzzzzzzzzz zzz zzzzzz zzzzz zz zzzzzz zz zzzzzzzz zzzz ozz zzzzzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzzzzzzzz zzzz zzzzzz zzz ozzzzzzz zz zzzzzzz zzz zzzzzzzzzzzz zz zzzzzzzzzzz zzzzzzzozz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zoz zzzzzzz zz zzzz z zzzzzz zz zzzz zzzzzz zzzzzzzzzz zzzzzzzz zz zzzzzzzzzzz oz zzz zzzzzzz zzzz zz ozz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zzzzzz zozz zzzzzzzz zzzz zzzzzzzz zoz Zzzzzz zzzz zzzzozzzzz zzz zzzzz zzzzzz zzzzzzz zzz zz zz ozzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzzz zzzzzzzzzz zzz zzzzzzzz z zzzzzo zzzzzz zzzzzzzzzz zzz zzzzzz zz zzzzzz zzz zzzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz zzzzz zzzzzzz zzzzz zzzzzzoz zzz zzzzzzzzz zz Zzzzzzzzz zzz zzzzzzzz zzz zzzzz zozzzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ozzzzz zzzzzzz zzzzzzz zzzzzzz zzzz ozzzzzzzz zzzz zzzzzz zzz zzzzzzzzzzz zz zzzz z zzzzzz zzzz zzzzz ozzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz Zzzozzz zzzzzzz zzz zzzzzzz zz zzzzzzozzz zzz zzzzzzzz zzzzzzz zzzzozzzzzzzzz zzz zzzzzzzzzzzz ozzz zzz zzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzz zz Zzzzzzzzz zzz zzzzzzzzzzz zzzz zzzzzzzzzzzz zzzzzzz zzzzzzz zz zozzz zzz zzzzz zzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zz zzz zzzzzzz zzzzzz zzzzzzzzzzzz zzz zzzzzzzzzz ozzz zzzzzzzz zz zzzoz zzz zzz zzzz zzz zzzz zzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zzzzzzzzzzzz zzo zzzzzzzz zz zzzzzzz zzz zzzzzzzzzzz zozzz zzzzzzz zzzz zz ozz zzzzzzzzzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zzz zzzzzzzz oz zzzzzzz zzz zzzzzzz zzz zzzzoz zzz zzzzzzz zozzz zzzzzzz zz zzz oz z zzzzzzz zzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zzzzzzz zzzz zzzzzz zzzzzz zzzzzzzzzzz zzz zzzozzzzz zzzz zzzzzzz zz zzzzz zzz zzzz zz zzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozz zzzzzzzzzz zoz zzzzzzzzz zz zzzzzzzz ZZ zzzzzz zzz zzzzzzzz zzzzzz Zzzzzzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzoz zzzzzzzzz zz zzzzzzzzzz zzzz zzzzzzz zzz zzzzzzzzzzz zz zzzzzzzzo zzzzzzzz zzzz ozz zzzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz ZZ zzozzzzzz zzz zzzzzzzzz ozzz zzzzzzzz zzzzzzzzz zzzozzz zzz zzzzzzzzz zzzzzz zzz zzz zzzzzzz ozz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzzzz zzzzzzzzzz zzz zzzzzz zzzzzzzzz zzzzzzozzzzz zzzz zzzzzzzzzz zz zzzzz zzzz zzzz zzzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzzzzzzzz zoz zzzzzzzzz zzzzzzz zzzzzzzz zzz zzzzzzz zzzzzz zzzzzzzzz zzzzzzz zz ozz zzzzz zzzzzzzzz zz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzzz zzz zzzzzozzzz zz zzzzzzz ozz zzzzzz zz zzzzz zzzzzz zz zzzzz o zzz zzzzzzzz zz zzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zozzz zz zzzzzzzzz zzz zzzzzzzzzz zz zzzzzzzzz zzz zzzzzzzz zz zzzzzzzzzz zzzzzzzzz zz zzzzzzz zzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzzzz zzz zzzzzz zz zzzzzzzzz zzz zzzzzzzzzzz zz ozzzzzzzzz zzz zzzzzzz zz zzz zozzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzo zzzzzz zzz zzzzzzzz zzzzzz Zzzzzozz zz zzzzzzz zzz zzzzzzzzz zzzz zzz zzzz zzz zzzzozz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz zzzzz zzzzz zzzzzz zz zzzzzzzz zz zzzzzz zzzz zzzzzzzz zzzzzzzzz zoz zzzzz zzzzzzz zzzz zzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzz zzzz zzzzzzzzz zz zzzzzzoz zzzzzzzzz zzzzzzzzz zzzz zzzzzz zzzzzzz zzz zzzzzzzz ozz zzzzzzzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz Zzzz zzozzzzz zz zzzzzzz z zzzzzzz zzzz Zzzozzzz oz zzzzzzz zz zzzzzz zzz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzzzzzz zz zzzzzzzzz zzz zzzzzzzzz zzz zz zzz zzzzzzz zzzozzz zzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzzz zzz zzzzzzzz zz zzzzzzzz zzo zzzzzzz zzzo zzzzzzz zz zzz zzzzzzz zzzzz zzzzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz zzz zzzzzzzzzozzz zzz zzzzzzzz zzzz zzzzzzo zz zzzzzzzzzz zzz zzzzzzzzz zzzzzzz zz zzz zozz</t>
+  </si>
+  <si>
+    <t>Zzz ozz zzzzzzzz zzz zzzzzzzzz zz zozzzzz zzz zzzzzzz zzzzzzzoz zzzzzzz zzz zz zzzzoz zzzzz zzzzzzzz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zz zoz zzzzzz zz z zzzzzz zz zzzzzzzzzz zzzz zzzzzz zzzzzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zz zzz zzzo zzz zzzz zzz zz zz zzzozzzzz zzz zz zzz zzzzzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zozzz Zzzz zzozz zzzzz zz zzo zzzzz zzzz zzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzozzzzzz zzzzzzzzz zzzzzzzzz zzzzzz zzzz zzzzzzzzz zz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzzzzzzzz ozzz zzzzzzzz zzzz zzzzzzz zzzz zzzo zz zzz zzzzz zz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zz zzz zzzzzz zzzz zzz zzzoz zzzz ozz zzz zzzzz zzz zzzzzzz zzz zzzozzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz Zzz zzzzzzz zzo zzzzzzzzz zzz zzzz zzzzzzzzzoz zzz zzzzzz zzzz zzzzzzo zz zzzzz ozzzzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzz zzzzz z zzzz zz zzz Zozzzz zzzzzzzzzz zzz zzz zzzz zzzz zzzzzzzzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzz Zzzzzoz zzzzz zzz zzzzzz zzz zzzzzz Zzzzzz zzzzz zzz zzzzzz zzzzz zo zzzzz zzz zzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zz zzz zzzzzzzzzz zzzzzoz zzz zzzo zzzz zzz zzzzzzz zz zzz zzozzzz zzz z zzzz zzzzz zz zzzz zzzzzzz</t>
+  </si>
+  <si>
+    <t>Zz Zzzzo zzzzzzzz zzz zzzzo zzz zzzzzzzz zzzzzzzzzzzzz zzz zzzzzz zzz zzozzzz zzz zz zzo zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>The young author didn't realise that writing her article would cause so much controversy.</t>
+  </si>
+  <si>
+    <t>The residents' peace was disturbed by thousands of visitors who flocked to the town centre.</t>
+  </si>
+  <si>
+    <t>The brave little boy tried to rescue the dog which couldn't get out of the river.</t>
+  </si>
+  <si>
+    <t>To Jane's surprise, the flower somehow managed to survive the blazing heat with very little water.</t>
+  </si>
+  <si>
+    <t>Because the weather was cold and windy, the children weren't allowed to play outside.</t>
+  </si>
+  <si>
+    <t>Zzzzz zzzozzzzzzzz zzzzzz zzz zzzzozz zzzzzzzz zzzz zzz zozzzzz zzz zzzzzzz zzzzz zo zzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzozzz zzzzzzzz zzozzzz zzzzzzz zzzzzzzzz zzozzz zzz zzzzz zzzzz zzzzzz zz ozz zzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zozzz zzzzz zzo zzzzz zzz ozzzzzzzz zzzzz zzzzzzzzzzzzz zzz zzzz zzozzzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzz zzzozz zzzzzzz zzo zzzzzzz zzz zzzzzzo zzzzzz zzzz zzzzzz zzzzzzzzz zzzzzzzzzz zz zozzz</t>
+  </si>
+  <si>
+    <t>Zzz zzo zzzzzz zzzzzzzz ozzzzzz zzzzzzz zzzzzzz zzz zzzozzz z zzzzz zzzzzz zzz zzzozzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zozzzzz zzzzzz zz zzzzzzz zzz zzzzzozz zzzzzz zzzzozzzz zzzzz zzzz zzzzzzz zz zzzzzz zz zoz zzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzz zzz zzzozzzzz zo zzzzzzz zz zzozzzzzzz zzzzzzz zzzzzz zzz zzzzz zzzzz zzzozzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzozzzzz zzzzzzzzz zzzzz zozzz zzzzzzzzz zzzzzz zzz zzzzzz zozz zzzzz zzz zzzz zzzzzzzzz zzz zzzoz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzozzzzz ozz zzzzzzzzzz zzz zzzo zzzz zzzzz zzzzzz zzzzzzz zz zzzzzz zzz zozzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzozz zzzzzzz zzo zzzzzzz zz zzzzzzzzzz zz zzzzoz zzzzz zzzzzzzzzz zzz zzzzzzzzz zozzzzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzz zzz zozzzz zzzoz zzzzzzzzzzz zzz zzzoz zzzzzzzz zzzzz zz zzzzz z zzozzz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzozzz zzz zzzzzzz zz zzzo zzzz zzzzzzzzz zz Zzzzzzzz zzzzzzzzo zzzzzz zzz zzoz zzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzzz zzozzzz zzz ozzzzzzzzzzz zzzz zzzzzzzzz zzzzozz zzzzzzzzz zz zzzzzzzz zzz zzozzz zzzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzzz zzzzzozz zzzzzz zozzzzzzz zzzz zzzzzzzzz zzzzzzz zzzzzzz zoz zzzzz zzz zzzz zzzzz zzz zzozzzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzz zzz zzozzz zzz zozzzz zz zzzzzzz zzz zzzzzzzzzz zz zzzzzoz zzz zzz zzzzzzz zz zzzz zzz zzzozzz zzz</t>
+  </si>
+  <si>
+    <t>Zzz zzzz ozzzzzz zzz zzzzzzzzzzz zoz zzzzzzozzz zzz zzzzzzzzzzzzz zzzz zzzzzzzzzz zz zzz zzzzzzz zzzzzozzzzzzz</t>
+  </si>
+  <si>
+    <t>Zzzzzzzzzz zzzz zzo zzzzzzzzz zzzozz zz oz zzzz zzzzzzzzzzz zzz zzz zzzzz zzozzzzz</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">The enormous </t>
     </r>
     <r>
@@ -17052,7 +18326,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> it's </t>
+      <t xml:space="preserve"> its </t>
     </r>
     <r>
       <rPr>
@@ -17088,1280 +18362,6 @@
       </rPr>
       <t xml:space="preserve"> it difficult to reach.</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The small </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>mountain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> stream </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>attracted</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> many </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>different</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> animals </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>because</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> its </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>water</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> was very clean and refreshing.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The boxing </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>match</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> was </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>postponed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> after </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>severe</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> flooding </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>caused</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">venue </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>to close for two weeks.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The new </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>comet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> was </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>discovered</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> after </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">analysing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>latest</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> data </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>collected</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>the space probe.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Because Nathaniel </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>inherited</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>fortune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, he </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>decided</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">donate </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>large</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> amount of the money to charity.</t>
-    </r>
-  </si>
-  <si>
-    <t>Zstring</t>
-  </si>
-  <si>
-    <t>same_len</t>
-  </si>
-  <si>
-    <t>z_answ</t>
-  </si>
-  <si>
-    <t>What annoyed many residents?</t>
-  </si>
-  <si>
-    <t>the loud noise</t>
-  </si>
-  <si>
-    <t>the seagulls</t>
-  </si>
-  <si>
-    <t>the polluted air</t>
-  </si>
-  <si>
-    <t>the bad weather</t>
-  </si>
-  <si>
-    <t>What did the midwife admire?</t>
-  </si>
-  <si>
-    <t>a flower</t>
-  </si>
-  <si>
-    <t>a cat</t>
-  </si>
-  <si>
-    <t>What did Hannah visit?</t>
-  </si>
-  <si>
-    <t>a beauty salon</t>
-  </si>
-  <si>
-    <t>a windmill</t>
-  </si>
-  <si>
-    <t>What was cancelled?</t>
-  </si>
-  <si>
-    <t>the trip</t>
-  </si>
-  <si>
-    <t>the lecture</t>
-  </si>
-  <si>
-    <t>the dance party</t>
-  </si>
-  <si>
-    <t>What did the couple celebrate?</t>
-  </si>
-  <si>
-    <t>a wedding anniversary</t>
-  </si>
-  <si>
-    <t>a new house</t>
-  </si>
-  <si>
-    <t>a new baby</t>
-  </si>
-  <si>
-    <t>What spread quickly?</t>
-  </si>
-  <si>
-    <t>the forest fire</t>
-  </si>
-  <si>
-    <t>the rumours</t>
-  </si>
-  <si>
-    <t>the nuclear fallout</t>
-  </si>
-  <si>
-    <t>the contaminated water</t>
-  </si>
-  <si>
-    <t>What turned violent?</t>
-  </si>
-  <si>
-    <t>the protest</t>
-  </si>
-  <si>
-    <t>the football game</t>
-  </si>
-  <si>
-    <t>the church gathering</t>
-  </si>
-  <si>
-    <t>What was popular among hikers?</t>
-  </si>
-  <si>
-    <t>canned food</t>
-  </si>
-  <si>
-    <t>a sleeping bag</t>
-  </si>
-  <si>
-    <t>a torch</t>
-  </si>
-  <si>
-    <t>a beautiful lake</t>
-  </si>
-  <si>
-    <t>What was observed across the Western hemisphere?</t>
-  </si>
-  <si>
-    <t>a solar eclipse</t>
-  </si>
-  <si>
-    <t>a flock of birds</t>
-  </si>
-  <si>
-    <t>a tsunami</t>
-  </si>
-  <si>
-    <t>sand dunes</t>
-  </si>
-  <si>
-    <t>Who was going to retire soon?</t>
-  </si>
-  <si>
-    <t>the old minister</t>
-  </si>
-  <si>
-    <t>the circus clown</t>
-  </si>
-  <si>
-    <t>the sailor</t>
-  </si>
-  <si>
-    <t>What wasn't profitable?</t>
-  </si>
-  <si>
-    <t>the golf course</t>
-  </si>
-  <si>
-    <t>being self-employed</t>
-  </si>
-  <si>
-    <t>the company stocks</t>
-  </si>
-  <si>
-    <t>the beach festival</t>
-  </si>
-  <si>
-    <t>What was broadcast on TV?</t>
-  </si>
-  <si>
-    <t>the church ceremony</t>
-  </si>
-  <si>
-    <t>the rocket launch</t>
-  </si>
-  <si>
-    <t>snorkeling</t>
-  </si>
-  <si>
-    <t>driving his car</t>
-  </si>
-  <si>
-    <t>drinking water</t>
-  </si>
-  <si>
-    <t>her memory</t>
-  </si>
-  <si>
-    <t>a tomato</t>
-  </si>
-  <si>
-    <t>a cucumber</t>
-  </si>
-  <si>
-    <t>the Queen</t>
-  </si>
-  <si>
-    <t>cutting onions</t>
-  </si>
-  <si>
-    <t>preparing dinner</t>
-  </si>
-  <si>
-    <t>more windows</t>
-  </si>
-  <si>
-    <t>the sports game</t>
-  </si>
-  <si>
-    <t>a night club</t>
-  </si>
-  <si>
-    <t>the TV show</t>
-  </si>
-  <si>
-    <t>more rain</t>
-  </si>
-  <si>
-    <t>his will</t>
-  </si>
-  <si>
-    <t>a safari</t>
-  </si>
-  <si>
-    <t>a haircut</t>
-  </si>
-  <si>
-    <t>a stranger</t>
-  </si>
-  <si>
-    <t>a homeless man</t>
-  </si>
-  <si>
-    <t>her gardener</t>
-  </si>
-  <si>
-    <t>the fridge</t>
-  </si>
-  <si>
-    <t>the snacks</t>
-  </si>
-  <si>
-    <t>an ice-cream</t>
-  </si>
-  <si>
-    <t>leaking sensitive details</t>
-  </si>
-  <si>
-    <t>smoking</t>
-  </si>
-  <si>
-    <t>to the Queen</t>
-  </si>
-  <si>
-    <t>the thief</t>
-  </si>
-  <si>
-    <t>the cargo supply mission</t>
-  </si>
-  <si>
-    <t>the tennis tournament</t>
-  </si>
-  <si>
-    <t>the wine tasting</t>
-  </si>
-  <si>
-    <t>on Mars</t>
-  </si>
-  <si>
-    <t>underwater</t>
-  </si>
-  <si>
-    <t>the Mayor</t>
-  </si>
-  <si>
-    <t>Pokemon Go</t>
-  </si>
-  <si>
-    <t>Zzzzzzzzzzzzz zzz zzzzz zzzzzz zzzzzzzz zzzzzz zzzzzzz zzzz zzzz zzzzzzz zzzzzzzo zz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzozzz zzz zzzzzzzz zzzz zzzzzzzzzzz zzzzz zzzzzzz zzzzzzz zzzzzz zzzzzz zz zzz zzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>no_cap</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzz zzzzzz zzzzzzz zzz zzzz zzzzzz zzzzzzzzz zo zzzzzzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzzozz zzz zzzzzzzzzz zzz zzzzzzzz zzzzzzz zzzz zzzzzzzzz zzzzzz zzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzzzz zzzzzzz zzzoz zzzzzz zzzzzzzzzzzz zzzzzzzzz zzzzz zzzzz zzzzzzzzz zzzzzzz zzz zzzzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzz zzzzzzzzz z zzzzzzzz zzzz zzzzzzzzz zzz zzzzzzz zo zzzzz zzzz ZZ zzzzz zzzzzzz zzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzz zozzzzz zzzzzz zzz zzzzz zzzzzz zzzz zzzzzz zzzzzzzzz zzzz zzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzzz zzzzzzzzzz zzzzz zzz zzzzz zzzz zzzzz zzzzozz zzzz zzzzz zzzzzzz zzz zzz zz zzo zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zzzzzzzz zzzz zoz zzzzzz zzzzz zzoz zzz zzzzzzzz zzz zzzzzzz zzzz zoz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzzz zzo zzzzzzz zozzzzz zzzzz zzzzz zzzzzzz zzzz zzozzz zzz zzo z zzzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz ozzz zzz zzzzzzz zzzz zzzzzz zzz zzzzzzzzzz zz zzzzzzzz zzzzzzz zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz ozz zzzzz zzz zzzzzzozzzz zzz zzzzzzzz zzzzzzzz zzzz zzz zzzzz zzz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozzz zzzzzzz zzo zzzzzzzzzzzzz zz zzzzzzzzzzz zzz zzzzzzzzz ozz zzzzz zzzz zzzz zzz zzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzo zzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzzz zzzzz zzzzz zz zzzz zzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz zzz zzzzzzz zzzzz zzzzzz zzo zzzzz zzzzzz ozzzzz zzz zzzzz zz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzzzzzzzzz zozzz zzzzozz zzzz zzzzzzzzzz zzz zzzzzzzzo zz zzzzz z zzzzz zzzzzzzzz zz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzo zzzzzzz ozz zzzzzz zzzz zzzzzzzzz zzo zzzzzzzzz zzzzz zzzzzzz zo zzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzzzz zzzz zzzzzzzzz zzo zzzzzzzzzzz zzzzzzzzzz zzzzz zz zzzzzzz zzz zz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozz zzzzz zzz zzzzzzzzzz zzzzzz zzzzz zzzz zzzzzzzz zzzzzzzzz zzzzoz zz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzozzzzzz zoz zzzzzz zzzzzz zzzozzz zz zzzzzzzz zz zzzzzz zzzzzzzz zzz zzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz zzzozz zzzzz ozzzzz zzzzzz zzzzzzzzzzz zz zzzozzzzzz zzzzz zzzzzzzzzz zzoz zz zzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzz zzzzzzz zzo zzzzz zzzzzzz zzzzzz zz zzzzzzz zzz zzzzzzz zzz zzzzzzz zzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzzo zoz zzzzzz zzzz zzzz zzo zzzzzz zzzzzz zzzzzzzz zzzzzz zz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzozzzz zzzz zzzzzzz ozz zzzzz ozzzzzz zzzzzz zzzz zzzzzzzz zz zzz zzzzzzzo</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz zzzzz zzz zzzzzzz zzzzzzzoz zzzz Zzz zzzz zz zzzzzzz zzz zzzzzzzzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzz zzzz zzzzz zzz zzzzzzzzzzz zzozzzzz zzzzzzz z zzzzzz zozzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzozz zzzzzzz zzz zzzzzzzz ozzz zzzzz zzzz zzzz zzo zzzzzzzz zzzz zzzzz zzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzzzzz Zzzzzz ozzz z zzzoz zzzzzzz zzzzzzzzzz zzz zzzzzzz zzzz zzzzzz z zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz ozzzzz zz zzzzz zzzzz zzzzzzzz zzz zzzzzzoz zzzzzzzzzzz zzzzz zzzzzzo zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zozzzzzz Zzzzzzzz zzzzzzzzz oz zzzz zzz ozzz zzzzz zzzzzz zzz zzozzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzozzzz zzzzz zzz zzzzzzzzz zz zzzzzzzzz zz zzzzzzzz zzz zzzzzzz zz zzz zzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzo zzzzzzzz zzz zzzzzz zzzzzzz zzzzz zzz zzzzzz zzz zzzzoz zzzzz zzzzz zz zz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzzzzz zzzzoz zzzzzzzzz zzzz zzzozz zzzzzz zzzzzzzz zo zzzzzzzzzz zzzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz ozzz zzozzz zzzzzzzz zz zzzz zoz zzzzz zzz zzzzzzzz zzzozzzzzzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzz zzzzzzzz zzzzz oz zzzz zzzzzz zzzzzz zzz zzzzzzzzz zzzzzz zzzz zzzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzozzz zzzzzzzzz zzzzzzz zzzzzz zzzzzozzz zzzzzzzz zzzz zzzzzzzzzz zz zzzz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz zozz zzz ozzzzzzz zz zzzz zzz zzzzzzzz zzz zzzzzz zz zzz ozzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzoz zzzzzz zzz zzzzz zz zzozzz zzz zzz ozzzz zzzzzzzz zzz zzz zz zoz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzzz zzzzzz zzz zzzzzzzzzzz zzzzz zzzzz zzzz zzzzzzzz zz zzzzzzz zz zzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzzzzzz zzzzzzz zzzzz zzzz zzozz zzzz ozzz zzzzzzzz zzzz zzzzz zzzzzzz zzzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzzz zzz zzzzzz zo zzzzzzzzzzz zzz zzozzzz zzzzoz zzzzzzzz zzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zozzzzzz zoz zzzzzzz zzz zzzzzzzzoz zz zzzzzzzz zzzzzzzzz zzzzzz zoz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zzzozzz zzzzzzzz zzz Zzzzzz zz Zzzzzz Zzz zzzzzz zzz zzzzzzz zz zzz ZZZz</t>
-  </si>
-  <si>
-    <t>Zzzzzzzzzzzzz zzz zzoz zzz zzzzzzzzz zzzzz zzzzzzz zz zzzzzz zzzzzz zzzzzzz zzzoz zzz zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz ozzzzz zzz zzzzzzzz zz zzzzzz zzzozzz zzzzzzzzzz zzz zzzzzzz zzzzzz zzz zzz zozz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz zzzozz zz zzzzzz zz zzzzz zzzzz zzzzzzzzz zzz zzzzzzzz zzzzzzzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzzzo zzz zzzzzzzz zz zzzzzzzz zzzzzz zzzzzzzzz zz zzzzzz zz ozz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zozz zzzzzzzzz zzzzzzz zzzzzzzozzz zzzzzzzzz zzzzzzo zzzzzzzz zzz zzzzz zzzzzzzzz zzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzozz zzzzzz zzz zzzzzzz zz zzzz zzzzzo zzzzzzzz zzz zzzzzzzz zozzzzz zzz zz zoz zzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz ozzzzzz zzzzzz zzzzzz zzzz zzzzz zzzz zzzzz zz zzzzzz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzoz zzzzzzz zzzzzzzz zzzzz zzzz zzzzzzzzzz zozzzzzzzz zzzzzzz zzzz zzzzzz zz zzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzozzz zzzzzzzzz zzz zzzzzz zzz zzzzzzz zzzz zzzzzzzzz zzz zzzozzzzzz z zzzzzz ozz zz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz zzzzzoz zzz zzozzzzz zzzzzzzz zzzzo zzzz zzzzzz zzzzzzz zzzzz zzzz zozzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozzzz zzzz zz zzzzzzz zzzzzzzzzz zzzzzzz zzzz zzzzzz zzzzzzzz zzzzz zz zzzzzzzzz zz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzzz ozzzzz z zzzzzz zz zzzzz zzzzz zzzzz zzzzoz zzzzzzzz zzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzzzzzz zzzzz zzz zzzzz zoz zzzzzzzzz zz zzzzzzzz zzzzzzz zzzzzo zzzzzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zz Zzzzzz zzzzzozzz zzz zzzzzz zzzzzzz zzzzzzz zz zzzzzzz zzz zzzzzzz zzzz zzzz zzzz zzzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzzzzzzz zzzzzzz zzzz ozzzzzz zzzz zzozzz zzzzzzzzzz zzzz zzz zzzzzzz zzzzzzz zz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zozz zzzzzz zzz zzzzozz zzzzzzz zzzzzozzz zzz zzzzzzz zz zzzz zz z zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zozzzzzzz zzz zzzzzzz zoz zzzzzzzz zzzoz zzzzzzzzzz z zzzz zzzzzzzz zzzzozzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzzzzzzzzz zzz zzzzzz zzzzzz zzzzzo zzzz zzzzzzzz zz zzzz zzzz zzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zzzz zzzzzz zzzzz zoz zzzzzzzoz zz zzzzzz zzz zzzzzzzz zzzzzz zzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzzz zzzzzoz zzzzzzzz zz zzzzzz zzzz ozzz zzz zzzzzzz zzzzzzzzzzz zzzz ozzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzz zzzzz zzzzzz zzzz zzzzzzzzzz zz zzzz zz zzzzzz zzzzzz zzzoz zzz zzzzzzz zzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzz zzz zzzzz zzzzzz zzzzzzo zzzzz zzzzzzz zzz zzzzzzo zzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozz zzzzzz zzz zzzzz zzzz zzzzzzzzz zzzz zozzzzzzz zzo zzzzzzz zz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz ozzzzzz ozz zzzzzzzz zzzzzzzzz zzzzzz zz zzzzzzz zzzz zzzzzzz zzzzzzzzzzz zzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzzzz zzzzzzzzzz zzzzz zzzzz zzozzzz zzzzzzzzzzz zz zzozzzzz zzz zzzzz zzzzz zzzz zzzzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzo zzzzzz zzzzzzz zoz zzzz zzz zzzzzzzzzzzz zzzzzz zzzz zo zzzzz zz zozzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozz zzzzz zzz zzzzzzz zzzzzzz zzzzz zzzz zzzzzzz zzz zzzzzz zzzzzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzz zz zzzzzzz zzz zzzozzzz zz zzzzz zzzzz zzzzzzzzzz zz zzz zzzzzzo zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzozz zzzz zzzzzzzzz zzzz zzzzzzzz ozzzz zzzzzzzz zzzz zzzzzzzzzzz zzz Zzzzzzz zzzzzo</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zozzzzz zoz zzzz zzz zzzzzz ozz zzzzzzzz zzzzzzz zzzzzzz zz zzoz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz zzzzz zzz zzzzzzo zz zzzz zzz zzzzz zzzzz zzzzzz zzzzz zzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzz zz zozzz zzzz zzzzz zzz zzzzzzzzz zzzzzozzzz zzzzzzzzzz zz zzzzzzzzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz zzzoz oz zzzz zz zzzzzzzz zzozz zzzzzzzzzz zzz zzzz zzzzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzozzz zzzzz zoz zzzzzzzzz zz zzozzz zzzzz zzzzzzzzz zz zzzzzz zzzzzzzzz zz ozz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzz zz zzzzzz zzzzzzzz zzzzzzzzz ozz zzzzzzzzzz zzzzz zzzzzz zz zzzzzzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz ozzzzzzz zzzzzzzzz zzzzzzzzzzz zzzz zzzzzzz zzozzzzzz zzzzzzzzzz zz zzzzzzzzz zzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzz zzz zzzzz zz zzzzzz ozz zzzzzzzz zzzz zzzozz zz zzzz zzzzz zzz zoz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzozzz zzzz zzzzzzzz zzzzz zzzzz zzzzzz zzzzzzzzzz zzzz zzzz zzzzzzz zzz zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz zzzzzzzz zzzz zzzzzzz zzzzzzz ozz zzzzz zzzzzzzzzz zzzzzzz zzoz zzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz ozzz zzzzzzzzz zzzz zzzz zzzzozzzz zzz zzzzzz zz zzzzz zzz zzzzzz zozz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz zo zzzzz ozz zzzzz zzzzzzzzzzz zzzzzzz zzoz zzzzzzzz zzzzz zzzzzzzzzz zzzzz zzzz zzzzozzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzzzzzzzzz zzz zzzzzzzzz zzz zzzzzzz zzz zzoz zz zzzzzzz zzzzzz zz zzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzz zzoz zzzzzzz zz zzzz zzz zzzzzzz zzz zzzzzzzz zzzz zzzzzozzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzozz zzzzzzzzz zzz zzzzzzoz zzzzz zzzzzzzzzz zzz zzzozzzz zzz zzzzzz zzzzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzz zzz zzzzzzz zzzz zzzz zzzzz zzozzzz zz zzzzzzz zzz zzzzzzzzzz zzzzzzzzz zzz</t>
-  </si>
-  <si>
-    <t>Zzz Zzzzzz ozzzzzz zzz zzzzzzzzzz zo zzzzz zzzzzzz zzzzzzzzzzz zzzz zzzzz zzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzz zzzzzzz zzzzzzzz ozz Zzzzzz zz Zzzzzzz Zzzzzzz zzzzzz zzozz zzzz zz ozz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz z zzzzzz zzzzzz zzzzz zzzzz zzzzzzzz zz zzzzz zzz zzzzz zo zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzzz zzzzozz zozz zzzz zz zzzzzzz zzz zzzzzzz zzzz zzzzzzzzz zzzzzz zzzzzz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzz zzz zzzzzzzzzzo zzzzzz zzzzzzzzz zzzozzz zzzzzz zzz zzzzzz zzzzzzzzzz ozzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzozzz zzz zzzzo zz zzzzzzz zzzzzzzz zzzzzzz zzzzz zzzzzzozzzzz zzzz zz zzzz zz zzzzz zoz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzz zzzzzoz zzzzzzz zzzzzz zzzzzzz zzzzz zzz zzzzzz zz zzzzzzzzzzzzz zzzzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz ozzz zzo zzzzzzz zzzzz zzzzzzz zzz zzzzz zzzzzzz zzzz zzzzz zz zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzozz zzzzzzzz zzz zzzz zzzz zzzzzz zzzz zzzzozzz zzz zzozzzzzz zzzzzz zzz zzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzozzz zzz zzzzzo zzzz zzzzzzzz zz zzzzzzzzz zz zzzzz zoz zz zzzzzzz zz zzz zzozzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzzzz zzzzz zzz zzzzzzz zzz zzzzzzzzz zz zzzzzzzzzz zzz zzzz zz zzz zzozzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzozzzzzz zzzzzzz zzz zzzzzzzzz zz zzzzzzzzz zozzz zzzzz zzzzzz zzzzzzzzz zzzz zzzzzz zz zzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zozzz zzzzzz zzzzzzz zozz zz zzzzzz zz zzzz zzz zzzzzz zzzz zozzzz zzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzz zzz zzzzzzzzz zo zzzzzzzzzz zzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz ozzzzzz zzz zzzzzzz zzzzz zzozz zzzzzz zzzzzz zzzzzzzzzz zzzzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzzzz zzzzzzzz zzzzzzzzzzz zzzzzz z zzzzz zzzzozz zzzz zoz zzzzzzzz zzzzzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozzz zzzzzz zzz zzozzzz zzzzzzzzz zzozzzz zz zzzzzzzzz zzz zzzzzz zzozz zz Zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzzzzzz zzz zzzz zzzzzzzo zzzzzzz zzzzzz zzzzzz zzz zzzzzzzz zzzz ozzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzo zzzzz zzz zzozz zz zzzzzzzz zzzzzzz zzzz zzz zzzzz zzzzzzzo zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz zzz ozzz zzzzzzzzz zzzzzzz zzz zzzzzzzzz zzz zzzzz zz zzzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zozzzzz zzzz zzz zzzzzz zzzzzzzo zzzzzz zzz zzzz zzzzzz zzzzzz zzzz zzzzzzzzzz zzzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzozz zzzzzzzz zzzzzzz zzzzzzozzz zzzzzzzzz zzzzzzz zz zzzzzzzzz o zzzzzzzz zzzzzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzozzz zzzzzzz zzz zzzzz zz zzzzzz zo zzzzzzz zzzzz zzzozz zzz zz zzzzz zzzzzzzzzzzzz zzzzzzo</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzz zzz zzzzzzzzzz zzzzz zzzzzzzzz zoz zzzzzz zzzz zzzzzzzzz zz zzz zzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzz zzz zzzzzzz zzzz zozzzz zz zzzzzzzz zz zzzzzz zoz zzzz zzz zzzzzzz zzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzz zzz zzzzzzzzz zzzzo zzzzzz zzzzzzzz zzzozz zzz zzzzz zz zzozz zzz zzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzzzzzzz zzzozzz zzzzzzzzz zzz zzzzzzzzzozz zzzzzz zzzzzzo zzz zzzzzzz zzzz zzz zzzzzzzz zz zzzozzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzozz zzzzzzz zzz zzzzz zzz zzzzzzzzzzoz zzzzzzz zzzzzzzzz zzzzzzzz zzzzzzz zz zzz Zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzzzz zzz zzzzzzz zzz ozzzzzz zzz Zzzzzzzzz zzzz zzzzzzz oz zz zzz ozzzz zzzzzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzzz zzzo zzzzzz zzz zzozzzz zzzzz zzzzo zzzzz zzzzzzz zzzz zzzzzzz zzzzz zzzoz zzzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zzzzzzz zzzz zzz zozzzzzz zz zzzzzz zzzzz zzzzzzz zzzzzz zzzzzzzzz zz zzzz zz zzz zzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzz zzzzzzz zz zzzzzzz zzz zzzzzzz zzzzz zzzzzz zz zzzzzoz zzzz zzz zzz zzzzzzzz zzzz zzz zozzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzz zzzz zzzzzz zoz zzzzzzzz zo zzzzzz zz zzzzzzzzz zzzzzz zzz Zzzzozz zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zoz zzzzzzzz zzz ozzzzzzz zz zzzzzz zzzz zzzzz ozz zzzzzzzzzzz zz zzz zzzzzzzzzz zzzz zz zz zzzo</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz z zzzzzo zzz zzzz zzz zzzzzzzz zz zzzzzzzzz zzz zzzzzz zz zzzzzzzzz zzzzz zz zzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzzzz zz zzzzzzzzzzz ozz zzzzzz zzzzzzz zzzzzzzz zzz zzzzzzzzzz zz zzzzzzzz zz zzzz zzzzz zz zzz zzzozzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz Zzzzzzzzz zzzzzzzzz z zzozzzzz zz zzzzzzz zz zzzzzo z zzzzz zzzzzz zz zzz zzzoz zz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzzzzzzzz zzz zzzzzzzz zz zzzzzzz zzz ozzzzzzzz zzzzzz zzzzzzzzzz zz zzz ZZ zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz zzz zzzzzzzz zo zzzzzzz zzzz zzzzzzzzz zzzzzz zzzz zzzzzzzz zo zzzzzzzzz zz zzzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzozz zzz zzzzzzzz zz zzzzzzzz zzz zzzzzz oz zzzzzzz zzzzzz zzzzzzzzz zz zzz zzozz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozz zzzzzzzzzz zzz zzzzzzzzzz zzz zzzzzzzzzz zzzzzzzzzz zzzzzzzzzzz zzzz zzzzzzzzzz zzz zzzzzzzzo zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzozz zzzzzz zzzzzzzzzz zzzzzzz zzz zzzzoz zzz zzzzzzzzzzz zzzzz zzozzzzz zzz zzzzz zzz zzzzzzzzz zzzzz zzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzoz zzzzzzz zzzzzoz zzz zzzzzzzzzzz zz zzzzzoz zzzzzzzzzz zzzzzzzz zzzz zzzzz zzzzz zzzzz zzzozz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzzzz zzzzzzzzz zz zzzzz zzzzo zzzzzzz zz zzzzzzz zzzz zzzzzzzzz zzzz zzzz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzzzzzzzz zzz zzzzzzzz zozz zzzzzzz zz ozzzzz zzzzz zzzzzzz zz zzz zzzzzzzzz zzzzzzzzzzzzz zzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzozzz zzz zzzzzzzzzz zz zzozzzzz zzz zzzzzzzz zzz zzzzzzzz zzzz zzz zzzzzzz z zzzzzz zozzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzzzz zzzz zzzzzozzz zzzzz zzzzzzz zzz zzzzzzz zoz zzzozzz zz zzzz zzz zzzz zzz zz zzzzz zzzz zz ozzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzzzzzz zzzz zzzzzz zz zzzzz zzzz zzzzzzzzzz zzz zzzzzz zzzzz zz zzzzzz zz zzzzzzzz zzzz ozz zzzzzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzzzzzzzz zzzz zzzzzz zzz ozzzzzzz zz zzzzzzz zzz zzzzzzzzzzzz zz zzzzzzzzzzz zzzzzzzozz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zoz zzzzzzz zz zzzz z zzzzzz zz zzzz zzzzzz zzzzzzzzzz zzzzzzzz zz zzzzzzzzzzz oz zzz zzzzzzz zzzz zz ozz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zzzzzz zozz zzzzzzzz zzzz zzzzzzzz zoz Zzzzzz zzzz zzzzozzzzz zzz zzzzz zzzzzz zzzzzzz zzz zz zz ozzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzzz zzzzzzzzzz zzz zzzzzzzz z zzzzzo zzzzzz zzzzzzzzzz zzz zzzzzz zz zzzzzz zzz zzzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz zzzzz zzzzzzz zzzzz zzzzzzoz zzz zzzzzzzzz zz Zzzzzzzzz zzz zzzzzzzz zzz zzzzz zozzzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ozzzzz zzzzzzz zzzzzzz zzzzzzz zzzz ozzzzzzzz zzzz zzzzzz zzz zzzzzzzzzzz zz zzzz z zzzzzz zzzz zzzzz ozzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz Zzzozzz zzzzzzz zzz zzzzzzz zz zzzzzzozzz zzz zzzzzzzz zzzzzzz zzzzozzzzzzzzz zzz zzzzzzzzzzzz ozzz zzz zzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzz zz Zzzzzzzzz zzz zzzzzzzzzzz zzzz zzzzzzzzzzzz zzzzzzz zzzzzzz zz zozzz zzz zzzzz zzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zz zzz zzzzzzz zzzzzz zzzzzzzzzzzz zzz zzzzzzzzzz ozzz zzzzzzzz zz zzzoz zzz zzz zzzz zzz zzzz zzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zzzzzzzzzzzz zzo zzzzzzzz zz zzzzzzz zzz zzzzzzzzzzz zozzz zzzzzzz zzzz zz ozz zzzzzzzzzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zzz zzzzzzzz oz zzzzzzz zzz zzzzzzz zzz zzzzoz zzz zzzzzzz zozzz zzzzzzz zz zzz oz z zzzzzzz zzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zzzzzzz zzzz zzzzzz zzzzzz zzzzzzzzzzz zzz zzzozzzzz zzzz zzzzzzz zz zzzzz zzz zzzz zz zzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozz zzzzzzzzzz zoz zzzzzzzzz zz zzzzzzzz ZZ zzzzzz zzz zzzzzzzz zzzzzz Zzzzzzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzoz zzzzzzzzz zz zzzzzzzzzz zzzz zzzzzzz zzz zzzzzzzzzzz zz zzzzzzzzo zzzzzzzz zzzz ozz zzzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz ZZ zzozzzzzz zzz zzzzzzzzz ozzz zzzzzzzz zzzzzzzzz zzzozzz zzz zzzzzzzzz zzzzzz zzz zzz zzzzzzz ozz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzzzz zzzzzzzzzz zzz zzzzzz zzzzzzzzz zzzzzzozzzzz zzzz zzzzzzzzzz zz zzzzz zzzz zzzz zzzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzzzzzzzz zoz zzzzzzzzz zzzzzzz zzzzzzzz zzz zzzzzzz zzzzzz zzzzzzzzz zzzzzzz zz ozz zzzzz zzzzzzzzz zz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzzz zzz zzzzzozzzz zz zzzzzzz ozz zzzzzz zz zzzzz zzzzzz zz zzzzz o zzz zzzzzzzz zz zzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zozzz zz zzzzzzzzz zzz zzzzzzzzzz zz zzzzzzzzz zzz zzzzzzzz zz zzzzzzzzzz zzzzzzzzz zz zzzzzzz zzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzzzz zzz zzzzzz zz zzzzzzzzz zzz zzzzzzzzzzz zz ozzzzzzzzz zzz zzzzzzz zz zzz zozzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzo zzzzzz zzz zzzzzzzz zzzzzz Zzzzzozz zz zzzzzzz zzz zzzzzzzzz zzzz zzz zzzz zzz zzzzozz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz zzzzz zzzzz zzzzzz zz zzzzzzzz zz zzzzzz zzzz zzzzzzzz zzzzzzzzz zoz zzzzz zzzzzzz zzzz zzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzz zzzz zzzzzzzzz zz zzzzzzoz zzzzzzzzz zzzzzzzzz zzzz zzzzzz zzzzzzz zzz zzzzzzzz ozz zzzzzzzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz Zzzz zzozzzzz zz zzzzzzz z zzzzzzz zzzz Zzzozzzz oz zzzzzzz zz zzzzzz zzz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzzz zzzzzzz zzzz zzzzzzz zzz zzzzzzzzzz zz zzzzzzzzz zzz zzzzzzzzz zzz zz zzz zzzzzzz zzzozzz zzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzzz zzz zzzzzzzz zz zzzzzzzz zzo zzzzzzz zzzo zzzzzzz zz zzz zzzzzzz zzzzz zzzzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz zzz zzzzzzzzzozzz zzz zzzzzzzz zzzz zzzzzzo zz zzzzzzzzzz zzz zzzzzzzzz zzzzzzz zz zzz zozz</t>
-  </si>
-  <si>
-    <t>Zzz ozz zzzzzzzz zzz zzzzzzzzz zz zozzzzz zzz zzzzzzz zzzzzzzoz zzzzzzz zzz zz zzzzoz zzzzz zzzzzzzz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zz zoz zzzzzz zz z zzzzzz zz zzzzzzzzzz zzzz zzzzzz zzzzzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zz zzz zzzo zzz zzzz zzz zz zz zzzozzzzz zzz zz zzz zzzzzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zozzz Zzzz zzozz zzzzz zz zzo zzzzz zzzz zzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzozzzzzz zzzzzzzzz zzzzzzzzz zzzzzz zzzz zzzzzzzzz zz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzzzzzzzz ozzz zzzzzzzz zzzz zzzzzzz zzzz zzzo zz zzz zzzzz zz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zz zzz zzzzzz zzzz zzz zzzoz zzzz ozz zzz zzzzz zzz zzzzzzz zzz zzzozzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz Zzz zzzzzzz zzo zzzzzzzzz zzz zzzz zzzzzzzzzoz zzz zzzzzz zzzz zzzzzzo zz zzzzz ozzzzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzz zzzzz z zzzz zz zzz Zozzzz zzzzzzzzzz zzz zzz zzzz zzzz zzzzzzzzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzz Zzzzzoz zzzzz zzz zzzzzz zzz zzzzzz Zzzzzz zzzzz zzz zzzzzz zzzzz zo zzzzz zzz zzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zz zzz zzzzzzzzzz zzzzzoz zzz zzzo zzzz zzz zzzzzzz zz zzz zzozzzz zzz z zzzz zzzzz zz zzzz zzzzzzz</t>
-  </si>
-  <si>
-    <t>Zz Zzzzo zzzzzzzz zzz zzzzo zzz zzzzzzzz zzzzzzzzzzzzz zzz zzzzzz zzz zzozzzz zzz zz zzo zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>The young author didn't realise that writing her article would cause so much controversy.</t>
-  </si>
-  <si>
-    <t>The residents' peace was disturbed by thousands of visitors who flocked to the town centre.</t>
-  </si>
-  <si>
-    <t>The brave little boy tried to rescue the dog which couldn't get out of the river.</t>
-  </si>
-  <si>
-    <t>To Jane's surprise, the flower somehow managed to survive the blazing heat with very little water.</t>
-  </si>
-  <si>
-    <t>Because the weather was cold and windy, the children weren't allowed to play outside.</t>
-  </si>
-  <si>
-    <t>Zzzzz zzzozzzzzzzz zzzzzz zzz zzzzozz zzzzzzzz zzzz zzz zozzzzz zzz zzzzzzz zzzzz zo zzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzozzz zzzzzzzz zzozzzz zzzzzzz zzzzzzzzz zzozzz zzz zzzzz zzzzz zzzzzz zz ozz zzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zozzz zzzzz zzo zzzzz zzz ozzzzzzzz zzzzz zzzzzzzzzzzzz zzz zzzz zzozzzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzz zzzozz zzzzzzz zzo zzzzzzz zzz zzzzzzo zzzzzz zzzz zzzzzz zzzzzzzzz zzzzzzzzzz zz zozzz</t>
-  </si>
-  <si>
-    <t>Zzz zzo zzzzzz zzzzzzzz ozzzzzz zzzzzzz zzzzzzz zzz zzzozzz z zzzzz zzzzzz zzz zzzozzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zozzzzz zzzzzz zz zzzzzzz zzz zzzzzozz zzzzzz zzzzozzzz zzzzz zzzz zzzzzzz zz zzzzzz zz zoz zzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzz zzz zzzozzzzz zo zzzzzzz zz zzozzzzzzz zzzzzzz zzzzzz zzz zzzzz zzzzz zzzozzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzozzzzz zzzzzzzzz zzzzz zozzz zzzzzzzzz zzzzzz zzz zzzzzz zozz zzzzz zzz zzzz zzzzzzzzz zzz zzzoz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzozzzzz ozz zzzzzzzzzz zzz zzzo zzzz zzzzz zzzzzz zzzzzzz zz zzzzzz zzz zozzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzozz zzzzzzz zzo zzzzzzz zz zzzzzzzzzz zz zzzzoz zzzzz zzzzzzzzzz zzz zzzzzzzzz zozzzzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzz zzz zozzzz zzzoz zzzzzzzzzzz zzz zzzoz zzzzzzzz zzzzz zz zzzzz z zzozzz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzozzz zzz zzzzzzz zz zzzo zzzz zzzzzzzzz zz Zzzzzzzz zzzzzzzzo zzzzzz zzz zzoz zzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzzz zzozzzz zzz ozzzzzzzzzzz zzzz zzzzzzzzz zzzzozz zzzzzzzzz zz zzzzzzzz zzz zzozzz zzzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzzz zzzzzozz zzzzzz zozzzzzzz zzzz zzzzzzzzz zzzzzzz zzzzzzz zoz zzzzz zzz zzzz zzzzz zzz zzozzzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzz zzz zzozzz zzz zozzzz zz zzzzzzz zzz zzzzzzzzzz zz zzzzzoz zzz zzz zzzzzzz zz zzzz zzz zzzozzz zzz</t>
-  </si>
-  <si>
-    <t>Zzz zzzz ozzzzzz zzz zzzzzzzzzzz zoz zzzzzzozzz zzz zzzzzzzzzzzzz zzzz zzzzzzzzzz zz zzz zzzzzzz zzzzzozzzzzzz</t>
-  </si>
-  <si>
-    <t>Zzzzzzzzzz zzzz zzo zzzzzzzzz zzzozz zz oz zzzz zzzzzzzzzzz zzz zzz zzzzz zzozzzzz</t>
   </si>
 </sst>
 </file>
@@ -18832,8 +18832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200F65F-1CAF-461C-A425-17FDB6B8BE4F}">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18900,16 +18900,16 @@
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="S1" s="3" t="s">
-        <v>500</v>
-      </c>
       <c r="T1" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ref="R2:R33" si="8">IF(LEN(B2)=LEN(Q2),1,0)</f>
@@ -19016,13 +19016,13 @@
         <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="J3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L3" t="s">
         <v>187</v>
@@ -19043,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="8"/>
@@ -19098,7 +19098,7 @@
         <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -19116,7 +19116,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="8"/>
@@ -19162,13 +19162,13 @@
         <v>191</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="J5" t="s">
         <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="L5" t="s">
         <v>192</v>
@@ -19189,7 +19189,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="8"/>
@@ -19238,7 +19238,7 @@
         <v>199</v>
       </c>
       <c r="J6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K6" t="s">
         <v>200</v>
@@ -19262,7 +19262,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
@@ -19317,7 +19317,7 @@
         <v>196</v>
       </c>
       <c r="L7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -19335,7 +19335,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
@@ -19408,7 +19408,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
@@ -19481,7 +19481,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
@@ -19501,7 +19501,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -19554,7 +19554,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
@@ -19627,7 +19627,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
@@ -19670,19 +19670,19 @@
         <v>spend</v>
       </c>
       <c r="H12" t="s">
+        <v>500</v>
+      </c>
+      <c r="I12" t="s">
+        <v>502</v>
+      </c>
+      <c r="J12" t="s">
+        <v>504</v>
+      </c>
+      <c r="K12" t="s">
         <v>501</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>503</v>
-      </c>
-      <c r="J12" t="s">
-        <v>505</v>
-      </c>
-      <c r="K12" t="s">
-        <v>502</v>
-      </c>
-      <c r="L12" t="s">
-        <v>504</v>
       </c>
       <c r="M12" s="2">
         <v>3</v>
@@ -19700,7 +19700,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
@@ -19743,16 +19743,16 @@
         <v>earlier</v>
       </c>
       <c r="H13" t="s">
+        <v>505</v>
+      </c>
+      <c r="I13" t="s">
         <v>506</v>
-      </c>
-      <c r="I13" t="s">
-        <v>507</v>
       </c>
       <c r="J13" t="s">
         <v>436</v>
       </c>
       <c r="K13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L13" t="s">
         <v>241</v>
@@ -19773,7 +19773,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
@@ -19828,7 +19828,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
@@ -19883,7 +19883,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
@@ -19938,7 +19938,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
@@ -20048,7 +20048,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
@@ -20103,7 +20103,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
@@ -20158,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
@@ -20213,7 +20213,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
@@ -20268,7 +20268,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
@@ -20323,7 +20323,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
@@ -20378,7 +20378,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
@@ -20653,7 +20653,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
@@ -20673,7 +20673,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
@@ -20763,7 +20763,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
@@ -20812,10 +20812,10 @@
         <v>223</v>
       </c>
       <c r="J32" t="s">
+        <v>557</v>
+      </c>
+      <c r="K32" t="s">
         <v>558</v>
-      </c>
-      <c r="K32" t="s">
-        <v>559</v>
       </c>
       <c r="L32" t="s">
         <v>252</v>
@@ -20836,7 +20836,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
@@ -20882,7 +20882,7 @@
         <v>233</v>
       </c>
       <c r="I33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J33" t="s">
         <v>234</v>
@@ -20909,7 +20909,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
@@ -20982,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="20" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" ref="R34:R65" si="19">IF(LEN(B34)=LEN(Q34),1,0)</f>
@@ -21055,7 +21055,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="19"/>
@@ -21128,7 +21128,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="20" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="19"/>
@@ -21148,7 +21148,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="11"/>
@@ -21201,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="19"/>
@@ -21250,7 +21250,7 @@
         <v>255</v>
       </c>
       <c r="J38" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K38" t="s">
         <v>254</v>
@@ -21274,7 +21274,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="19"/>
@@ -21347,7 +21347,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="19"/>
@@ -21420,7 +21420,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="19"/>
@@ -21493,7 +21493,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="19"/>
@@ -21536,19 +21536,19 @@
         <v>holiday</v>
       </c>
       <c r="H42" t="s">
+        <v>508</v>
+      </c>
+      <c r="I42" t="s">
+        <v>561</v>
+      </c>
+      <c r="J42" t="s">
         <v>509</v>
-      </c>
-      <c r="I42" t="s">
-        <v>562</v>
-      </c>
-      <c r="J42" t="s">
-        <v>510</v>
       </c>
       <c r="K42" t="s">
         <v>373</v>
       </c>
       <c r="L42" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M42" s="2">
         <v>3</v>
@@ -21566,7 +21566,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="19"/>
@@ -21609,19 +21609,19 @@
         <v>concern</v>
       </c>
       <c r="H43" t="s">
+        <v>511</v>
+      </c>
+      <c r="I43" t="s">
+        <v>513</v>
+      </c>
+      <c r="J43" t="s">
+        <v>562</v>
+      </c>
+      <c r="K43" t="s">
+        <v>514</v>
+      </c>
+      <c r="L43" t="s">
         <v>512</v>
-      </c>
-      <c r="I43" t="s">
-        <v>514</v>
-      </c>
-      <c r="J43" t="s">
-        <v>563</v>
-      </c>
-      <c r="K43" t="s">
-        <v>515</v>
-      </c>
-      <c r="L43" t="s">
-        <v>513</v>
       </c>
       <c r="M43" s="2">
         <v>4</v>
@@ -21639,7 +21639,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="19"/>
@@ -21694,7 +21694,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="20" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="19"/>
@@ -21749,7 +21749,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="19"/>
@@ -21804,7 +21804,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="19"/>
@@ -21859,7 +21859,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="19"/>
@@ -21914,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="20" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="19"/>
@@ -21969,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="19"/>
@@ -22024,7 +22024,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="20" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="19"/>
@@ -22079,7 +22079,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="19"/>
@@ -22134,7 +22134,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="20" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="19"/>
@@ -22189,7 +22189,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="19"/>
@@ -22209,7 +22209,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>493</v>
+        <v>782</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="11"/>
@@ -22233,7 +22233,7 @@
       </c>
       <c r="N54" s="1">
         <f t="shared" si="16"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O54" s="1">
         <f t="shared" si="17"/>
@@ -22244,11 +22244,11 @@
         <v>0</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" si="9"/>
@@ -22299,7 +22299,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="19"/>
@@ -22354,7 +22354,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="19"/>
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="19"/>
@@ -22429,7 +22429,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="11"/>
@@ -22464,7 +22464,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="19"/>
@@ -22519,7 +22519,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="19"/>
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="19"/>
@@ -22629,7 +22629,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="19"/>
@@ -22702,7 +22702,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="19"/>
@@ -22775,7 +22775,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="19"/>
@@ -22821,7 +22821,7 @@
         <v>278</v>
       </c>
       <c r="I64" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J64" t="s">
         <v>281</v>
@@ -22848,7 +22848,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="19"/>
@@ -22921,7 +22921,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="19"/>
@@ -22994,7 +22994,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" ref="R66:R97" si="28">IF(LEN(B66)=LEN(Q66),1,0)</f>
@@ -23040,7 +23040,7 @@
         <v>294</v>
       </c>
       <c r="I67" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J67" t="s">
         <v>295</v>
@@ -23067,7 +23067,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="28"/>
@@ -23140,7 +23140,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="20" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="28"/>
@@ -23213,7 +23213,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="28"/>
@@ -23265,7 +23265,7 @@
         <v>309</v>
       </c>
       <c r="K70" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L70" t="s">
         <v>310</v>
@@ -23286,7 +23286,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="28"/>
@@ -23359,7 +23359,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="28"/>
@@ -23402,16 +23402,16 @@
         <v>place</v>
       </c>
       <c r="H72" t="s">
+        <v>515</v>
+      </c>
+      <c r="I72" t="s">
+        <v>517</v>
+      </c>
+      <c r="J72" t="s">
+        <v>518</v>
+      </c>
+      <c r="K72" t="s">
         <v>516</v>
-      </c>
-      <c r="I72" t="s">
-        <v>518</v>
-      </c>
-      <c r="J72" t="s">
-        <v>519</v>
-      </c>
-      <c r="K72" t="s">
-        <v>517</v>
       </c>
       <c r="L72" t="s">
         <v>240</v>
@@ -23432,7 +23432,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="28"/>
@@ -23475,19 +23475,19 @@
         <v>time</v>
       </c>
       <c r="H73" t="s">
+        <v>519</v>
+      </c>
+      <c r="I73" t="s">
+        <v>522</v>
+      </c>
+      <c r="J73" t="s">
+        <v>521</v>
+      </c>
+      <c r="K73" t="s">
+        <v>523</v>
+      </c>
+      <c r="L73" t="s">
         <v>520</v>
-      </c>
-      <c r="I73" t="s">
-        <v>523</v>
-      </c>
-      <c r="J73" t="s">
-        <v>522</v>
-      </c>
-      <c r="K73" t="s">
-        <v>524</v>
-      </c>
-      <c r="L73" t="s">
-        <v>521</v>
       </c>
       <c r="M73" s="2">
         <v>4</v>
@@ -23505,7 +23505,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="28"/>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="28"/>
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="28"/>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="28"/>
@@ -23690,7 +23690,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="20"/>
@@ -23725,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="28"/>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="28"/>
@@ -23835,7 +23835,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="28"/>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="28"/>
@@ -23945,7 +23945,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="21" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="28"/>
@@ -24000,7 +24000,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="28"/>
@@ -24055,7 +24055,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="28"/>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="28"/>
@@ -24165,7 +24165,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="28"/>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="28"/>
@@ -24275,7 +24275,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="28"/>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="28"/>
@@ -24385,7 +24385,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="28"/>
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="28"/>
@@ -24495,7 +24495,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="28"/>
@@ -24568,7 +24568,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="20" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="28"/>
@@ -24641,7 +24641,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="28"/>
@@ -24714,7 +24714,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="28"/>
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="21" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="28"/>
@@ -24860,7 +24860,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="28"/>
@@ -24933,7 +24933,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="28"/>
@@ -24988,7 +24988,7 @@
         <v>385</v>
       </c>
       <c r="L98" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M98" s="2">
         <v>1</v>
@@ -25006,7 +25006,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" ref="R98:R129" si="39">IF(LEN(B98)=LEN(Q98),1,0)</f>
@@ -25052,16 +25052,16 @@
         <v>386</v>
       </c>
       <c r="I99" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J99" t="s">
         <v>387</v>
       </c>
       <c r="K99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L99" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M99" s="2">
         <v>2</v>
@@ -25079,7 +25079,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="21" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="39"/>
@@ -25152,7 +25152,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="39"/>
@@ -25225,7 +25225,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="21" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="39"/>
@@ -25268,16 +25268,16 @@
         <v>demonstrators</v>
       </c>
       <c r="H102" t="s">
+        <v>524</v>
+      </c>
+      <c r="I102" t="s">
         <v>525</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
         <v>526</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>527</v>
-      </c>
-      <c r="K102" t="s">
-        <v>528</v>
       </c>
       <c r="L102" t="s">
         <v>396</v>
@@ -25298,7 +25298,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="39"/>
@@ -25341,19 +25341,19 @@
         <v>camp</v>
       </c>
       <c r="H103" t="s">
+        <v>528</v>
+      </c>
+      <c r="I103" t="s">
         <v>529</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
+        <v>532</v>
+      </c>
+      <c r="K103" t="s">
         <v>530</v>
       </c>
-      <c r="J103" t="s">
-        <v>533</v>
-      </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>531</v>
-      </c>
-      <c r="L103" t="s">
-        <v>532</v>
       </c>
       <c r="M103" s="2">
         <v>2</v>
@@ -25371,7 +25371,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="21" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="39"/>
@@ -25426,7 +25426,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="20" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="39"/>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="21" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="39"/>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Q106" s="20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="39"/>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="39"/>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="39"/>
@@ -25701,7 +25701,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="21" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="39"/>
@@ -25756,7 +25756,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="39"/>
@@ -25811,7 +25811,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="39"/>
@@ -25866,7 +25866,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R112" s="2">
         <f t="shared" si="39"/>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="Q113" s="21" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="R113" s="2">
         <f t="shared" si="39"/>
@@ -25976,7 +25976,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="R114" s="2">
         <f t="shared" si="39"/>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="Q115" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="R115" s="2">
         <f t="shared" si="39"/>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="R116" s="2">
         <f t="shared" si="39"/>
@@ -26141,7 +26141,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R117" s="2">
         <f t="shared" si="39"/>
@@ -26196,7 +26196,7 @@
         <v>0</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="R118" s="2">
         <f t="shared" si="39"/>
@@ -26251,7 +26251,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="R119" s="2">
         <f t="shared" si="39"/>
@@ -26306,7 +26306,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="R120" s="2">
         <f t="shared" si="39"/>
@@ -26361,7 +26361,7 @@
         <v>0</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="R121" s="2">
         <f t="shared" si="39"/>
@@ -26381,7 +26381,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="31"/>
@@ -26434,7 +26434,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R122" s="2">
         <f t="shared" si="39"/>
@@ -26480,13 +26480,13 @@
         <v>402</v>
       </c>
       <c r="I123" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J123" t="s">
         <v>403</v>
       </c>
       <c r="K123" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L123" t="s">
         <v>404</v>
@@ -26507,7 +26507,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R123" s="2">
         <f t="shared" si="39"/>
@@ -26527,7 +26527,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="31"/>
@@ -26580,7 +26580,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="R124" s="2">
         <f t="shared" si="39"/>
@@ -26653,7 +26653,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R125" s="2">
         <f t="shared" si="39"/>
@@ -26708,7 +26708,7 @@
         <v>417</v>
       </c>
       <c r="L126" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M126" s="2">
         <v>1</v>
@@ -26726,7 +26726,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="20" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="R126" s="2">
         <f t="shared" si="39"/>
@@ -26775,7 +26775,7 @@
         <v>419</v>
       </c>
       <c r="J127" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K127" t="s">
         <v>420</v>
@@ -26799,7 +26799,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="21" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="R127" s="2">
         <f t="shared" si="39"/>
@@ -26872,7 +26872,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="R128" s="2">
         <f t="shared" si="39"/>
@@ -26918,7 +26918,7 @@
         <v>427</v>
       </c>
       <c r="I129" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="J129" t="s">
         <v>429</v>
@@ -26945,7 +26945,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="21" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="R129" s="2">
         <f t="shared" si="39"/>
@@ -26997,7 +26997,7 @@
         <v>432</v>
       </c>
       <c r="K130" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L130" t="s">
         <v>434</v>
@@ -27018,7 +27018,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="R130" s="2">
         <f t="shared" ref="R130:R161" si="48">IF(LEN(B130)=LEN(Q130),1,0)</f>
@@ -27091,7 +27091,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="R131" s="2">
         <f t="shared" si="48"/>
@@ -27134,19 +27134,19 @@
         <v>countries</v>
       </c>
       <c r="H132" t="s">
+        <v>533</v>
+      </c>
+      <c r="I132" t="s">
+        <v>535</v>
+      </c>
+      <c r="J132" t="s">
+        <v>536</v>
+      </c>
+      <c r="K132" t="s">
         <v>534</v>
       </c>
-      <c r="I132" t="s">
-        <v>536</v>
-      </c>
-      <c r="J132" t="s">
+      <c r="L132" t="s">
         <v>537</v>
-      </c>
-      <c r="K132" t="s">
-        <v>535</v>
-      </c>
-      <c r="L132" t="s">
-        <v>538</v>
       </c>
       <c r="M132" s="2">
         <v>3</v>
@@ -27164,7 +27164,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R132" s="2">
         <f t="shared" si="48"/>
@@ -27207,19 +27207,19 @@
         <v>appointment</v>
       </c>
       <c r="H133" t="s">
+        <v>538</v>
+      </c>
+      <c r="I133" t="s">
+        <v>576</v>
+      </c>
+      <c r="J133" t="s">
+        <v>541</v>
+      </c>
+      <c r="K133" t="s">
+        <v>540</v>
+      </c>
+      <c r="L133" t="s">
         <v>539</v>
-      </c>
-      <c r="I133" t="s">
-        <v>577</v>
-      </c>
-      <c r="J133" t="s">
-        <v>542</v>
-      </c>
-      <c r="K133" t="s">
-        <v>541</v>
-      </c>
-      <c r="L133" t="s">
-        <v>540</v>
       </c>
       <c r="M133" s="2">
         <v>4</v>
@@ -27237,7 +27237,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="R133" s="2">
         <f t="shared" si="48"/>
@@ -27292,7 +27292,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="R134" s="2">
         <f t="shared" si="48"/>
@@ -27347,7 +27347,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R135" s="2">
         <f t="shared" si="48"/>
@@ -27367,7 +27367,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="40"/>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="R136" s="2">
         <f t="shared" si="48"/>
@@ -27457,7 +27457,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="R137" s="2">
         <f t="shared" si="48"/>
@@ -27512,7 +27512,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R138" s="2">
         <f t="shared" si="48"/>
@@ -27567,7 +27567,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R139" s="2">
         <f t="shared" si="48"/>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="20" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="R140" s="2">
         <f t="shared" si="48"/>
@@ -27677,7 +27677,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="R141" s="2">
         <f t="shared" si="48"/>
@@ -27732,7 +27732,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="20" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="R142" s="2">
         <f t="shared" si="48"/>
@@ -27787,7 +27787,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="21" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="R143" s="2">
         <f t="shared" si="48"/>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="R144" s="2">
         <f t="shared" si="48"/>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="21" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="R145" s="2">
         <f t="shared" si="48"/>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="R146" s="2">
         <f t="shared" si="48"/>
@@ -28007,7 +28007,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="21" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R147" s="2">
         <f t="shared" si="48"/>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R148" s="2">
         <f t="shared" si="48"/>
@@ -28117,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="Q149" s="21" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R149" s="2">
         <f t="shared" si="48"/>
@@ -28172,7 +28172,7 @@
         <v>0</v>
       </c>
       <c r="Q150" s="20" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R150" s="2">
         <f t="shared" si="48"/>
@@ -28227,7 +28227,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="21" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R151" s="2">
         <f t="shared" si="48"/>
@@ -28300,7 +28300,7 @@
         <v>1</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R152" s="2">
         <f t="shared" si="48"/>
@@ -28355,7 +28355,7 @@
         <v>445</v>
       </c>
       <c r="L153" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M153" s="2">
         <v>4</v>
@@ -28373,7 +28373,7 @@
         <v>1</v>
       </c>
       <c r="Q153" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="R153" s="2">
         <f t="shared" si="48"/>
@@ -28446,7 +28446,7 @@
         <v>1</v>
       </c>
       <c r="Q154" s="20" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="R154" s="2">
         <f t="shared" si="48"/>
@@ -28519,7 +28519,7 @@
         <v>1</v>
       </c>
       <c r="Q155" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="R155" s="2">
         <f t="shared" si="48"/>
@@ -28592,7 +28592,7 @@
         <v>1</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="R156" s="2">
         <f t="shared" si="48"/>
@@ -28665,7 +28665,7 @@
         <v>1</v>
       </c>
       <c r="Q157" s="21" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="R157" s="2">
         <f t="shared" si="48"/>
@@ -28714,10 +28714,10 @@
         <v>468</v>
       </c>
       <c r="J158" t="s">
+        <v>580</v>
+      </c>
+      <c r="K158" t="s">
         <v>581</v>
-      </c>
-      <c r="K158" t="s">
-        <v>582</v>
       </c>
       <c r="L158" t="s">
         <v>469</v>
@@ -28738,7 +28738,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="20" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="R158" s="2">
         <f t="shared" si="48"/>
@@ -28811,7 +28811,7 @@
         <v>1</v>
       </c>
       <c r="Q159" s="21" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R159" s="2">
         <f t="shared" si="48"/>
@@ -28884,7 +28884,7 @@
         <v>1</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="R160" s="2">
         <f t="shared" si="48"/>
@@ -28957,7 +28957,7 @@
         <v>1</v>
       </c>
       <c r="Q161" s="21" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="R161" s="2">
         <f t="shared" si="48"/>
@@ -29000,19 +29000,19 @@
         <v>looking</v>
       </c>
       <c r="H162" t="s">
+        <v>542</v>
+      </c>
+      <c r="I162" t="s">
         <v>543</v>
       </c>
-      <c r="I162" t="s">
+      <c r="J162" t="s">
         <v>544</v>
       </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>545</v>
       </c>
-      <c r="K162" t="s">
+      <c r="L162" t="s">
         <v>546</v>
-      </c>
-      <c r="L162" t="s">
-        <v>547</v>
       </c>
       <c r="M162" s="2">
         <v>1</v>
@@ -29030,7 +29030,7 @@
         <v>1</v>
       </c>
       <c r="Q162" s="20" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="R162" s="2">
         <f t="shared" ref="R162:R193" si="59">IF(LEN(B162)=LEN(Q162),1,0)</f>
@@ -29073,19 +29073,19 @@
         <v>previous</v>
       </c>
       <c r="H163" t="s">
+        <v>547</v>
+      </c>
+      <c r="I163" t="s">
+        <v>549</v>
+      </c>
+      <c r="J163" t="s">
+        <v>578</v>
+      </c>
+      <c r="K163" t="s">
+        <v>579</v>
+      </c>
+      <c r="L163" t="s">
         <v>548</v>
-      </c>
-      <c r="I163" t="s">
-        <v>550</v>
-      </c>
-      <c r="J163" t="s">
-        <v>579</v>
-      </c>
-      <c r="K163" t="s">
-        <v>580</v>
-      </c>
-      <c r="L163" t="s">
-        <v>549</v>
       </c>
       <c r="M163" s="2">
         <v>2</v>
@@ -29103,7 +29103,7 @@
         <v>1</v>
       </c>
       <c r="Q163" s="21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="R163" s="2">
         <f t="shared" si="59"/>
@@ -29158,7 +29158,7 @@
         <v>0</v>
       </c>
       <c r="Q164" s="20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="R164" s="2">
         <f t="shared" si="59"/>
@@ -29213,7 +29213,7 @@
         <v>0</v>
       </c>
       <c r="Q165" s="21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="R165" s="2">
         <f t="shared" si="59"/>
@@ -29268,7 +29268,7 @@
         <v>0</v>
       </c>
       <c r="Q166" s="20" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="R166" s="2">
         <f t="shared" si="59"/>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="21" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="R167" s="2">
         <f t="shared" si="59"/>
@@ -29378,7 +29378,7 @@
         <v>0</v>
       </c>
       <c r="Q168" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="R168" s="2">
         <f t="shared" si="59"/>
@@ -29398,7 +29398,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C169" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29433,7 +29433,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="R169" s="2">
         <f t="shared" si="59"/>
@@ -29488,7 +29488,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="20" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="R170" s="2">
         <f t="shared" si="59"/>
@@ -29543,7 +29543,7 @@
         <v>0</v>
       </c>
       <c r="Q171" s="21" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="R171" s="2">
         <f t="shared" si="59"/>
@@ -29598,7 +29598,7 @@
         <v>0</v>
       </c>
       <c r="Q172" s="20" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="R172" s="2">
         <f t="shared" si="59"/>
@@ -29653,7 +29653,7 @@
         <v>0</v>
       </c>
       <c r="Q173" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="R173" s="2">
         <f t="shared" si="59"/>
@@ -29708,7 +29708,7 @@
         <v>0</v>
       </c>
       <c r="Q174" s="20" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="R174" s="2">
         <f t="shared" si="59"/>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="Q175" s="21" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="R175" s="2">
         <f t="shared" si="59"/>
@@ -29818,7 +29818,7 @@
         <v>0</v>
       </c>
       <c r="Q176" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="R176" s="2">
         <f t="shared" si="59"/>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="Q177" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R177" s="2">
         <f t="shared" si="59"/>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="Q178" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="R178" s="2">
         <f t="shared" si="59"/>
@@ -29983,7 +29983,7 @@
         <v>0</v>
       </c>
       <c r="Q179" s="21" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="R179" s="2">
         <f t="shared" si="59"/>
@@ -30038,7 +30038,7 @@
         <v>0</v>
       </c>
       <c r="Q180" s="20" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="R180" s="2">
         <f t="shared" si="59"/>
@@ -30093,7 +30093,7 @@
         <v>0</v>
       </c>
       <c r="Q181" s="21" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="R181" s="2">
         <f t="shared" si="59"/>
@@ -30166,7 +30166,7 @@
         <v>1</v>
       </c>
       <c r="Q182" s="20" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="R182" s="2">
         <f t="shared" si="59"/>
@@ -30239,7 +30239,7 @@
         <v>1</v>
       </c>
       <c r="Q183" s="21" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="R183" s="2">
         <f t="shared" si="59"/>
@@ -30288,7 +30288,7 @@
         <v>196</v>
       </c>
       <c r="J184" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K184" t="s">
         <v>337</v>
@@ -30312,7 +30312,7 @@
         <v>1</v>
       </c>
       <c r="Q184" s="20" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="R184" s="2">
         <f t="shared" si="59"/>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Q185" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R185" s="2">
         <f t="shared" si="59"/>
@@ -30424,7 +30424,7 @@
         <v>0</v>
       </c>
       <c r="Q186" s="20" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="R186" s="2">
         <f t="shared" si="59"/>
@@ -30480,7 +30480,7 @@
         <v>0</v>
       </c>
       <c r="Q187" s="21" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="R187" s="2">
         <f t="shared" si="59"/>
@@ -30553,7 +30553,7 @@
         <v>1</v>
       </c>
       <c r="Q188" s="20" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="R188" s="2">
         <f t="shared" si="59"/>
@@ -30626,7 +30626,7 @@
         <v>1</v>
       </c>
       <c r="Q189" s="21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="R189" s="2">
         <f t="shared" si="59"/>
@@ -30699,7 +30699,7 @@
         <v>1</v>
       </c>
       <c r="Q190" s="20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="R190" s="2">
         <f t="shared" si="59"/>
@@ -30755,7 +30755,7 @@
         <v>0</v>
       </c>
       <c r="Q191" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="R191" s="2">
         <f t="shared" si="59"/>
@@ -30811,7 +30811,7 @@
         <v>0</v>
       </c>
       <c r="Q192" s="20" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="R192" s="2">
         <f t="shared" si="59"/>
@@ -30866,7 +30866,7 @@
         <v>0</v>
       </c>
       <c r="Q193" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="R193" s="2">
         <f t="shared" si="59"/>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1F4E97-EF79-4340-85C6-78BB72ECEB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C3630-0C82-4C7E-A689-B66EA6B869CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="785">
   <si>
     <t>Sentence</t>
   </si>
@@ -15678,9 +15678,6 @@
     <t>her name</t>
   </si>
   <si>
-    <t>her age</t>
-  </si>
-  <si>
     <t>What did Cathy give?</t>
   </si>
   <si>
@@ -15720,9 +15717,6 @@
     <t>call his wife</t>
   </si>
   <si>
-    <t>eat fruits</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">The editorial </t>
     </r>
@@ -16495,9 +16489,6 @@
     <t>feed her cat</t>
   </si>
   <si>
-    <t>take a holiday</t>
-  </si>
-  <si>
     <t>What did the children do?</t>
   </si>
   <si>
@@ -16618,9 +16609,6 @@
     <t>a new comet</t>
   </si>
   <si>
-    <t>a new ice-cream</t>
-  </si>
-  <si>
     <t>What was discovered?</t>
   </si>
   <si>
@@ -16684,9 +16672,6 @@
     <t>tax evasion</t>
   </si>
   <si>
-    <t>harassment</t>
-  </si>
-  <si>
     <t>poor hygiene</t>
   </si>
   <si>
@@ -16750,9 +16735,6 @@
     <t>shop for free</t>
   </si>
   <si>
-    <t>wash her car</t>
-  </si>
-  <si>
     <t>clean her house</t>
   </si>
   <si>
@@ -17533,9 +17515,6 @@
     <t>a solar eclipse</t>
   </si>
   <si>
-    <t>a flock of birds</t>
-  </si>
-  <si>
     <t>a tsunami</t>
   </si>
   <si>
@@ -17587,9 +17566,6 @@
     <t>drinking water</t>
   </si>
   <si>
-    <t>her memory</t>
-  </si>
-  <si>
     <t>a tomato</t>
   </si>
   <si>
@@ -17620,9 +17596,6 @@
     <t>more rain</t>
   </si>
   <si>
-    <t>his will</t>
-  </si>
-  <si>
     <t>a safari</t>
   </si>
   <si>
@@ -17653,9 +17626,6 @@
     <t>smoking</t>
   </si>
   <si>
-    <t>to the Queen</t>
-  </si>
-  <si>
     <t>the thief</t>
   </si>
   <si>
@@ -18362,6 +18332,42 @@
       </rPr>
       <t xml:space="preserve"> it difficult to reach.</t>
     </r>
+  </si>
+  <si>
+    <t>her jeans</t>
+  </si>
+  <si>
+    <t>the nurses</t>
+  </si>
+  <si>
+    <t>a poem</t>
+  </si>
+  <si>
+    <t>sell gold</t>
+  </si>
+  <si>
+    <t>an illness</t>
+  </si>
+  <si>
+    <t>wash the patient</t>
+  </si>
+  <si>
+    <t>a new galaxy</t>
+  </si>
+  <si>
+    <t>give a sermon</t>
+  </si>
+  <si>
+    <t>short songs</t>
+  </si>
+  <si>
+    <t>to piano lessons</t>
+  </si>
+  <si>
+    <t>leaking secrets</t>
+  </si>
+  <si>
+    <t>a lunar eclipse</t>
   </si>
 </sst>
 </file>
@@ -18531,7 +18537,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -18832,11 +18838,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200F65F-1CAF-461C-A425-17FDB6B8BE4F}">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="E120" workbookViewId="0">
+      <selection activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
     <col min="2" max="2" width="113.33203125" style="5" customWidth="1"/>
@@ -18900,16 +18906,16 @@
         <v>5</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
@@ -18970,7 +18976,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ref="R2:R33" si="8">IF(LEN(B2)=LEN(Q2),1,0)</f>
@@ -19016,13 +19022,13 @@
         <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="J3" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="K3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L3" t="s">
         <v>187</v>
@@ -19043,7 +19049,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" si="8"/>
@@ -19098,7 +19104,7 @@
         <v>190</v>
       </c>
       <c r="L4" t="s">
-        <v>553</v>
+        <v>773</v>
       </c>
       <c r="M4" s="2">
         <v>3</v>
@@ -19116,7 +19122,7 @@
         <v>1</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" si="8"/>
@@ -19162,13 +19168,13 @@
         <v>191</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J5" t="s">
         <v>193</v>
       </c>
       <c r="K5" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="L5" t="s">
         <v>192</v>
@@ -19189,7 +19195,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" si="8"/>
@@ -19238,7 +19244,7 @@
         <v>199</v>
       </c>
       <c r="J6" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="K6" t="s">
         <v>200</v>
@@ -19262,7 +19268,7 @@
         <v>1</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" si="8"/>
@@ -19317,7 +19323,7 @@
         <v>196</v>
       </c>
       <c r="L7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -19335,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="R7" s="2">
         <f t="shared" si="8"/>
@@ -19381,7 +19387,7 @@
         <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>196</v>
+        <v>774</v>
       </c>
       <c r="J8" t="s">
         <v>205</v>
@@ -19408,7 +19414,7 @@
         <v>1</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" si="8"/>
@@ -19481,7 +19487,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" si="8"/>
@@ -19501,7 +19507,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="C10" s="9" t="str">
         <f t="shared" si="0"/>
@@ -19527,13 +19533,13 @@
         <v>212</v>
       </c>
       <c r="I10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K10" t="s">
-        <v>214</v>
+        <v>775</v>
       </c>
       <c r="L10" t="s">
         <v>213</v>
@@ -19554,7 +19560,7 @@
         <v>1</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" si="8"/>
@@ -19597,19 +19603,19 @@
         <v>panel</v>
       </c>
       <c r="H11" t="s">
+        <v>214</v>
+      </c>
+      <c r="I11" t="s">
+        <v>218</v>
+      </c>
+      <c r="J11" t="s">
+        <v>220</v>
+      </c>
+      <c r="K11" t="s">
         <v>215</v>
       </c>
-      <c r="I11" t="s">
-        <v>219</v>
-      </c>
-      <c r="J11" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>216</v>
-      </c>
-      <c r="L11" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="2">
         <v>2</v>
@@ -19627,7 +19633,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="21" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" si="8"/>
@@ -19670,19 +19676,19 @@
         <v>spend</v>
       </c>
       <c r="H12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="I12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="J12" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="L12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M12" s="2">
         <v>3</v>
@@ -19700,7 +19706,7 @@
         <v>1</v>
       </c>
       <c r="Q12" s="20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" si="8"/>
@@ -19743,19 +19749,19 @@
         <v>earlier</v>
       </c>
       <c r="H13" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="I13" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J13" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K13" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M13" s="2">
         <v>4</v>
@@ -19773,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" si="8"/>
@@ -19828,7 +19834,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="20" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" si="8"/>
@@ -19883,7 +19889,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="8"/>
@@ -19938,7 +19944,7 @@
         <v>0</v>
       </c>
       <c r="Q16" s="20" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" si="8"/>
@@ -19993,7 +19999,7 @@
         <v>0</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" si="8"/>
@@ -20048,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="8"/>
@@ -20103,7 +20109,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" si="8"/>
@@ -20158,7 +20164,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="20" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" si="8"/>
@@ -20213,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" si="8"/>
@@ -20268,7 +20274,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="20" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" si="8"/>
@@ -20323,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="21" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" si="8"/>
@@ -20378,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="20" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" si="8"/>
@@ -20433,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" si="8"/>
@@ -20488,7 +20494,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" si="8"/>
@@ -20543,7 +20549,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" si="8"/>
@@ -20598,7 +20604,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="20" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" si="8"/>
@@ -20653,7 +20659,7 @@
         <v>0</v>
       </c>
       <c r="Q29" s="21" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" si="8"/>
@@ -20673,7 +20679,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="C30" s="9" t="str">
         <f t="shared" si="0"/>
@@ -20708,7 +20714,7 @@
         <v>0</v>
       </c>
       <c r="Q30" s="20" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" si="8"/>
@@ -20763,7 +20769,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="21" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" si="8"/>
@@ -20806,19 +20812,19 @@
         <v>connection</v>
       </c>
       <c r="H32" t="s">
+        <v>221</v>
+      </c>
+      <c r="I32" t="s">
         <v>222</v>
       </c>
-      <c r="I32" t="s">
-        <v>223</v>
-      </c>
       <c r="J32" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="K32" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="L32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -20836,7 +20842,7 @@
         <v>1</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="R32" s="2">
         <f t="shared" si="8"/>
@@ -20879,19 +20885,19 @@
         <v>spacious</v>
       </c>
       <c r="H33" t="s">
+        <v>231</v>
+      </c>
+      <c r="I33" t="s">
+        <v>551</v>
+      </c>
+      <c r="J33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s">
+        <v>234</v>
+      </c>
+      <c r="L33" t="s">
         <v>233</v>
-      </c>
-      <c r="I33" t="s">
-        <v>559</v>
-      </c>
-      <c r="J33" t="s">
-        <v>234</v>
-      </c>
-      <c r="K33" t="s">
-        <v>236</v>
-      </c>
-      <c r="L33" t="s">
-        <v>235</v>
       </c>
       <c r="M33" s="2">
         <v>2</v>
@@ -20909,7 +20915,7 @@
         <v>1</v>
       </c>
       <c r="Q33" s="21" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="R33" s="2">
         <f t="shared" si="8"/>
@@ -20952,19 +20958,19 @@
         <v>financial</v>
       </c>
       <c r="H34" t="s">
+        <v>223</v>
+      </c>
+      <c r="I34" t="s">
+        <v>776</v>
+      </c>
+      <c r="J34" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" t="s">
         <v>224</v>
       </c>
-      <c r="I34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>226</v>
-      </c>
-      <c r="K34" t="s">
-        <v>225</v>
-      </c>
-      <c r="L34" t="s">
-        <v>227</v>
       </c>
       <c r="M34" s="2">
         <v>3</v>
@@ -20982,7 +20988,7 @@
         <v>1</v>
       </c>
       <c r="Q34" s="20" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="R34" s="2">
         <f t="shared" ref="R34:R65" si="19">IF(LEN(B34)=LEN(Q34),1,0)</f>
@@ -21025,19 +21031,19 @@
         <v>ruin</v>
       </c>
       <c r="H35" t="s">
+        <v>235</v>
+      </c>
+      <c r="I35" t="s">
         <v>237</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>777</v>
+      </c>
+      <c r="K35" t="s">
         <v>239</v>
       </c>
-      <c r="J35" t="s">
-        <v>240</v>
-      </c>
-      <c r="K35" t="s">
-        <v>241</v>
-      </c>
       <c r="L35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M35" s="2">
         <v>4</v>
@@ -21055,7 +21061,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="21" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="R35" s="2">
         <f t="shared" si="19"/>
@@ -21098,19 +21104,19 @@
         <v>retire</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J36" t="s">
+        <v>241</v>
+      </c>
+      <c r="K36" t="s">
         <v>242</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>243</v>
-      </c>
-      <c r="K36" t="s">
-        <v>244</v>
-      </c>
-      <c r="L36" t="s">
-        <v>245</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
@@ -21128,7 +21134,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="20" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="R36" s="2">
         <f t="shared" si="19"/>
@@ -21148,7 +21154,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C37" s="9" t="str">
         <f t="shared" si="11"/>
@@ -21171,19 +21177,19 @@
         <v>couldn't</v>
       </c>
       <c r="H37" t="s">
+        <v>245</v>
+      </c>
+      <c r="I37" t="s">
+        <v>248</v>
+      </c>
+      <c r="J37" t="s">
+        <v>246</v>
+      </c>
+      <c r="K37" t="s">
         <v>247</v>
       </c>
-      <c r="I37" t="s">
-        <v>250</v>
-      </c>
-      <c r="J37" t="s">
-        <v>248</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>249</v>
-      </c>
-      <c r="L37" t="s">
-        <v>251</v>
       </c>
       <c r="M37" s="2">
         <v>2</v>
@@ -21201,7 +21207,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="R37" s="2">
         <f t="shared" si="19"/>
@@ -21244,19 +21250,19 @@
         <v>replace</v>
       </c>
       <c r="H38" t="s">
+        <v>251</v>
+      </c>
+      <c r="I38" t="s">
         <v>253</v>
       </c>
-      <c r="I38" t="s">
-        <v>255</v>
-      </c>
       <c r="J38" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="K38" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" t="s">
         <v>254</v>
-      </c>
-      <c r="L38" t="s">
-        <v>256</v>
       </c>
       <c r="M38" s="2">
         <v>3</v>
@@ -21274,7 +21280,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="20" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="R38" s="2">
         <f t="shared" si="19"/>
@@ -21317,19 +21323,19 @@
         <v>salsa</v>
       </c>
       <c r="H39" t="s">
+        <v>255</v>
+      </c>
+      <c r="I39" t="s">
+        <v>482</v>
+      </c>
+      <c r="J39" t="s">
         <v>257</v>
       </c>
-      <c r="I39" t="s">
-        <v>488</v>
-      </c>
-      <c r="J39" t="s">
-        <v>259</v>
-      </c>
       <c r="K39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M39" s="2">
         <v>4</v>
@@ -21347,7 +21353,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="21" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="R39" s="2">
         <f t="shared" si="19"/>
@@ -21390,19 +21396,19 @@
         <v>detected</v>
       </c>
       <c r="H40" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="I40" t="s">
+        <v>259</v>
+      </c>
+      <c r="J40" t="s">
+        <v>260</v>
+      </c>
+      <c r="K40" t="s">
         <v>261</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>262</v>
-      </c>
-      <c r="K40" t="s">
-        <v>263</v>
-      </c>
-      <c r="L40" t="s">
-        <v>264</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -21420,7 +21426,7 @@
         <v>1</v>
       </c>
       <c r="Q40" s="20" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="R40" s="2">
         <f t="shared" si="19"/>
@@ -21463,19 +21469,19 @@
         <v>during</v>
       </c>
       <c r="H41" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J41" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s">
+        <v>266</v>
+      </c>
+      <c r="L41" t="s">
         <v>265</v>
-      </c>
-      <c r="I41" t="s">
-        <v>269</v>
-      </c>
-      <c r="J41" t="s">
-        <v>266</v>
-      </c>
-      <c r="K41" t="s">
-        <v>268</v>
-      </c>
-      <c r="L41" t="s">
-        <v>267</v>
       </c>
       <c r="M41" s="2">
         <v>2</v>
@@ -21493,7 +21499,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="R41" s="2">
         <f t="shared" si="19"/>
@@ -21536,19 +21542,19 @@
         <v>holiday</v>
       </c>
       <c r="H42" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="I42" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="J42" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="K42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L42" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="M42" s="2">
         <v>3</v>
@@ -21566,7 +21572,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="20" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="R42" s="2">
         <f t="shared" si="19"/>
@@ -21609,19 +21615,19 @@
         <v>concern</v>
       </c>
       <c r="H43" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="I43" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="J43" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K43" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="L43" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M43" s="2">
         <v>4</v>
@@ -21639,7 +21645,7 @@
         <v>1</v>
       </c>
       <c r="Q43" s="21" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="R43" s="2">
         <f t="shared" si="19"/>
@@ -21694,7 +21700,7 @@
         <v>0</v>
       </c>
       <c r="Q44" s="20" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="R44" s="2">
         <f t="shared" si="19"/>
@@ -21749,7 +21755,7 @@
         <v>0</v>
       </c>
       <c r="Q45" s="21" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="R45" s="2">
         <f t="shared" si="19"/>
@@ -21804,7 +21810,7 @@
         <v>0</v>
       </c>
       <c r="Q46" s="20" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="R46" s="2">
         <f t="shared" si="19"/>
@@ -21859,7 +21865,7 @@
         <v>0</v>
       </c>
       <c r="Q47" s="21" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="R47" s="2">
         <f t="shared" si="19"/>
@@ -21914,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="20" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="R48" s="2">
         <f t="shared" si="19"/>
@@ -21969,7 +21975,7 @@
         <v>0</v>
       </c>
       <c r="Q49" s="21" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="R49" s="2">
         <f t="shared" si="19"/>
@@ -22024,7 +22030,7 @@
         <v>0</v>
       </c>
       <c r="Q50" s="20" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="R50" s="2">
         <f t="shared" si="19"/>
@@ -22079,7 +22085,7 @@
         <v>0</v>
       </c>
       <c r="Q51" s="21" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="R51" s="2">
         <f t="shared" si="19"/>
@@ -22134,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="20" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="R52" s="2">
         <f t="shared" si="19"/>
@@ -22189,7 +22195,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="21" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="R53" s="2">
         <f t="shared" si="19"/>
@@ -22209,7 +22215,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C54" s="9" t="str">
         <f t="shared" si="11"/>
@@ -22244,7 +22250,7 @@
         <v>0</v>
       </c>
       <c r="Q54" s="20" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="R54" s="2">
         <f t="shared" si="19"/>
@@ -22299,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="Q55" s="21" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="R55" s="2">
         <f t="shared" si="19"/>
@@ -22354,7 +22360,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="20" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="R56" s="2">
         <f t="shared" si="19"/>
@@ -22409,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="Q57" s="21" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="R57" s="2">
         <f t="shared" si="19"/>
@@ -22429,7 +22435,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C58" s="9" t="str">
         <f t="shared" si="11"/>
@@ -22464,7 +22470,7 @@
         <v>0</v>
       </c>
       <c r="Q58" s="20" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="R58" s="2">
         <f t="shared" si="19"/>
@@ -22519,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="Q59" s="21" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="R59" s="2">
         <f t="shared" si="19"/>
@@ -22574,7 +22580,7 @@
         <v>0</v>
       </c>
       <c r="Q60" s="20" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="R60" s="2">
         <f t="shared" si="19"/>
@@ -22629,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="Q61" s="21" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="R61" s="2">
         <f t="shared" si="19"/>
@@ -22672,19 +22678,19 @@
         <v>come</v>
       </c>
       <c r="H62" t="s">
+        <v>268</v>
+      </c>
+      <c r="I62" t="s">
+        <v>269</v>
+      </c>
+      <c r="J62" t="s">
         <v>270</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
+        <v>272</v>
+      </c>
+      <c r="L62" t="s">
         <v>271</v>
-      </c>
-      <c r="J62" t="s">
-        <v>272</v>
-      </c>
-      <c r="K62" t="s">
-        <v>274</v>
-      </c>
-      <c r="L62" t="s">
-        <v>273</v>
       </c>
       <c r="M62" s="2">
         <v>1</v>
@@ -22702,7 +22708,7 @@
         <v>1</v>
       </c>
       <c r="Q62" s="20" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="R62" s="2">
         <f t="shared" si="19"/>
@@ -22745,19 +22751,19 @@
         <v>cyclists</v>
       </c>
       <c r="H63" t="s">
+        <v>273</v>
+      </c>
+      <c r="I63" t="s">
+        <v>280</v>
+      </c>
+      <c r="J63" t="s">
+        <v>274</v>
+      </c>
+      <c r="K63" t="s">
         <v>275</v>
       </c>
-      <c r="I63" t="s">
-        <v>282</v>
-      </c>
-      <c r="J63" t="s">
-        <v>276</v>
-      </c>
-      <c r="K63" t="s">
-        <v>277</v>
-      </c>
       <c r="L63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M63" s="2">
         <v>2</v>
@@ -22775,7 +22781,7 @@
         <v>1</v>
       </c>
       <c r="Q63" s="21" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="R63" s="2">
         <f t="shared" si="19"/>
@@ -22818,19 +22824,19 @@
         <v>attract</v>
       </c>
       <c r="H64" t="s">
+        <v>276</v>
+      </c>
+      <c r="I64" t="s">
+        <v>555</v>
+      </c>
+      <c r="J64" t="s">
+        <v>279</v>
+      </c>
+      <c r="K64" t="s">
+        <v>277</v>
+      </c>
+      <c r="L64" t="s">
         <v>278</v>
-      </c>
-      <c r="I64" t="s">
-        <v>563</v>
-      </c>
-      <c r="J64" t="s">
-        <v>281</v>
-      </c>
-      <c r="K64" t="s">
-        <v>279</v>
-      </c>
-      <c r="L64" t="s">
-        <v>280</v>
       </c>
       <c r="M64" s="2">
         <v>3</v>
@@ -22848,7 +22854,7 @@
         <v>1</v>
       </c>
       <c r="Q64" s="20" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="R64" s="2">
         <f t="shared" si="19"/>
@@ -22891,19 +22897,19 @@
         <v>valve</v>
       </c>
       <c r="H65" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" t="s">
         <v>284</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
+        <v>285</v>
+      </c>
+      <c r="K65" t="s">
         <v>286</v>
       </c>
-      <c r="J65" t="s">
-        <v>287</v>
-      </c>
-      <c r="K65" t="s">
-        <v>288</v>
-      </c>
       <c r="L65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M65" s="2">
         <v>4</v>
@@ -22921,7 +22927,7 @@
         <v>1</v>
       </c>
       <c r="Q65" s="21" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="R65" s="2">
         <f t="shared" si="19"/>
@@ -22964,19 +22970,19 @@
         <v>remain</v>
       </c>
       <c r="H66" t="s">
+        <v>287</v>
+      </c>
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="J66" t="s">
+        <v>288</v>
+      </c>
+      <c r="K66" t="s">
         <v>289</v>
       </c>
-      <c r="I66" t="s">
-        <v>292</v>
-      </c>
-      <c r="J66" t="s">
-        <v>290</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>291</v>
-      </c>
-      <c r="L66" t="s">
-        <v>293</v>
       </c>
       <c r="M66" s="2">
         <v>1</v>
@@ -22994,7 +23000,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="20" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="R66" s="2">
         <f t="shared" ref="R66:R97" si="28">IF(LEN(B66)=LEN(Q66),1,0)</f>
@@ -23037,19 +23043,19 @@
         <v>another</v>
       </c>
       <c r="H67" t="s">
+        <v>292</v>
+      </c>
+      <c r="I67" t="s">
+        <v>781</v>
+      </c>
+      <c r="J67" t="s">
+        <v>293</v>
+      </c>
+      <c r="K67" t="s">
         <v>294</v>
       </c>
-      <c r="I67" t="s">
-        <v>564</v>
-      </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>295</v>
-      </c>
-      <c r="K67" t="s">
-        <v>296</v>
-      </c>
-      <c r="L67" t="s">
-        <v>297</v>
       </c>
       <c r="M67" s="2">
         <v>2</v>
@@ -23067,7 +23073,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="21" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="R67" s="2">
         <f t="shared" si="28"/>
@@ -23110,19 +23116,19 @@
         <v>members</v>
       </c>
       <c r="H68" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" t="s">
         <v>298</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>300</v>
       </c>
-      <c r="J68" t="s">
-        <v>302</v>
-      </c>
       <c r="K68" t="s">
+        <v>297</v>
+      </c>
+      <c r="L68" t="s">
         <v>299</v>
-      </c>
-      <c r="L68" t="s">
-        <v>301</v>
       </c>
       <c r="M68" s="2">
         <v>3</v>
@@ -23140,7 +23146,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="20" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="R68" s="2">
         <f t="shared" si="28"/>
@@ -23183,19 +23189,19 @@
         <v>some</v>
       </c>
       <c r="H69" t="s">
+        <v>301</v>
+      </c>
+      <c r="I69" t="s">
         <v>303</v>
       </c>
-      <c r="I69" t="s">
-        <v>305</v>
-      </c>
       <c r="J69" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L69" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M69" s="2">
         <v>4</v>
@@ -23213,7 +23219,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="21" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="R69" s="2">
         <f t="shared" si="28"/>
@@ -23256,19 +23262,19 @@
         <v>before</v>
       </c>
       <c r="H70" t="s">
+        <v>305</v>
+      </c>
+      <c r="I70" t="s">
+        <v>306</v>
+      </c>
+      <c r="J70" t="s">
         <v>307</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
+        <v>556</v>
+      </c>
+      <c r="L70" t="s">
         <v>308</v>
-      </c>
-      <c r="J70" t="s">
-        <v>309</v>
-      </c>
-      <c r="K70" t="s">
-        <v>565</v>
-      </c>
-      <c r="L70" t="s">
-        <v>310</v>
       </c>
       <c r="M70" s="2">
         <v>1</v>
@@ -23286,7 +23292,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="20" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="R70" s="2">
         <f t="shared" si="28"/>
@@ -23329,19 +23335,19 @@
         <v>wealthy</v>
       </c>
       <c r="H71" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I71" t="s">
+        <v>310</v>
+      </c>
+      <c r="J71" t="s">
+        <v>309</v>
+      </c>
+      <c r="K71" t="s">
+        <v>311</v>
+      </c>
+      <c r="L71" t="s">
         <v>312</v>
-      </c>
-      <c r="J71" t="s">
-        <v>311</v>
-      </c>
-      <c r="K71" t="s">
-        <v>313</v>
-      </c>
-      <c r="L71" t="s">
-        <v>314</v>
       </c>
       <c r="M71" s="2">
         <v>2</v>
@@ -23359,7 +23365,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="21" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="R71" s="2">
         <f t="shared" si="28"/>
@@ -23402,19 +23408,19 @@
         <v>place</v>
       </c>
       <c r="H72" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="I72" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J72" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K72" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L72" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M72" s="2">
         <v>3</v>
@@ -23432,7 +23438,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="R72" s="2">
         <f t="shared" si="28"/>
@@ -23475,19 +23481,19 @@
         <v>time</v>
       </c>
       <c r="H73" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="I73" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="J73" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="K73" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="L73" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M73" s="2">
         <v>4</v>
@@ -23505,7 +23511,7 @@
         <v>1</v>
       </c>
       <c r="Q73" s="21" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="R73" s="2">
         <f t="shared" si="28"/>
@@ -23560,7 +23566,7 @@
         <v>0</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="R74" s="2">
         <f t="shared" si="28"/>
@@ -23615,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="Q75" s="21" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="R75" s="2">
         <f t="shared" si="28"/>
@@ -23670,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="R76" s="2">
         <f t="shared" si="28"/>
@@ -23690,7 +23696,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="C77" s="9" t="str">
         <f t="shared" si="20"/>
@@ -23725,7 +23731,7 @@
         <v>0</v>
       </c>
       <c r="Q77" s="21" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="R77" s="2">
         <f t="shared" si="28"/>
@@ -23780,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="R78" s="2">
         <f t="shared" si="28"/>
@@ -23835,7 +23841,7 @@
         <v>0</v>
       </c>
       <c r="Q79" s="21" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="R79" s="2">
         <f t="shared" si="28"/>
@@ -23890,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="R80" s="2">
         <f t="shared" si="28"/>
@@ -23945,7 +23951,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="21" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="R81" s="2">
         <f t="shared" si="28"/>
@@ -24000,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="R82" s="2">
         <f t="shared" si="28"/>
@@ -24055,7 +24061,7 @@
         <v>0</v>
       </c>
       <c r="Q83" s="21" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="R83" s="2">
         <f t="shared" si="28"/>
@@ -24110,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="R84" s="2">
         <f t="shared" si="28"/>
@@ -24165,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q85" s="21" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="R85" s="2">
         <f t="shared" si="28"/>
@@ -24220,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="R86" s="2">
         <f t="shared" si="28"/>
@@ -24275,7 +24281,7 @@
         <v>0</v>
       </c>
       <c r="Q87" s="21" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="R87" s="2">
         <f t="shared" si="28"/>
@@ -24330,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="Q88" s="20" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="R88" s="2">
         <f t="shared" si="28"/>
@@ -24385,7 +24391,7 @@
         <v>0</v>
       </c>
       <c r="Q89" s="21" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="R89" s="2">
         <f t="shared" si="28"/>
@@ -24440,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="Q90" s="20" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="R90" s="2">
         <f t="shared" si="28"/>
@@ -24495,7 +24501,7 @@
         <v>0</v>
       </c>
       <c r="Q91" s="21" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="R91" s="2">
         <f t="shared" si="28"/>
@@ -24538,19 +24544,19 @@
         <v>doctor</v>
       </c>
       <c r="H92" t="s">
+        <v>351</v>
+      </c>
+      <c r="I92" t="s">
+        <v>778</v>
+      </c>
+      <c r="J92" t="s">
         <v>353</v>
       </c>
-      <c r="I92" t="s">
-        <v>357</v>
-      </c>
-      <c r="J92" t="s">
-        <v>355</v>
-      </c>
       <c r="K92" t="s">
+        <v>352</v>
+      </c>
+      <c r="L92" t="s">
         <v>354</v>
-      </c>
-      <c r="L92" t="s">
-        <v>356</v>
       </c>
       <c r="M92" s="2">
         <v>3</v>
@@ -24568,7 +24574,7 @@
         <v>1</v>
       </c>
       <c r="Q92" s="20" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="R92" s="2">
         <f t="shared" si="28"/>
@@ -24611,19 +24617,19 @@
         <v>which</v>
       </c>
       <c r="H93" t="s">
+        <v>355</v>
+      </c>
+      <c r="I93" t="s">
         <v>358</v>
       </c>
-      <c r="I93" t="s">
-        <v>361</v>
-      </c>
       <c r="J93" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K93" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L93" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="M93" s="2">
         <v>4</v>
@@ -24641,7 +24647,7 @@
         <v>1</v>
       </c>
       <c r="Q93" s="21" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="R93" s="2">
         <f t="shared" si="28"/>
@@ -24684,19 +24690,19 @@
         <v>digging</v>
       </c>
       <c r="H94" t="s">
+        <v>359</v>
+      </c>
+      <c r="I94" t="s">
+        <v>360</v>
+      </c>
+      <c r="J94" t="s">
+        <v>361</v>
+      </c>
+      <c r="K94" t="s">
         <v>362</v>
       </c>
-      <c r="I94" t="s">
+      <c r="L94" t="s">
         <v>363</v>
-      </c>
-      <c r="J94" t="s">
-        <v>364</v>
-      </c>
-      <c r="K94" t="s">
-        <v>365</v>
-      </c>
-      <c r="L94" t="s">
-        <v>366</v>
       </c>
       <c r="M94" s="2">
         <v>1</v>
@@ -24714,7 +24720,7 @@
         <v>1</v>
       </c>
       <c r="Q94" s="20" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="R94" s="2">
         <f t="shared" si="28"/>
@@ -24757,19 +24763,19 @@
         <v>could</v>
       </c>
       <c r="H95" t="s">
+        <v>364</v>
+      </c>
+      <c r="I95" t="s">
+        <v>366</v>
+      </c>
+      <c r="J95" t="s">
+        <v>365</v>
+      </c>
+      <c r="K95" t="s">
         <v>367</v>
       </c>
-      <c r="I95" t="s">
-        <v>369</v>
-      </c>
-      <c r="J95" t="s">
+      <c r="L95" t="s">
         <v>368</v>
-      </c>
-      <c r="K95" t="s">
-        <v>370</v>
-      </c>
-      <c r="L95" t="s">
-        <v>371</v>
       </c>
       <c r="M95" s="2">
         <v>2</v>
@@ -24787,7 +24793,7 @@
         <v>1</v>
       </c>
       <c r="Q95" s="21" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="R95" s="2">
         <f t="shared" si="28"/>
@@ -24830,19 +24836,19 @@
         <v>during</v>
       </c>
       <c r="H96" t="s">
+        <v>369</v>
+      </c>
+      <c r="I96" t="s">
+        <v>481</v>
+      </c>
+      <c r="J96" t="s">
+        <v>371</v>
+      </c>
+      <c r="K96" t="s">
+        <v>370</v>
+      </c>
+      <c r="L96" t="s">
         <v>372</v>
-      </c>
-      <c r="I96" t="s">
-        <v>487</v>
-      </c>
-      <c r="J96" t="s">
-        <v>374</v>
-      </c>
-      <c r="K96" t="s">
-        <v>373</v>
-      </c>
-      <c r="L96" t="s">
-        <v>375</v>
       </c>
       <c r="M96" s="2">
         <v>3</v>
@@ -24860,7 +24866,7 @@
         <v>1</v>
       </c>
       <c r="Q96" s="20" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="R96" s="2">
         <f t="shared" si="28"/>
@@ -24903,19 +24909,19 @@
         <v>tickets</v>
       </c>
       <c r="H97" t="s">
+        <v>373</v>
+      </c>
+      <c r="I97" t="s">
         <v>376</v>
       </c>
-      <c r="I97" t="s">
-        <v>379</v>
-      </c>
       <c r="J97" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K97" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="L97" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M97" s="2">
         <v>4</v>
@@ -24933,7 +24939,7 @@
         <v>1</v>
       </c>
       <c r="Q97" s="21" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="R97" s="2">
         <f t="shared" si="28"/>
@@ -24976,19 +24982,19 @@
         <v>spend</v>
       </c>
       <c r="H98" t="s">
+        <v>379</v>
+      </c>
+      <c r="I98" t="s">
+        <v>380</v>
+      </c>
+      <c r="J98" t="s">
+        <v>381</v>
+      </c>
+      <c r="K98" t="s">
         <v>382</v>
       </c>
-      <c r="I98" t="s">
-        <v>383</v>
-      </c>
-      <c r="J98" t="s">
-        <v>384</v>
-      </c>
-      <c r="K98" t="s">
-        <v>385</v>
-      </c>
       <c r="L98" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="M98" s="2">
         <v>1</v>
@@ -25006,7 +25012,7 @@
         <v>1</v>
       </c>
       <c r="Q98" s="20" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="R98" s="2">
         <f t="shared" ref="R98:R129" si="39">IF(LEN(B98)=LEN(Q98),1,0)</f>
@@ -25049,19 +25055,19 @@
         <v>household</v>
       </c>
       <c r="H99" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I99" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="J99" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K99" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L99" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="M99" s="2">
         <v>2</v>
@@ -25079,7 +25085,7 @@
         <v>1</v>
       </c>
       <c r="Q99" s="21" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="R99" s="2">
         <f t="shared" si="39"/>
@@ -25122,19 +25128,19 @@
         <v>safety</v>
       </c>
       <c r="H100" t="s">
+        <v>385</v>
+      </c>
+      <c r="I100" t="s">
+        <v>386</v>
+      </c>
+      <c r="J100" t="s">
+        <v>387</v>
+      </c>
+      <c r="K100" t="s">
         <v>388</v>
       </c>
-      <c r="I100" t="s">
-        <v>389</v>
-      </c>
-      <c r="J100" t="s">
+      <c r="L100" t="s">
         <v>390</v>
-      </c>
-      <c r="K100" t="s">
-        <v>391</v>
-      </c>
-      <c r="L100" t="s">
-        <v>393</v>
       </c>
       <c r="M100" s="2">
         <v>3</v>
@@ -25152,7 +25158,7 @@
         <v>1</v>
       </c>
       <c r="Q100" s="20" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="R100" s="2">
         <f t="shared" si="39"/>
@@ -25195,19 +25201,19 @@
         <v>restrictions</v>
       </c>
       <c r="H101" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I101" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J101" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K101" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L101" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="M101" s="2">
         <v>4</v>
@@ -25225,7 +25231,7 @@
         <v>1</v>
       </c>
       <c r="Q101" s="21" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="R101" s="2">
         <f t="shared" si="39"/>
@@ -25268,19 +25274,19 @@
         <v>demonstrators</v>
       </c>
       <c r="H102" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="I102" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="J102" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="K102" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="L102" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M102" s="2">
         <v>1</v>
@@ -25298,7 +25304,7 @@
         <v>1</v>
       </c>
       <c r="Q102" s="20" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="R102" s="2">
         <f t="shared" si="39"/>
@@ -25341,19 +25347,19 @@
         <v>camp</v>
       </c>
       <c r="H103" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="I103" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="J103" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="K103" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="L103" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="M103" s="2">
         <v>2</v>
@@ -25371,7 +25377,7 @@
         <v>1</v>
       </c>
       <c r="Q103" s="21" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="R103" s="2">
         <f t="shared" si="39"/>
@@ -25426,7 +25432,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="20" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="R104" s="2">
         <f t="shared" si="39"/>
@@ -25481,7 +25487,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="21" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="R105" s="2">
         <f t="shared" si="39"/>
@@ -25536,7 +25542,7 @@
         <v>0</v>
       </c>
       <c r="Q106" s="20" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="R106" s="2">
         <f t="shared" si="39"/>
@@ -25591,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="21" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="R107" s="2">
         <f t="shared" si="39"/>
@@ -25646,7 +25652,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="20" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="R108" s="2">
         <f t="shared" si="39"/>
@@ -25701,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="Q109" s="21" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="R109" s="2">
         <f t="shared" si="39"/>
@@ -25756,7 +25762,7 @@
         <v>0</v>
       </c>
       <c r="Q110" s="20" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="R110" s="2">
         <f t="shared" si="39"/>
@@ -25811,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="Q111" s="21" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="R111" s="2">
         <f t="shared" si="39"/>
@@ -25866,7 +25872,7 @@
         <v>0</v>
       </c>
       <c r="Q112" s="20" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="R112" s="2">
         <f t="shared" si="39"/>
@@ -25921,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="Q113" s="21" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="R113" s="2">
         <f t="shared" si="39"/>
@@ -25976,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="Q114" s="20" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="R114" s="2">
         <f t="shared" si="39"/>
@@ -26031,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="Q115" s="21" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="R115" s="2">
         <f t="shared" si="39"/>
@@ -26086,7 +26092,7 @@
         <v>0</v>
       </c>
       <c r="Q116" s="20" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="R116" s="2">
         <f t="shared" si="39"/>
@@ -26141,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="Q117" s="21" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="R117" s="2">
         <f t="shared" si="39"/>
@@ -26196,7 +26202,7 @@
         <v>0</v>
       </c>
       <c r="Q118" s="20" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="R118" s="2">
         <f t="shared" si="39"/>
@@ -26251,7 +26257,7 @@
         <v>0</v>
       </c>
       <c r="Q119" s="21" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="R119" s="2">
         <f t="shared" si="39"/>
@@ -26306,7 +26312,7 @@
         <v>0</v>
       </c>
       <c r="Q120" s="20" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="R120" s="2">
         <f t="shared" si="39"/>
@@ -26361,7 +26367,7 @@
         <v>0</v>
       </c>
       <c r="Q121" s="21" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="R121" s="2">
         <f t="shared" si="39"/>
@@ -26381,7 +26387,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="14" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C122" s="9" t="str">
         <f t="shared" si="31"/>
@@ -26404,19 +26410,19 @@
         <v>collected</v>
       </c>
       <c r="H122" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I122" t="s">
+        <v>394</v>
+      </c>
+      <c r="J122" t="s">
+        <v>779</v>
+      </c>
+      <c r="K122" t="s">
+        <v>396</v>
+      </c>
+      <c r="L122" t="s">
         <v>397</v>
-      </c>
-      <c r="J122" t="s">
-        <v>398</v>
-      </c>
-      <c r="K122" t="s">
-        <v>400</v>
-      </c>
-      <c r="L122" t="s">
-        <v>401</v>
       </c>
       <c r="M122" s="2">
         <v>1</v>
@@ -26434,7 +26440,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="20" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="R122" s="2">
         <f t="shared" si="39"/>
@@ -26477,19 +26483,19 @@
         <v>assess</v>
       </c>
       <c r="H123" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I123" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="J123" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K123" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="L123" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M123" s="2">
         <v>2</v>
@@ -26507,7 +26513,7 @@
         <v>1</v>
       </c>
       <c r="Q123" s="21" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="R123" s="2">
         <f t="shared" si="39"/>
@@ -26527,7 +26533,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="14" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C124" s="9" t="str">
         <f t="shared" si="31"/>
@@ -26550,19 +26556,19 @@
         <v>venue</v>
       </c>
       <c r="H124" t="s">
+        <v>401</v>
+      </c>
+      <c r="I124" t="s">
+        <v>403</v>
+      </c>
+      <c r="J124" t="s">
+        <v>404</v>
+      </c>
+      <c r="K124" t="s">
+        <v>402</v>
+      </c>
+      <c r="L124" t="s">
         <v>405</v>
-      </c>
-      <c r="I124" t="s">
-        <v>407</v>
-      </c>
-      <c r="J124" t="s">
-        <v>408</v>
-      </c>
-      <c r="K124" t="s">
-        <v>406</v>
-      </c>
-      <c r="L124" t="s">
-        <v>409</v>
       </c>
       <c r="M124" s="2">
         <v>3</v>
@@ -26580,7 +26586,7 @@
         <v>1</v>
       </c>
       <c r="Q124" s="20" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="R124" s="2">
         <f t="shared" si="39"/>
@@ -26623,19 +26629,19 @@
         <v>blazing</v>
       </c>
       <c r="H125" t="s">
+        <v>406</v>
+      </c>
+      <c r="I125" t="s">
+        <v>408</v>
+      </c>
+      <c r="J125" t="s">
+        <v>409</v>
+      </c>
+      <c r="K125" t="s">
         <v>410</v>
       </c>
-      <c r="I125" t="s">
-        <v>412</v>
-      </c>
-      <c r="J125" t="s">
-        <v>413</v>
-      </c>
-      <c r="K125" t="s">
-        <v>414</v>
-      </c>
       <c r="L125" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M125" s="2">
         <v>4</v>
@@ -26653,7 +26659,7 @@
         <v>1</v>
       </c>
       <c r="Q125" s="21" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="R125" s="2">
         <f t="shared" si="39"/>
@@ -26696,19 +26702,19 @@
         <v>watch</v>
       </c>
       <c r="H126" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I126" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K126" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L126" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="M126" s="2">
         <v>1</v>
@@ -26726,7 +26732,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="20" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="R126" s="2">
         <f t="shared" si="39"/>
@@ -26769,19 +26775,19 @@
         <v>details</v>
       </c>
       <c r="H127" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="I127" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J127" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="K127" t="s">
-        <v>420</v>
+        <v>783</v>
       </c>
       <c r="L127" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="M127" s="2">
         <v>2</v>
@@ -26799,7 +26805,7 @@
         <v>1</v>
       </c>
       <c r="Q127" s="21" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="R127" s="2">
         <f t="shared" si="39"/>
@@ -26842,19 +26848,19 @@
         <v>outside</v>
       </c>
       <c r="H128" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I128" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J128" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K128" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L128" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M128" s="2">
         <v>3</v>
@@ -26872,7 +26878,7 @@
         <v>1</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="R128" s="2">
         <f t="shared" si="39"/>
@@ -26915,19 +26921,19 @@
         <v>parents</v>
       </c>
       <c r="H129" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="I129" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="J129" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K129" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L129" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="M129" s="2">
         <v>4</v>
@@ -26945,7 +26951,7 @@
         <v>1</v>
       </c>
       <c r="Q129" s="21" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="R129" s="2">
         <f t="shared" si="39"/>
@@ -26988,19 +26994,19 @@
         <v>commuting</v>
       </c>
       <c r="H130" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I130" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J130" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K130" t="s">
-        <v>575</v>
+        <v>782</v>
       </c>
       <c r="L130" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M130" s="2">
         <v>1</v>
@@ -27018,7 +27024,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="20" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="R130" s="2">
         <f t="shared" ref="R130:R161" si="48">IF(LEN(B130)=LEN(Q130),1,0)</f>
@@ -27061,19 +27067,19 @@
         <v>benefit</v>
       </c>
       <c r="H131" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I131" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="J131" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="K131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L131" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="M131" s="2">
         <v>2</v>
@@ -27091,7 +27097,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="21" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="R131" s="2">
         <f t="shared" si="48"/>
@@ -27134,19 +27140,19 @@
         <v>countries</v>
       </c>
       <c r="H132" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="I132" t="s">
-        <v>535</v>
+        <v>784</v>
       </c>
       <c r="J132" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="K132" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="L132" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M132" s="2">
         <v>3</v>
@@ -27164,7 +27170,7 @@
         <v>1</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="R132" s="2">
         <f t="shared" si="48"/>
@@ -27207,19 +27213,19 @@
         <v>appointment</v>
       </c>
       <c r="H133" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="I133" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="J133" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="K133" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L133" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="M133" s="2">
         <v>4</v>
@@ -27237,7 +27243,7 @@
         <v>1</v>
       </c>
       <c r="Q133" s="21" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="R133" s="2">
         <f t="shared" si="48"/>
@@ -27292,7 +27298,7 @@
         <v>0</v>
       </c>
       <c r="Q134" s="20" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="R134" s="2">
         <f t="shared" si="48"/>
@@ -27312,7 +27318,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C135" s="9" t="str">
         <f t="shared" si="40"/>
@@ -27347,7 +27353,7 @@
         <v>0</v>
       </c>
       <c r="Q135" s="21" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="R135" s="2">
         <f t="shared" si="48"/>
@@ -27367,7 +27373,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C136" s="9" t="str">
         <f t="shared" si="40"/>
@@ -27402,7 +27408,7 @@
         <v>0</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="R136" s="2">
         <f t="shared" si="48"/>
@@ -27457,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="Q137" s="21" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="R137" s="2">
         <f t="shared" si="48"/>
@@ -27512,7 +27518,7 @@
         <v>0</v>
       </c>
       <c r="Q138" s="20" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="R138" s="2">
         <f t="shared" si="48"/>
@@ -27567,7 +27573,7 @@
         <v>0</v>
       </c>
       <c r="Q139" s="21" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="R139" s="2">
         <f t="shared" si="48"/>
@@ -27622,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="Q140" s="20" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="R140" s="2">
         <f t="shared" si="48"/>
@@ -27677,7 +27683,7 @@
         <v>0</v>
       </c>
       <c r="Q141" s="21" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="R141" s="2">
         <f t="shared" si="48"/>
@@ -27732,7 +27738,7 @@
         <v>0</v>
       </c>
       <c r="Q142" s="20" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="R142" s="2">
         <f t="shared" si="48"/>
@@ -27787,7 +27793,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="21" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="R143" s="2">
         <f t="shared" si="48"/>
@@ -27842,7 +27848,7 @@
         <v>0</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="R144" s="2">
         <f t="shared" si="48"/>
@@ -27897,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="Q145" s="21" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="R145" s="2">
         <f t="shared" si="48"/>
@@ -27952,7 +27958,7 @@
         <v>0</v>
       </c>
       <c r="Q146" s="20" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="R146" s="2">
         <f t="shared" si="48"/>
@@ -28007,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="Q147" s="21" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="R147" s="2">
         <f t="shared" si="48"/>
@@ -28062,7 +28068,7 @@
         <v>0</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="R148" s="2">
         <f t="shared" si="48"/>
@@ -28117,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="Q149" s="21" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="R149" s="2">
         <f t="shared" si="48"/>
@@ -28172,7 +28178,7 @@
         <v>0</v>
       </c>
       <c r="Q150" s="20" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="R150" s="2">
         <f t="shared" si="48"/>
@@ -28227,7 +28233,7 @@
         <v>0</v>
       </c>
       <c r="Q151" s="21" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="R151" s="2">
         <f t="shared" si="48"/>
@@ -28270,19 +28276,19 @@
         <v>graduation</v>
       </c>
       <c r="H152" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I152" t="s">
-        <v>442</v>
+        <v>780</v>
       </c>
       <c r="J152" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K152" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L152" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M152" s="2">
         <v>3</v>
@@ -28300,7 +28306,7 @@
         <v>1</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="R152" s="2">
         <f t="shared" si="48"/>
@@ -28343,19 +28349,19 @@
         <v>difficult,</v>
       </c>
       <c r="H153" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="I153" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="J153" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="K153" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L153" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="M153" s="2">
         <v>4</v>
@@ -28373,7 +28379,7 @@
         <v>1</v>
       </c>
       <c r="Q153" s="21" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="R153" s="2">
         <f t="shared" si="48"/>
@@ -28416,19 +28422,19 @@
         <v>jacket</v>
       </c>
       <c r="H154" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="I154" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J154" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="K154" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L154" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M154" s="2">
         <v>1</v>
@@ -28446,7 +28452,7 @@
         <v>1</v>
       </c>
       <c r="Q154" s="20" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="R154" s="2">
         <f t="shared" si="48"/>
@@ -28489,19 +28495,19 @@
         <v>spending</v>
       </c>
       <c r="H155" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="I155" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="J155" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K155" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L155" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M155" s="2">
         <v>2</v>
@@ -28519,7 +28525,7 @@
         <v>1</v>
       </c>
       <c r="Q155" s="21" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="R155" s="2">
         <f t="shared" si="48"/>
@@ -28562,19 +28568,19 @@
         <v>opportunity</v>
       </c>
       <c r="H156" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="I156" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="J156" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K156" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L156" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M156" s="2">
         <v>3</v>
@@ -28592,7 +28598,7 @@
         <v>1</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="R156" s="2">
         <f t="shared" si="48"/>
@@ -28635,19 +28641,19 @@
         <v>accountability</v>
       </c>
       <c r="H157" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="I157" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J157" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K157" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="L157" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M157" s="2">
         <v>4</v>
@@ -28665,7 +28671,7 @@
         <v>1</v>
       </c>
       <c r="Q157" s="21" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="R157" s="2">
         <f t="shared" si="48"/>
@@ -28708,19 +28714,19 @@
         <v>arrived</v>
       </c>
       <c r="H158" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I158" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="J158" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="K158" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="L158" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M158" s="2">
         <v>1</v>
@@ -28738,7 +28744,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="20" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="R158" s="2">
         <f t="shared" si="48"/>
@@ -28781,19 +28787,19 @@
         <v>leave</v>
       </c>
       <c r="H159" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I159" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="J159" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K159" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="L159" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="M159" s="2">
         <v>2</v>
@@ -28811,7 +28817,7 @@
         <v>1</v>
       </c>
       <c r="Q159" s="21" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="R159" s="2">
         <f t="shared" si="48"/>
@@ -28854,19 +28860,19 @@
         <v>arguing</v>
       </c>
       <c r="H160" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I160" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="J160" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="K160" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="L160" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M160" s="2">
         <v>3</v>
@@ -28884,7 +28890,7 @@
         <v>1</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="R160" s="2">
         <f t="shared" si="48"/>
@@ -28927,19 +28933,19 @@
         <v>missing</v>
       </c>
       <c r="H161" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="I161" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="J161" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K161" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="L161" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="M161" s="2">
         <v>4</v>
@@ -28957,7 +28963,7 @@
         <v>1</v>
       </c>
       <c r="Q161" s="21" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="R161" s="2">
         <f t="shared" si="48"/>
@@ -29000,19 +29006,19 @@
         <v>looking</v>
       </c>
       <c r="H162" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="I162" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="J162" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K162" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L162" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M162" s="2">
         <v>1</v>
@@ -29030,7 +29036,7 @@
         <v>1</v>
       </c>
       <c r="Q162" s="20" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="R162" s="2">
         <f t="shared" ref="R162:R193" si="59">IF(LEN(B162)=LEN(Q162),1,0)</f>
@@ -29050,7 +29056,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C163" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29073,19 +29079,19 @@
         <v>previous</v>
       </c>
       <c r="H163" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="I163" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="J163" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K163" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="L163" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="M163" s="2">
         <v>2</v>
@@ -29103,7 +29109,7 @@
         <v>1</v>
       </c>
       <c r="Q163" s="21" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="R163" s="2">
         <f t="shared" si="59"/>
@@ -29158,7 +29164,7 @@
         <v>0</v>
       </c>
       <c r="Q164" s="20" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="R164" s="2">
         <f t="shared" si="59"/>
@@ -29213,7 +29219,7 @@
         <v>0</v>
       </c>
       <c r="Q165" s="21" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="R165" s="2">
         <f t="shared" si="59"/>
@@ -29233,7 +29239,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C166" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29268,7 +29274,7 @@
         <v>0</v>
       </c>
       <c r="Q166" s="20" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="R166" s="2">
         <f t="shared" si="59"/>
@@ -29323,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="Q167" s="21" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="R167" s="2">
         <f t="shared" si="59"/>
@@ -29378,7 +29384,7 @@
         <v>0</v>
       </c>
       <c r="Q168" s="20" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="R168" s="2">
         <f t="shared" si="59"/>
@@ -29398,7 +29404,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C169" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29433,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="Q169" s="21" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="R169" s="2">
         <f t="shared" si="59"/>
@@ -29488,7 +29494,7 @@
         <v>0</v>
       </c>
       <c r="Q170" s="20" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="R170" s="2">
         <f t="shared" si="59"/>
@@ -29543,7 +29549,7 @@
         <v>0</v>
       </c>
       <c r="Q171" s="21" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="R171" s="2">
         <f t="shared" si="59"/>
@@ -29598,7 +29604,7 @@
         <v>0</v>
       </c>
       <c r="Q172" s="20" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="R172" s="2">
         <f t="shared" si="59"/>
@@ -29653,7 +29659,7 @@
         <v>0</v>
       </c>
       <c r="Q173" s="21" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="R173" s="2">
         <f t="shared" si="59"/>
@@ -29708,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q174" s="20" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="R174" s="2">
         <f t="shared" si="59"/>
@@ -29763,7 +29769,7 @@
         <v>0</v>
       </c>
       <c r="Q175" s="21" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="R175" s="2">
         <f t="shared" si="59"/>
@@ -29783,7 +29789,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C176" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29818,7 +29824,7 @@
         <v>0</v>
       </c>
       <c r="Q176" s="20" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="R176" s="2">
         <f t="shared" si="59"/>
@@ -29873,7 +29879,7 @@
         <v>0</v>
       </c>
       <c r="Q177" s="21" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="R177" s="2">
         <f t="shared" si="59"/>
@@ -29928,7 +29934,7 @@
         <v>0</v>
       </c>
       <c r="Q178" s="20" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="R178" s="2">
         <f t="shared" si="59"/>
@@ -29948,7 +29954,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C179" s="9" t="str">
         <f t="shared" si="51"/>
@@ -29983,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="Q179" s="21" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="R179" s="2">
         <f t="shared" si="59"/>
@@ -30038,7 +30044,7 @@
         <v>0</v>
       </c>
       <c r="Q180" s="20" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="R180" s="2">
         <f t="shared" si="59"/>
@@ -30093,7 +30099,7 @@
         <v>0</v>
       </c>
       <c r="Q181" s="21" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="R181" s="2">
         <f t="shared" si="59"/>
@@ -30113,7 +30119,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C182" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30139,16 +30145,16 @@
         <v>212</v>
       </c>
       <c r="I182" t="s">
+        <v>326</v>
+      </c>
+      <c r="J182" t="s">
+        <v>483</v>
+      </c>
+      <c r="K182" t="s">
+        <v>327</v>
+      </c>
+      <c r="L182" t="s">
         <v>328</v>
-      </c>
-      <c r="J182" t="s">
-        <v>489</v>
-      </c>
-      <c r="K182" t="s">
-        <v>329</v>
-      </c>
-      <c r="L182" t="s">
-        <v>330</v>
       </c>
       <c r="M182">
         <v>1</v>
@@ -30166,7 +30172,7 @@
         <v>1</v>
       </c>
       <c r="Q182" s="20" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="R182" s="2">
         <f t="shared" si="59"/>
@@ -30186,7 +30192,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C183" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30209,19 +30215,19 @@
         <v>to</v>
       </c>
       <c r="H183" t="s">
+        <v>329</v>
+      </c>
+      <c r="I183" t="s">
+        <v>330</v>
+      </c>
+      <c r="J183" t="s">
         <v>331</v>
       </c>
-      <c r="I183" t="s">
+      <c r="K183" t="s">
         <v>332</v>
       </c>
-      <c r="J183" t="s">
+      <c r="L183" t="s">
         <v>333</v>
-      </c>
-      <c r="K183" t="s">
-        <v>334</v>
-      </c>
-      <c r="L183" t="s">
-        <v>335</v>
       </c>
       <c r="M183">
         <v>2</v>
@@ -30239,7 +30245,7 @@
         <v>1</v>
       </c>
       <c r="Q183" s="21" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="R183" s="2">
         <f t="shared" si="59"/>
@@ -30259,7 +30265,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C184" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30282,19 +30288,19 @@
         <v>friend.</v>
       </c>
       <c r="H184" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I184" t="s">
         <v>196</v>
       </c>
       <c r="J184" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="K184" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L184" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M184">
         <v>3</v>
@@ -30312,7 +30318,7 @@
         <v>1</v>
       </c>
       <c r="Q184" s="20" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="R184" s="2">
         <f t="shared" si="59"/>
@@ -30332,7 +30338,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C185" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30368,7 +30374,7 @@
         <v>0</v>
       </c>
       <c r="Q185" s="21" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="R185" s="2">
         <f t="shared" si="59"/>
@@ -30388,7 +30394,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C186" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30424,7 +30430,7 @@
         <v>0</v>
       </c>
       <c r="Q186" s="20" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="R186" s="2">
         <f t="shared" si="59"/>
@@ -30444,7 +30450,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C187" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30480,7 +30486,7 @@
         <v>0</v>
       </c>
       <c r="Q187" s="21" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="R187" s="2">
         <f t="shared" si="59"/>
@@ -30500,7 +30506,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C188" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30523,19 +30529,19 @@
         <v>his</v>
       </c>
       <c r="H188" t="s">
+        <v>337</v>
+      </c>
+      <c r="I188" t="s">
+        <v>338</v>
+      </c>
+      <c r="J188" t="s">
         <v>339</v>
       </c>
-      <c r="I188" t="s">
+      <c r="K188" t="s">
         <v>340</v>
       </c>
-      <c r="J188" t="s">
+      <c r="L188" t="s">
         <v>341</v>
-      </c>
-      <c r="K188" t="s">
-        <v>342</v>
-      </c>
-      <c r="L188" t="s">
-        <v>343</v>
       </c>
       <c r="M188">
         <v>1</v>
@@ -30553,7 +30559,7 @@
         <v>1</v>
       </c>
       <c r="Q188" s="20" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="R188" s="2">
         <f t="shared" si="59"/>
@@ -30573,7 +30579,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C189" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30596,19 +30602,19 @@
         <v>with</v>
       </c>
       <c r="H189" t="s">
+        <v>342</v>
+      </c>
+      <c r="I189" t="s">
+        <v>343</v>
+      </c>
+      <c r="J189" t="s">
         <v>344</v>
       </c>
-      <c r="I189" t="s">
+      <c r="K189" t="s">
         <v>345</v>
       </c>
-      <c r="J189" t="s">
+      <c r="L189" t="s">
         <v>346</v>
-      </c>
-      <c r="K189" t="s">
-        <v>347</v>
-      </c>
-      <c r="L189" t="s">
-        <v>348</v>
       </c>
       <c r="M189">
         <v>2</v>
@@ -30626,7 +30632,7 @@
         <v>1</v>
       </c>
       <c r="Q189" s="21" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="R189" s="2">
         <f t="shared" si="59"/>
@@ -30646,7 +30652,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C190" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30669,19 +30675,19 @@
         <v>had</v>
       </c>
       <c r="H190" t="s">
+        <v>347</v>
+      </c>
+      <c r="I190" t="s">
+        <v>348</v>
+      </c>
+      <c r="J190" t="s">
         <v>349</v>
       </c>
-      <c r="I190" t="s">
+      <c r="K190" t="s">
         <v>350</v>
       </c>
-      <c r="J190" t="s">
-        <v>351</v>
-      </c>
-      <c r="K190" t="s">
-        <v>352</v>
-      </c>
       <c r="L190" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="M190">
         <v>3</v>
@@ -30699,7 +30705,7 @@
         <v>1</v>
       </c>
       <c r="Q190" s="20" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="R190" s="2">
         <f t="shared" si="59"/>
@@ -30719,7 +30725,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C191" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30755,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="Q191" s="21" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="R191" s="2">
         <f t="shared" si="59"/>
@@ -30775,7 +30781,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C192" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30811,7 +30817,7 @@
         <v>0</v>
       </c>
       <c r="Q192" s="20" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="R192" s="2">
         <f t="shared" si="59"/>
@@ -30831,7 +30837,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C193" s="9" t="str">
         <f t="shared" si="51"/>
@@ -30866,7 +30872,7 @@
         <v>0</v>
       </c>
       <c r="Q193" s="21" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="R193" s="2">
         <f t="shared" si="59"/>

--- a/Corpus/corpus_new.xlsx
+++ b/Corpus/corpus_new.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8C3630-0C82-4C7E-A689-B66EA6B869CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4386C42-E777-4D84-B147-1DCA171437DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -18836,10 +18839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6200F65F-1CAF-461C-A425-17FDB6B8BE4F}">
-  <dimension ref="A1:T197"/>
+  <dimension ref="A1:T199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E120" workbookViewId="0">
-      <selection activeCell="I135" sqref="I135"/>
+    <sheetView tabSelected="1" topLeftCell="G173" workbookViewId="0">
+      <selection activeCell="L198" sqref="L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30929,6 +30932,18 @@
       <c r="T197">
         <f>SUM(T2:T193)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O198" s="1">
+        <f>AVERAGE(O2:O193)</f>
+        <v>15.130208333333334</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="O199" s="1">
+        <f>STDEV(O2:O193)</f>
+        <v>1.8301500405785465</v>
       </c>
     </row>
   </sheetData>
